--- a/code/media_10.xlsx
+++ b/code/media_10.xlsx
@@ -10,8 +10,7 @@
   <sheets>
     <sheet name="Hibrido_BL" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Hibrido_ES" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Random" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="GWO" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="GWO" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
   <si>
     <t xml:space="preserve">milestone</t>
   </si>
@@ -234,14 +233,1527 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3201179600</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>109422472320</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>38801.288</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>149.276617</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>88.818588</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>39.108158</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>96.257812</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>63.87908</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>359.77447</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>2208.7068</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>2125.76584</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>72360829</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>1341963.06</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>9711.8472</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>66511.9164</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>523.38749</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>217.02901</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>10070624.195</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>337145.895</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>261.39327</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>280.21101</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>595.85151</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>410.35903</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>451.00408</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>583.38879</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>1326.63801</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>451.09316</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>497.2874</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <v>526.25462</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>645131.898</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2357794900</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>46810735130</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>29279.6028</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>144.527557</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>72.283977</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>34.418175</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>91.397697</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>55.141776</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>247.4735</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>2086.5227</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>1639.70414</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>64139879</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>1055737.03</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>9070.3584</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>38540.0636</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>434.68112</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>172.46763</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>5043386.345</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>231038.735</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>220.05031</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>271.62996</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>497.74177</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>403.73778</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>446.8646</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>548.78494</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>1114.79694</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>451.09316</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>496.78758</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>487.43236</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>109069.846</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2077829300</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>23390025660</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>27730.1375</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>133.512933</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>68.001273</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>33.157619</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>87.771527</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>47.777206</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>232.36088</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>2007.6936</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>1179.13592</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>51068417</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>1055737.03</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>9070.3584</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>34879.6505</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>434.68112</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>141.59018</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>4960415.345</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>144480.975</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>201.4024</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>260.36397</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>330.87924</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>402.44917</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>445.46152</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>535.36393</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>955.05712</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>451.09316</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <v>496.41526</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>450.08097</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>38187.586</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1985821100</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>17749634110</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>27546.4345</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>100.238618</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>60.293361</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>31.500925</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>83.880286</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>42.500589</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>192.884056</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>1932.387</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>880.50223</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>39678956</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>676597.61</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>9070.3584</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>22544.3265</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>335.24991</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>109.013055</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>2306654.16</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>131198.345</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>187.86295</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>257.20813</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>266.45262</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>391.21506</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>441.78827</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>531.65055</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>927.15476</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <v>450.98924</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <v>495.87718</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <v>436.29471</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>17304.6858</v>
+      </c>
+      <c r="AG5" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1919943000</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2679355259</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>26789.4416</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>92.322633</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>58.468923</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>28.68178</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>80.668185</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>38.435173</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>175.632596</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>1697.1043</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>694.44663</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>26993910</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>639514.103</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>7947.6334</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>11892.9129</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>325.46318</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>99.01506</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>1158044.32</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>94304.715</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>168.26914</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>249.18355</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>258.96155</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>382.28553</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>426.38669</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>518.51725</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>871.96727</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>450.98924</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>495.73538</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>381.78922</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>11272.598</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1810619900</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2310213099</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>26001.307</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>84.122983</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>55.157268</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>27.790332</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>75.621214</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>35.606715</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>129.776336</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>1613.1818</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>543.93414</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>26708025</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>471010.478</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>4503.6133</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>11450.9345</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>292.66997</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>91.721967</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>1054459.53</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>65352.297</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>162.92081</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>244.00189</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>250.47198</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>381.4958</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>419.27625</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>506.01954</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>819.23336</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>449.8782</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>494.89522</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <v>358.07175</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>6639.81793</v>
+      </c>
+      <c r="AG7" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1542370930</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>312809751</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>25729.9004</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>74.897239</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>51.884678</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>27.333097</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>72.392999</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>33.813339</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>127.999986</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1569.009</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>520.53845</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>18463736</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>368791.07</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>4437.0021</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>9834.2192</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>265.47333</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>80.273685</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>925011.82</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>65352.297</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>160.74806</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>242.82788</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>239.40521</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>381.4958</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>416.24889</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>500.23966</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>783.33645</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>448.53926</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>494.36556</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>342.80503</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>5342.62283</v>
+      </c>
+      <c r="AG8" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1266647380</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>152063229</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>25729.9004</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>66.794619</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>50.024974</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>26.798183</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>71.672485</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>32.310746</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>125.857214</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>1494.65</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>518.67535</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>14905414</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>343387.62</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>4386.2743</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>9556.5686</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>265.47333</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>75.419344</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>925011.82</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>43696.36458</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>158.21347</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>242.82788</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>236.95887</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>380.27963</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>413.57376</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <v>493.47037</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <v>777.50601</v>
+      </c>
+      <c r="AC9" s="0" t="n">
+        <v>438.65374</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <v>494.3614</v>
+      </c>
+      <c r="AE9" s="0" t="n">
+        <v>338.92573</v>
+      </c>
+      <c r="AF9" s="0" t="n">
+        <v>5295.48583</v>
+      </c>
+      <c r="AG9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1260625280</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>150664041.5</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>25082.5061</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>64.934767</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>48.732172</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>26.321764</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>71.287741</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>32.059315</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>125.857214</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>1472.8297</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>497.36548</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>13365108.8</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>300066.85</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>4386.2743</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>9556.5686</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>250.83849</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>74.642251</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>694892.01</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>35132.70668</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>158.0172</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>242.36327</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>231.01427</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>379.95754</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>413.57376</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>489.05477</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>777.50601</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <v>438.65374</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <v>494.2929</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <v>334.75975</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>3172.66943</v>
+      </c>
+      <c r="AG10" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1260625280</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>150664041.5</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>24987.1003</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>64.206032</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>47.331102</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>26.321764</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>71.193898</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>31.214878</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>125.620944</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>1458.4906</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>421.87534</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>12788658.8</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>206602.04</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>3768.0436</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>9556.5686</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>240.60753</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>73.475531</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>642941.65</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>20936.77668</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>158.0172</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>242.36327</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>231.01427</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>379.95754</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>413.57376</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>486.60839</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>767.77785</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <v>438.65374</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <v>494.2929</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <v>331.1718</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>2835.85394</v>
+      </c>
+      <c r="AG11" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1162235380</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>147236775.4</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>19236.9353</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>64.186485</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>47.331102</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>26.321764</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>70.88444</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>31.214878</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>125.620944</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>1458.4906</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>347.41075</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>12788658.8</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>163579.248</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>3603.9975</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>9026.6839</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>239.90497</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>73.239063</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>642941.65</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>19773.91968</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>158.0172</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>235.76016</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>228.63054</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>379.95754</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>413.45195</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>485.0761</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>757.24087</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>438.65374</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <v>494.2929</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <v>327.32321</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>2710.65234</v>
+      </c>
+      <c r="AG12" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1162235380</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>132428945.4</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>17067.2696</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>64.186485</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>47.331102</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>26.286113</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>69.75647</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>30.595651</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>125.620944</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>1458.4906</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>290.50182</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>12372278</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>158327.618</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>3558.945</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>8647.8868</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>237.87746</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>73.239063</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>585869.5</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>19773.91968</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>156.30912</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>221.30878</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>225.62856</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>379.95754</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>409.18942</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>476.77433</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <v>757.24087</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <v>438.65374</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <v>494.2929</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <v>324.4163</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <v>2605.83574</v>
+      </c>
+      <c r="AG13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1162235380</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>132428945.4</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>16892.1016</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>64.186485</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>46.486484</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>26.286113</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>69.75647</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>30.595651</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>125.620944</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>1449.261</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>255.18578</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>11708574</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>158327.618</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>3523.4864</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>8647.8868</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>204.25258</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>70.548172</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>576454.95</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>19773.91968</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>156.30912</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>220.25324</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>224.86199</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>379.95754</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>407.26208</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>470.31996</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <v>757.24087</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <v>438.65374</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <v>494.2929</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <v>321.06439</v>
+      </c>
+      <c r="AF14" s="0" t="n">
+        <v>2434.32404</v>
+      </c>
+      <c r="AG14" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1157500080</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>132428945.4</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>16892.1016</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>63.767559</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>46.486484</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>26.154711</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>69.021311</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>30.595651</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>122.826554</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>1449.261</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>227.98971</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>11591441.4</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>148599.638</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>3523.4864</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>8647.8868</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>203.89477</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>64.691919</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>576454.95</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>19773.91968</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>156.30912</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>220.25324</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>224.77275</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>379.3218</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>407.26208</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>470.31996</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <v>757.24087</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <v>438.65374</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <v>494.2929</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <v>320.61319</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>2434.32404</v>
+      </c>
+      <c r="AG15" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -257,14 +1769,1527 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3650019500</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>801947976353</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>63467.122</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>249.05651</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>79.855935</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>35.10952</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>95.518837</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>61.672005</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>345.545833</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>2237.9411</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>1808.28937</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>105100688</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>545134.789</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>14174.07098</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>63216.65</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>407.55451</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>200.51308</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>8845785.82</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>159724.801</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>265.44931</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>275.88979</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>530.94025</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>400.48338</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>453.74307</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>580.83468</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>1041.52108</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>457.61385</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>497.75885</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <v>543.1606</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>402156.828</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2806011200</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>775710755253</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>63467.122</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>139.222899</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>74.110618</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>29.620578</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>88.238321</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>53.653186</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>215.019403</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>2177.4581</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>1552.66778</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>59597025</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>529354.659</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>12979.39138</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>20582.938</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>382.31922</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>142.12732</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>4100303.51</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>68349.3014</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>231.72224</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>271.57772</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>320.37161</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>394.48089</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>443.8332</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>548.8817</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>996.57947</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>457.61384</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>497.56191</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>502.68824</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>99812.594</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2438776200</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>771609631198</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>63467.122</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>107.764191</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>72.9541</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>29.249861</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>87.298633</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>48.491063</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>205.326193</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>2062.2756</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>1343.68318</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>45523849</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>487062.839</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>4874.56428</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>19478.2578</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>350.44799</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>123.119476</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>4082011.12</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>39834.5644</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>212.82275</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>267.49512</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>298.13077</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>394.336</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>436.19797</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>539.12839</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>936.57951</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>457.61384</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <v>497.42974</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>484.55236</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>57631.48234</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2266638300</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>766296813298</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>62835.285</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>101.29919</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>63.504129</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>28.651747</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>85.883405</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>47.050629</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>163.875123</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>1986.169</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>889.20577</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>43916676</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>466569.909</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>4874.56428</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>19478.2578</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>333.68375</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>110.880248</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>3279392.78</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>38594.6324</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>184.53346</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>264.93627</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>295.02714</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>389.43329</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>430.44486</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>528.7697</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>836.88157</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <v>457.61383</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <v>496.43619</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <v>439.12149</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>33729.36904</v>
+      </c>
+      <c r="AG5" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2178205500</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>24107609148</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>62285.074</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>87.045347</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>60.405951</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>27.204752</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>82.403828</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>39.238347</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>158.355263</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>1830.1378</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>616.3479</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>31731986</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>343878.139</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>4777.71538</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>17702.9558</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>293.44522</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>93.243846</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>1901542.38</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>34753.4884</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>174.88822</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>257.84671</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>287.25167</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>389.43329</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>428.22696</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>515.74591</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>785.41961</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>457.61382</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>495.96527</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>397.63389</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>5957.38024</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2006510400</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>6332424671</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>42811.4879</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>69.212296</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>55.693845</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>26.803639</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>78.658388</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>37.150204</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>149.659473</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>1719.9968</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>383.66054</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>23121992.7</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>284494.923</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>4735.20828</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>13775.8272</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>286.33422</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>84.637667</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>1608716.08</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>26227.921</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>174.14918</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>233.92271</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>281.90888</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>384.69847</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>422.22624</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>504.05389</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>743.20324</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>452.48071</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>494.82703</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <v>366.71357</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>5392.86544</v>
+      </c>
+      <c r="AG7" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1823542400</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>566394471</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>41742.1593</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>67.066999</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>52.587308</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>26.043181</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>77.069765</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>35.279384</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>138.208179</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1571.4856</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>351.95235</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>19181975.7</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>253812.593</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>3908.71908</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>12066.7479</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>277.88121</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>82.821289</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>1279709.56</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>22108.485</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>173.30711</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>232.71567</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>278.09053</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>382.31668</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>420.42053</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>493.34556</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>742.85697</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>452.4807</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>494.55883</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>354.02868</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>5032.62414</v>
+      </c>
+      <c r="AG8" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1701378070</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>566394471</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>41742.1593</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>64.069456</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>51.273142</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>26.043181</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>76.868087</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>34.441767</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>138.208179</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>1500.8906</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>342.79431</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>15441322.6</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>188883.073</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>3646.45888</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>9832.2029</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>251.378349</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>80.99543</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>1077420.6</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>21852.054</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>172.14827</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>229.21139</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>271.54885</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>380.30868</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>415.28382</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <v>474.12544</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <v>731.49534</v>
+      </c>
+      <c r="AC9" s="0" t="n">
+        <v>449.98679</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <v>494.24077</v>
+      </c>
+      <c r="AE9" s="0" t="n">
+        <v>350.65735</v>
+      </c>
+      <c r="AF9" s="0" t="n">
+        <v>4957.83214</v>
+      </c>
+      <c r="AG9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1539098470</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>343220708</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>41408.1813</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>63.934235</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>50.980529</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>26.043181</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>75.944844</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>33.584936</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>136.325388</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>1394.0302</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>316.83876</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>14159563.6</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>169909.063</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>3646.45888</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>9631.3403</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>251.378349</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>74.564882</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>827950.18</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>17549.171</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>170.58552</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>220.75166</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>263.86511</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>378.61399</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>411.4219</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>472.24008</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>729.65234</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <v>449.03157</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <v>494.24077</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <v>346.70501</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>4279.99284</v>
+      </c>
+      <c r="AG10" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1429239470</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>305712203.7</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>41408.1813</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>63.934235</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>50.896567</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>26.043181</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>74.736919</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>33.489245</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>136.325388</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>1341.79689</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>303.14163</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>14085416.6</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>145045.606</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>3646.45888</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>8817.855</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>237.011129</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>72.75567</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>809171.93</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>17549.171</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>170.58552</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>215.07359</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>256.10528</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>378.61399</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>407.53484</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>472.07634</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>729.65234</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <v>449.03157</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <v>494.24077</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <v>344.5639</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>4022.74674</v>
+      </c>
+      <c r="AG11" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1371305090</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>304395942.7</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>38467.9573</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>61.726576</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>50.000244</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>25.468647</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>74.736919</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>32.511667</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>136.325388</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>1332.14369</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>292.00976</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>11740556</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>145045.606</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>3459.44318</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>8646.8172</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>191.8973</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>71.420178</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>670319.15</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>17549.171</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>170.09722</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>212.41561</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>233.92093</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>378.61399</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>394.79175</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>472.07634</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>714.10334</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>449.03157</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <v>494.20962</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <v>340.91056</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>3789.35244</v>
+      </c>
+      <c r="AG12" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1371305090</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>240078585.9</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>37269.6323</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>56.623113</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>48.644919</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>25.275361</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>74.525079</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>31.131656</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>133.572608</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>1300.07029</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>292.00976</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>11128024</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>145045.606</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>3459.44318</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>8028.4838</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>173.71186</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>67.508185</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>552765.61</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>17549.171</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>170.09722</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>212.41561</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>228.14375</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>378.61399</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>394.79175</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>472.07634</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <v>710.17705</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <v>449.03157</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <v>494.10909</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <v>335.17996</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <v>3340.15034</v>
+      </c>
+      <c r="AG13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1371305090</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>240078585.9</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>37269.6323</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>56.623113</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>48.13578</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>25.275361</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>72.994274</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>31.131656</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>131.906818</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>1278.66959</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>280.54229</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>10620457</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>141215.624</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>3459.44318</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>8028.4838</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>169.58419</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>63.560706</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>548301.802</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>17523.688</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>170.09722</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>211.66064</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>228.14375</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>378.076</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>392.93834</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>467.11936</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <v>698.21407</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <v>448.9417</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <v>493.81666</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <v>334.04209</v>
+      </c>
+      <c r="AF14" s="0" t="n">
+        <v>3114.07884</v>
+      </c>
+      <c r="AG14" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1371305090</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>237678763.9</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>37269.6323</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>54.909149</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>46.740112</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>25.275361</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>72.528233</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>30.761125</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>131.308158</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>1278.66959</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>270.59558</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>10378106</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>139573.204</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>3459.44318</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>8008.6675</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>161.81248</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>61.734498</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>548301.802</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>17250.181</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>170.09722</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>210.52082</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>227.94842</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>377.74467</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>391.36657</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>465.02512</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <v>694.28996</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <v>439.53711</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <v>493.81666</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <v>331.90093</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>2949.34125</v>
+      </c>
+      <c r="AG15" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -283,1546 +3308,10 @@
   <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>10051970000</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>387428800000</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>28923.09</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>291.8696</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>113.1968</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>71.34697</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>391.4564</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>103.8606</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>2512.905</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>2396.614</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>1463.562</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>1408320000</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>21242520</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>18436.62</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>117580.1</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>715.4907</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>251.5498</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>76866480</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>83853.29</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>261.7655</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>302.5561</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>717.3382</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>404.5701</v>
-      </c>
-      <c r="Z2" s="0" t="n">
-        <v>356.9761</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>906.4578</v>
-      </c>
-      <c r="AB2" s="0" t="n">
-        <v>1373.937</v>
-      </c>
-      <c r="AC2" s="0" t="n">
-        <v>500.9752</v>
-      </c>
-      <c r="AD2" s="0" t="n">
-        <v>952.5521</v>
-      </c>
-      <c r="AE2" s="0" t="n">
-        <v>680.7947</v>
-      </c>
-      <c r="AF2" s="0" t="n">
-        <v>46937110</v>
-      </c>
-      <c r="AG2" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>10051970000</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>158787800000</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>26100.48</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>291.8696</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>113.1968</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>51.52437</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>316.4435</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>103.8606</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>2498.178</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>1804.339</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>1463.562</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>635993800</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>8724231</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>13211.54</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>117580.1</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>715.4907</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>251.5498</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>3518937</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <v>83853.29</v>
-      </c>
-      <c r="V3" s="0" t="n">
-        <v>261.7655</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>257.6503</v>
-      </c>
-      <c r="X3" s="0" t="n">
-        <v>717.3382</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <v>404.5701</v>
-      </c>
-      <c r="Z3" s="0" t="n">
-        <v>356.9761</v>
-      </c>
-      <c r="AA3" s="0" t="n">
-        <v>906.4578</v>
-      </c>
-      <c r="AB3" s="0" t="n">
-        <v>1092.497</v>
-      </c>
-      <c r="AC3" s="0" t="n">
-        <v>500.9752</v>
-      </c>
-      <c r="AD3" s="0" t="n">
-        <v>771.0532</v>
-      </c>
-      <c r="AE3" s="0" t="n">
-        <v>543.7142</v>
-      </c>
-      <c r="AF3" s="0" t="n">
-        <v>28590660</v>
-      </c>
-      <c r="AG3" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>8741368000</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>59137970000</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>26100.48</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>218.8641</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>100.846</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>51.52437</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>299.2716</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>103.8606</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>1859.344</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>1804.339</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>1463.562</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>332226500</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>8724231</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>10611.4</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>117580.1</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>715.4907</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>251.5498</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>533569.3</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>78915.99</v>
-      </c>
-      <c r="V4" s="0" t="n">
-        <v>261.7655</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>257.6503</v>
-      </c>
-      <c r="X4" s="0" t="n">
-        <v>494.3399</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>404.5701</v>
-      </c>
-      <c r="Z4" s="0" t="n">
-        <v>356.9761</v>
-      </c>
-      <c r="AA4" s="0" t="n">
-        <v>906.4578</v>
-      </c>
-      <c r="AB4" s="0" t="n">
-        <v>1041.362</v>
-      </c>
-      <c r="AC4" s="0" t="n">
-        <v>500.9752</v>
-      </c>
-      <c r="AD4" s="0" t="n">
-        <v>771.0532</v>
-      </c>
-      <c r="AE4" s="0" t="n">
-        <v>543.7142</v>
-      </c>
-      <c r="AF4" s="0" t="n">
-        <v>19822880</v>
-      </c>
-      <c r="AG4" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>8049853000</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>12250890000</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>24626.98</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>217.3385</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>81.24822</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>51.52437</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>299.2716</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>94.12467</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>1372.72</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>1804.339</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>1463.562</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>314365100</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>3348206</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>3786.308</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>109195.7</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>523.3189</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>133.2624</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>533569.3</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>20616.06</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>253.6362</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>215.9639</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>162.4723</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <v>404.5701</v>
-      </c>
-      <c r="Z5" s="0" t="n">
-        <v>356.9761</v>
-      </c>
-      <c r="AA5" s="0" t="n">
-        <v>715.5576</v>
-      </c>
-      <c r="AB5" s="0" t="n">
-        <v>919.7084</v>
-      </c>
-      <c r="AC5" s="0" t="n">
-        <v>477.0207</v>
-      </c>
-      <c r="AD5" s="0" t="n">
-        <v>771.0532</v>
-      </c>
-      <c r="AE5" s="0" t="n">
-        <v>519.3601</v>
-      </c>
-      <c r="AF5" s="0" t="n">
-        <v>2724082</v>
-      </c>
-      <c r="AG5" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>5744059000</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>12250890000</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>18579.13</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>128.3093</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>81.24822</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>46.97615</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>253.6068</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>89.16734</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>1372.72</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>1804.339</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>1340.266</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>150398200</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>1485594</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>3786.308</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>17780.78</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>510.7421</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>133.2624</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>533569.3</v>
-      </c>
-      <c r="U6" s="0" t="n">
-        <v>20616.06</v>
-      </c>
-      <c r="V6" s="0" t="n">
-        <v>166.2427</v>
-      </c>
-      <c r="W6" s="0" t="n">
-        <v>213.046</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <v>162.4723</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>404.5701</v>
-      </c>
-      <c r="Z6" s="0" t="n">
-        <v>356.9761</v>
-      </c>
-      <c r="AA6" s="0" t="n">
-        <v>715.5576</v>
-      </c>
-      <c r="AB6" s="0" t="n">
-        <v>919.7084</v>
-      </c>
-      <c r="AC6" s="0" t="n">
-        <v>477.0207</v>
-      </c>
-      <c r="AD6" s="0" t="n">
-        <v>771.0532</v>
-      </c>
-      <c r="AE6" s="0" t="n">
-        <v>519.3601</v>
-      </c>
-      <c r="AF6" s="0" t="n">
-        <v>2724082</v>
-      </c>
-      <c r="AG6" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>2060248000</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1499932000</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>18579.13</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>128.3093</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>72.74701</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>46.97615</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>248.0556</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>72.5735</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>1292.201</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>1785.592</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>436.919</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>142896600</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>879986.3</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>391.5666</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>7416.303</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>282.0698</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>133.2624</v>
-      </c>
-      <c r="T7" s="0" t="n">
-        <v>533569.3</v>
-      </c>
-      <c r="U7" s="0" t="n">
-        <v>5568.55</v>
-      </c>
-      <c r="V7" s="0" t="n">
-        <v>166.2427</v>
-      </c>
-      <c r="W7" s="0" t="n">
-        <v>160.3332</v>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>162.4723</v>
-      </c>
-      <c r="Y7" s="0" t="n">
-        <v>396.1338</v>
-      </c>
-      <c r="Z7" s="0" t="n">
-        <v>333.9663</v>
-      </c>
-      <c r="AA7" s="0" t="n">
-        <v>715.5576</v>
-      </c>
-      <c r="AB7" s="0" t="n">
-        <v>919.7084</v>
-      </c>
-      <c r="AC7" s="0" t="n">
-        <v>475.4209</v>
-      </c>
-      <c r="AD7" s="0" t="n">
-        <v>730.0775</v>
-      </c>
-      <c r="AE7" s="0" t="n">
-        <v>519.3601</v>
-      </c>
-      <c r="AF7" s="0" t="n">
-        <v>2724082</v>
-      </c>
-      <c r="AG7" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>2060248000</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1499932000</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>8238.384</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>128.3093</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>72.74701</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>46.97615</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>234.5467</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>72.5735</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>989.6719</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>1400.779</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>436.919</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>97330060</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>30160.09</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>131.0846</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>7416.303</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>282.0698</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>108.3678</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>533569.3</v>
-      </c>
-      <c r="U8" s="0" t="n">
-        <v>5568.55</v>
-      </c>
-      <c r="V8" s="0" t="n">
-        <v>166.2427</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>160.3332</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>162.4723</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>396.1338</v>
-      </c>
-      <c r="Z8" s="0" t="n">
-        <v>333.9663</v>
-      </c>
-      <c r="AA8" s="0" t="n">
-        <v>715.5576</v>
-      </c>
-      <c r="AB8" s="0" t="n">
-        <v>731.5587</v>
-      </c>
-      <c r="AC8" s="0" t="n">
-        <v>469.5836</v>
-      </c>
-      <c r="AD8" s="0" t="n">
-        <v>695.7445</v>
-      </c>
-      <c r="AE8" s="0" t="n">
-        <v>469.3907</v>
-      </c>
-      <c r="AF8" s="0" t="n">
-        <v>2724082</v>
-      </c>
-      <c r="AG8" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>2060248000</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>69557700</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>8238.384</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>128.3093</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>72.74701</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>46.97615</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>186.4931</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>72.5735</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>989.6719</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>1400.779</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>436.919</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>97330060</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>30160.09</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>131.0846</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>7416.303</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>282.0698</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>108.3678</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>533569.3</v>
-      </c>
-      <c r="U9" s="0" t="n">
-        <v>5568.55</v>
-      </c>
-      <c r="V9" s="0" t="n">
-        <v>166.2427</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>160.3332</v>
-      </c>
-      <c r="X9" s="0" t="n">
-        <v>162.4723</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>396.1338</v>
-      </c>
-      <c r="Z9" s="0" t="n">
-        <v>333.9663</v>
-      </c>
-      <c r="AA9" s="0" t="n">
-        <v>715.5576</v>
-      </c>
-      <c r="AB9" s="0" t="n">
-        <v>731.5587</v>
-      </c>
-      <c r="AC9" s="0" t="n">
-        <v>458.2932</v>
-      </c>
-      <c r="AD9" s="0" t="n">
-        <v>659.383</v>
-      </c>
-      <c r="AE9" s="0" t="n">
-        <v>469.3907</v>
-      </c>
-      <c r="AF9" s="0" t="n">
-        <v>2724082</v>
-      </c>
-      <c r="AG9" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>2060248000</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>69557700</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>8238.384</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>128.3093</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>72.74701</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>46.97615</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>186.4931</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>72.5735</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>989.6719</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>1400.779</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>436.919</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>75328510</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>30160.09</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>131.0846</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>7416.303</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>62.72228</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>108.3678</v>
-      </c>
-      <c r="T10" s="0" t="n">
-        <v>47675.76</v>
-      </c>
-      <c r="U10" s="0" t="n">
-        <v>5568.55</v>
-      </c>
-      <c r="V10" s="0" t="n">
-        <v>166.2427</v>
-      </c>
-      <c r="W10" s="0" t="n">
-        <v>160.3332</v>
-      </c>
-      <c r="X10" s="0" t="n">
-        <v>162.4723</v>
-      </c>
-      <c r="Y10" s="0" t="n">
-        <v>396.1338</v>
-      </c>
-      <c r="Z10" s="0" t="n">
-        <v>333.9663</v>
-      </c>
-      <c r="AA10" s="0" t="n">
-        <v>705.2915</v>
-      </c>
-      <c r="AB10" s="0" t="n">
-        <v>731.5587</v>
-      </c>
-      <c r="AC10" s="0" t="n">
-        <v>454.9634</v>
-      </c>
-      <c r="AD10" s="0" t="n">
-        <v>659.383</v>
-      </c>
-      <c r="AE10" s="0" t="n">
-        <v>469.3907</v>
-      </c>
-      <c r="AF10" s="0" t="n">
-        <v>2724082</v>
-      </c>
-      <c r="AG10" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>2060248000</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>69557700</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>8238.384</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>128.3093</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>72.74701</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>46.97615</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>186.4931</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>67.15972</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>989.6719</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>1400.779</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>436.919</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>75328510</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>30160.09</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>131.0846</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>4087.977</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>62.72228</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>108.3678</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>47675.76</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>5568.55</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>166.2427</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>160.3332</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>162.4723</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <v>396.1338</v>
-      </c>
-      <c r="Z11" s="0" t="n">
-        <v>333.9663</v>
-      </c>
-      <c r="AA11" s="0" t="n">
-        <v>575.2991</v>
-      </c>
-      <c r="AB11" s="0" t="n">
-        <v>731.5587</v>
-      </c>
-      <c r="AC11" s="0" t="n">
-        <v>447.2154</v>
-      </c>
-      <c r="AD11" s="0" t="n">
-        <v>659.383</v>
-      </c>
-      <c r="AE11" s="0" t="n">
-        <v>465.8285</v>
-      </c>
-      <c r="AF11" s="0" t="n">
-        <v>2724082</v>
-      </c>
-      <c r="AG11" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>2060248000</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>69557700</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>8238.384</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>128.3093</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>72.2558</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>46.97615</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>186.4931</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>67.15972</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>989.6719</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>1400.779</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>436.919</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>75328510</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>30160.09</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>131.0846</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>4087.977</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>62.72228</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>108.3678</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>47675.76</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>5568.55</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>166.2427</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>147.6975</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>162.4723</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>396.1338</v>
-      </c>
-      <c r="Z12" s="0" t="n">
-        <v>333.9663</v>
-      </c>
-      <c r="AA12" s="0" t="n">
-        <v>575.2991</v>
-      </c>
-      <c r="AB12" s="0" t="n">
-        <v>731.5587</v>
-      </c>
-      <c r="AC12" s="0" t="n">
-        <v>447.2154</v>
-      </c>
-      <c r="AD12" s="0" t="n">
-        <v>659.383</v>
-      </c>
-      <c r="AE12" s="0" t="n">
-        <v>465.8285</v>
-      </c>
-      <c r="AF12" s="0" t="n">
-        <v>2724082</v>
-      </c>
-      <c r="AG12" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>2060248000</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>69557700</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>8238.384</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>128.3093</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>72.2558</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>46.97615</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>186.4931</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>67.15972</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>989.6719</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>1400.779</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>402.9834</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>75328510</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>30160.09</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>131.0846</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>4087.977</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>62.72228</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>108.3678</v>
-      </c>
-      <c r="T13" s="0" t="n">
-        <v>47675.76</v>
-      </c>
-      <c r="U13" s="0" t="n">
-        <v>5568.55</v>
-      </c>
-      <c r="V13" s="0" t="n">
-        <v>166.2427</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>145.3156</v>
-      </c>
-      <c r="X13" s="0" t="n">
-        <v>162.4723</v>
-      </c>
-      <c r="Y13" s="0" t="n">
-        <v>396.1338</v>
-      </c>
-      <c r="Z13" s="0" t="n">
-        <v>333.9663</v>
-      </c>
-      <c r="AA13" s="0" t="n">
-        <v>522.663</v>
-      </c>
-      <c r="AB13" s="0" t="n">
-        <v>731.5587</v>
-      </c>
-      <c r="AC13" s="0" t="n">
-        <v>447.2154</v>
-      </c>
-      <c r="AD13" s="0" t="n">
-        <v>659.383</v>
-      </c>
-      <c r="AE13" s="0" t="n">
-        <v>465.8285</v>
-      </c>
-      <c r="AF13" s="0" t="n">
-        <v>2724082</v>
-      </c>
-      <c r="AG13" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>2060248000</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>69557700</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>8238.384</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>128.3093</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>72.2558</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>46.97615</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>186.4931</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>67.15972</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>989.6719</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>1400.779</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>402.9834</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>75328510</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>30160.09</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>131.0846</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>4087.977</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>62.72228</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>108.3678</v>
-      </c>
-      <c r="T14" s="0" t="n">
-        <v>47675.76</v>
-      </c>
-      <c r="U14" s="0" t="n">
-        <v>5568.55</v>
-      </c>
-      <c r="V14" s="0" t="n">
-        <v>103.7311</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>145.3156</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <v>142.4589</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <v>396.1338</v>
-      </c>
-      <c r="Z14" s="0" t="n">
-        <v>307.1326</v>
-      </c>
-      <c r="AA14" s="0" t="n">
-        <v>522.663</v>
-      </c>
-      <c r="AB14" s="0" t="n">
-        <v>731.5587</v>
-      </c>
-      <c r="AC14" s="0" t="n">
-        <v>447.2154</v>
-      </c>
-      <c r="AD14" s="0" t="n">
-        <v>659.383</v>
-      </c>
-      <c r="AE14" s="0" t="n">
-        <v>465.8285</v>
-      </c>
-      <c r="AF14" s="0" t="n">
-        <v>2724082</v>
-      </c>
-      <c r="AG14" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>2060248000</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>69557700</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>8238.384</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>128.3093</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>72.2558</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>39.566</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>186.4931</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>67.15972</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>989.6719</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>1400.779</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>402.9834</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>75328510</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>30160.09</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>131.0846</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>4087.977</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>62.72228</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>108.3678</v>
-      </c>
-      <c r="T15" s="0" t="n">
-        <v>47675.76</v>
-      </c>
-      <c r="U15" s="0" t="n">
-        <v>2624.403</v>
-      </c>
-      <c r="V15" s="0" t="n">
-        <v>103.7311</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>145.3156</v>
-      </c>
-      <c r="X15" s="0" t="n">
-        <v>142.4589</v>
-      </c>
-      <c r="Y15" s="0" t="n">
-        <v>396.1338</v>
-      </c>
-      <c r="Z15" s="0" t="n">
-        <v>307.1326</v>
-      </c>
-      <c r="AA15" s="0" t="n">
-        <v>522.663</v>
-      </c>
-      <c r="AB15" s="0" t="n">
-        <v>731.5587</v>
-      </c>
-      <c r="AC15" s="0" t="n">
-        <v>446.855</v>
-      </c>
-      <c r="AD15" s="0" t="n">
-        <v>655.951</v>
-      </c>
-      <c r="AE15" s="0" t="n">
-        <v>430.366</v>
-      </c>
-      <c r="AF15" s="0" t="n">
-        <v>2724082</v>
-      </c>
-      <c r="AG15" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AG15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>

--- a/code/media_10.xlsx
+++ b/code/media_10.xlsx
@@ -5,12 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hibrido_BL" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Hibrido_ES" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="GWO" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Hibrido_ES" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="GWO" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t xml:space="preserve">milestone</t>
   </si>
@@ -235,11 +234,11 @@
   </sheetPr>
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -347,94 +346,94 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3201179600</v>
+        <v>3650019500</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>109422472320</v>
+        <v>801947976353</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>38801.288</v>
+        <v>63467.122</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>149.276617</v>
+        <v>249.05651</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>88.818588</v>
+        <v>79.855935</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>39.108158</v>
+        <v>35.10952</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>96.257812</v>
+        <v>95.518837</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>63.87908</v>
+        <v>61.672005</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>359.77447</v>
+        <v>345.545833</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>2208.7068</v>
+        <v>2237.9411</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>2125.76584</v>
+        <v>1808.28937</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>72360829</v>
+        <v>105100688</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>1341963.06</v>
+        <v>545134.789</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>9711.8472</v>
+        <v>14174.07098</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>66511.9164</v>
+        <v>63216.65</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>523.38749</v>
+        <v>407.55451</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>217.02901</v>
+        <v>200.51308</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>10070624.195</v>
+        <v>8845785.82</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>337145.895</v>
+        <v>159724.801</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>261.39327</v>
+        <v>265.44931</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>280.21101</v>
+        <v>275.88979</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>595.85151</v>
+        <v>530.94025</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>410.35903</v>
+        <v>400.48338</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>451.00408</v>
+        <v>453.74307</v>
       </c>
       <c r="AA2" s="0" t="n">
-        <v>583.38879</v>
+        <v>580.83468</v>
       </c>
       <c r="AB2" s="0" t="n">
-        <v>1326.63801</v>
+        <v>1041.52108</v>
       </c>
       <c r="AC2" s="0" t="n">
-        <v>451.09316</v>
+        <v>457.61385</v>
       </c>
       <c r="AD2" s="0" t="n">
-        <v>497.2874</v>
+        <v>497.75885</v>
       </c>
       <c r="AE2" s="0" t="n">
-        <v>526.25462</v>
+        <v>543.1606</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>645131.898</v>
+        <v>402156.828</v>
       </c>
       <c r="AG2" s="0" t="n">
         <v>10</v>
@@ -448,94 +447,94 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2357794900</v>
+        <v>2806011200</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>46810735130</v>
+        <v>775710755253</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>29279.6028</v>
+        <v>63467.122</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>144.527557</v>
+        <v>139.222899</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>72.283977</v>
+        <v>74.110618</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>34.418175</v>
+        <v>29.620578</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>91.397697</v>
+        <v>88.238321</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>55.141776</v>
+        <v>53.653186</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>247.4735</v>
+        <v>215.019403</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>2086.5227</v>
+        <v>2177.4581</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>1639.70414</v>
+        <v>1552.66778</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>64139879</v>
+        <v>59597025</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>1055737.03</v>
+        <v>529354.659</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>9070.3584</v>
+        <v>12979.39138</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>38540.0636</v>
+        <v>20582.938</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>434.68112</v>
+        <v>382.31922</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>172.46763</v>
+        <v>142.12732</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>5043386.345</v>
+        <v>4100303.51</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>231038.735</v>
+        <v>68349.3014</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>220.05031</v>
+        <v>231.72224</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>271.62996</v>
+        <v>271.57772</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>497.74177</v>
+        <v>320.37161</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>403.73778</v>
+        <v>394.48089</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>446.8646</v>
+        <v>443.8332</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>548.78494</v>
+        <v>548.8817</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>1114.79694</v>
+        <v>996.57947</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>451.09316</v>
+        <v>457.61384</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>496.78758</v>
+        <v>497.56191</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>487.43236</v>
+        <v>502.68824</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>109069.846</v>
+        <v>99812.594</v>
       </c>
       <c r="AG3" s="0" t="n">
         <v>10</v>
@@ -549,94 +548,94 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>2077829300</v>
+        <v>2438776200</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>23390025660</v>
+        <v>771609631198</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>27730.1375</v>
+        <v>63467.122</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>133.512933</v>
+        <v>107.764191</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>68.001273</v>
+        <v>72.9541</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>33.157619</v>
+        <v>29.249861</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>87.771527</v>
+        <v>87.298633</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>47.777206</v>
+        <v>48.491063</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>232.36088</v>
+        <v>205.326193</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>2007.6936</v>
+        <v>2062.2756</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>1179.13592</v>
+        <v>1343.68318</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>51068417</v>
+        <v>45523849</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>1055737.03</v>
+        <v>487062.839</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>9070.3584</v>
+        <v>4874.56428</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>34879.6505</v>
+        <v>19478.2578</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>434.68112</v>
+        <v>350.44799</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>141.59018</v>
+        <v>123.119476</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>4960415.345</v>
+        <v>4082011.12</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>144480.975</v>
+        <v>39834.5644</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>201.4024</v>
+        <v>212.82275</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>260.36397</v>
+        <v>267.49512</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>330.87924</v>
+        <v>298.13077</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>402.44917</v>
+        <v>394.336</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>445.46152</v>
+        <v>436.19797</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>535.36393</v>
+        <v>539.12839</v>
       </c>
       <c r="AB4" s="0" t="n">
-        <v>955.05712</v>
+        <v>936.57951</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>451.09316</v>
+        <v>457.61384</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <v>496.41526</v>
+        <v>497.42974</v>
       </c>
       <c r="AE4" s="0" t="n">
-        <v>450.08097</v>
+        <v>484.55236</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>38187.586</v>
+        <v>57631.48234</v>
       </c>
       <c r="AG4" s="0" t="n">
         <v>10</v>
@@ -650,94 +649,94 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1985821100</v>
+        <v>2266638300</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>17749634110</v>
+        <v>766296813298</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>27546.4345</v>
+        <v>62835.285</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>100.238618</v>
+        <v>101.29919</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>60.293361</v>
+        <v>63.504129</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>31.500925</v>
+        <v>28.651747</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>83.880286</v>
+        <v>85.883405</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>42.500589</v>
+        <v>47.050629</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>192.884056</v>
+        <v>163.875123</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>1932.387</v>
+        <v>1986.169</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>880.50223</v>
+        <v>889.20577</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>39678956</v>
+        <v>43916676</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>676597.61</v>
+        <v>466569.909</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>9070.3584</v>
+        <v>4874.56428</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>22544.3265</v>
+        <v>19478.2578</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>335.24991</v>
+        <v>333.68375</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>109.013055</v>
+        <v>110.880248</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>2306654.16</v>
+        <v>3279392.78</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>131198.345</v>
+        <v>38594.6324</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>187.86295</v>
+        <v>184.53346</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>257.20813</v>
+        <v>264.93627</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>266.45262</v>
+        <v>295.02714</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>391.21506</v>
+        <v>389.43329</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <v>441.78827</v>
+        <v>430.44486</v>
       </c>
       <c r="AA5" s="0" t="n">
-        <v>531.65055</v>
+        <v>528.7697</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <v>927.15476</v>
+        <v>836.88157</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>450.98924</v>
+        <v>457.61383</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <v>495.87718</v>
+        <v>496.43619</v>
       </c>
       <c r="AE5" s="0" t="n">
-        <v>436.29471</v>
+        <v>439.12149</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>17304.6858</v>
+        <v>33729.36904</v>
       </c>
       <c r="AG5" s="0" t="n">
         <v>10</v>
@@ -751,94 +750,94 @@
         <v>10</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1919943000</v>
+        <v>2178205500</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2679355259</v>
+        <v>24107609148</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>26789.4416</v>
+        <v>62285.074</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>92.322633</v>
+        <v>87.045347</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>58.468923</v>
+        <v>60.405951</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>28.68178</v>
+        <v>27.204752</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>80.668185</v>
+        <v>82.403828</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>38.435173</v>
+        <v>39.238347</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>175.632596</v>
+        <v>158.355263</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>1697.1043</v>
+        <v>1830.1378</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>694.44663</v>
+        <v>616.3479</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>26993910</v>
+        <v>31731986</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>639514.103</v>
+        <v>343878.139</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>7947.6334</v>
+        <v>4777.71538</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>11892.9129</v>
+        <v>17702.9558</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>325.46318</v>
+        <v>293.44522</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>99.01506</v>
+        <v>93.243846</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>1158044.32</v>
+        <v>1901542.38</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>94304.715</v>
+        <v>34753.4884</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>168.26914</v>
+        <v>174.88822</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>249.18355</v>
+        <v>257.84671</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>258.96155</v>
+        <v>287.25167</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>382.28553</v>
+        <v>389.43329</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <v>426.38669</v>
+        <v>428.22696</v>
       </c>
       <c r="AA6" s="0" t="n">
-        <v>518.51725</v>
+        <v>515.74591</v>
       </c>
       <c r="AB6" s="0" t="n">
-        <v>871.96727</v>
+        <v>785.41961</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>450.98924</v>
+        <v>457.61382</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>495.73538</v>
+        <v>495.96527</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <v>381.78922</v>
+        <v>397.63389</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>11272.598</v>
+        <v>5957.38024</v>
       </c>
       <c r="AG6" s="0" t="n">
         <v>10</v>
@@ -852,94 +851,94 @@
         <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1810619900</v>
+        <v>2006510400</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2310213099</v>
+        <v>6332424671</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>26001.307</v>
+        <v>42811.4879</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>84.122983</v>
+        <v>69.212296</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>55.157268</v>
+        <v>55.693845</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>27.790332</v>
+        <v>26.803639</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>75.621214</v>
+        <v>78.658388</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>35.606715</v>
+        <v>37.150204</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>129.776336</v>
+        <v>149.659473</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>1613.1818</v>
+        <v>1719.9968</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>543.93414</v>
+        <v>383.66054</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>26708025</v>
+        <v>23121992.7</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>471010.478</v>
+        <v>284494.923</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>4503.6133</v>
+        <v>4735.20828</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>11450.9345</v>
+        <v>13775.8272</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>292.66997</v>
+        <v>286.33422</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>91.721967</v>
+        <v>84.637667</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>1054459.53</v>
+        <v>1608716.08</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>65352.297</v>
+        <v>26227.921</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>162.92081</v>
+        <v>174.14918</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>244.00189</v>
+        <v>233.92271</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>250.47198</v>
+        <v>281.90888</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>381.4958</v>
+        <v>384.69847</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>419.27625</v>
+        <v>422.22624</v>
       </c>
       <c r="AA7" s="0" t="n">
-        <v>506.01954</v>
+        <v>504.05389</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <v>819.23336</v>
+        <v>743.20324</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>449.8782</v>
+        <v>452.48071</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>494.89522</v>
+        <v>494.82703</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <v>358.07175</v>
+        <v>366.71357</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>6639.81793</v>
+        <v>5392.86544</v>
       </c>
       <c r="AG7" s="0" t="n">
         <v>10</v>
@@ -953,94 +952,94 @@
         <v>30</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1542370930</v>
+        <v>1823542400</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>312809751</v>
+        <v>566394471</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>25729.9004</v>
+        <v>41742.1593</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>74.897239</v>
+        <v>67.066999</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>51.884678</v>
+        <v>52.587308</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>27.333097</v>
+        <v>26.043181</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>72.392999</v>
+        <v>77.069765</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>33.813339</v>
+        <v>35.279384</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>127.999986</v>
+        <v>138.208179</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>1569.009</v>
+        <v>1571.4856</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>520.53845</v>
+        <v>351.95235</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>18463736</v>
+        <v>19181975.7</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>368791.07</v>
+        <v>253812.593</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>4437.0021</v>
+        <v>3908.71908</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>9834.2192</v>
+        <v>12066.7479</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>265.47333</v>
+        <v>277.88121</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>80.273685</v>
+        <v>82.821289</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>925011.82</v>
+        <v>1279709.56</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>65352.297</v>
+        <v>22108.485</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>160.74806</v>
+        <v>173.30711</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>242.82788</v>
+        <v>232.71567</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>239.40521</v>
+        <v>278.09053</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>381.4958</v>
+        <v>382.31668</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <v>416.24889</v>
+        <v>420.42053</v>
       </c>
       <c r="AA8" s="0" t="n">
-        <v>500.23966</v>
+        <v>493.34556</v>
       </c>
       <c r="AB8" s="0" t="n">
-        <v>783.33645</v>
+        <v>742.85697</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>448.53926</v>
+        <v>452.4807</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>494.36556</v>
+        <v>494.55883</v>
       </c>
       <c r="AE8" s="0" t="n">
-        <v>342.80503</v>
+        <v>354.02868</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>5342.62283</v>
+        <v>5032.62414</v>
       </c>
       <c r="AG8" s="0" t="n">
         <v>10</v>
@@ -1054,94 +1053,94 @@
         <v>40</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1266647380</v>
+        <v>1701378070</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>152063229</v>
+        <v>566394471</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>25729.9004</v>
+        <v>41742.1593</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>66.794619</v>
+        <v>64.069456</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>50.024974</v>
+        <v>51.273142</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>26.798183</v>
+        <v>26.043181</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>71.672485</v>
+        <v>76.868087</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>32.310746</v>
+        <v>34.441767</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>125.857214</v>
+        <v>138.208179</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>1494.65</v>
+        <v>1500.8906</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>518.67535</v>
+        <v>342.79431</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>14905414</v>
+        <v>15441322.6</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>343387.62</v>
+        <v>188883.073</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>4386.2743</v>
+        <v>3646.45888</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>9556.5686</v>
+        <v>9832.2029</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>265.47333</v>
+        <v>251.378349</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>75.419344</v>
+        <v>80.99543</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>925011.82</v>
+        <v>1077420.6</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>43696.36458</v>
+        <v>21852.054</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>158.21347</v>
+        <v>172.14827</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>242.82788</v>
+        <v>229.21139</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>236.95887</v>
+        <v>271.54885</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>380.27963</v>
+        <v>380.30868</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <v>413.57376</v>
+        <v>415.28382</v>
       </c>
       <c r="AA9" s="0" t="n">
-        <v>493.47037</v>
+        <v>474.12544</v>
       </c>
       <c r="AB9" s="0" t="n">
-        <v>777.50601</v>
+        <v>731.49534</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>438.65374</v>
+        <v>449.98679</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <v>494.3614</v>
+        <v>494.24077</v>
       </c>
       <c r="AE9" s="0" t="n">
-        <v>338.92573</v>
+        <v>350.65735</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>5295.48583</v>
+        <v>4957.83214</v>
       </c>
       <c r="AG9" s="0" t="n">
         <v>10</v>
@@ -1155,94 +1154,94 @@
         <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1260625280</v>
+        <v>1539098470</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>150664041.5</v>
+        <v>343220708</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>25082.5061</v>
+        <v>41408.1813</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>64.934767</v>
+        <v>63.934235</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>48.732172</v>
+        <v>50.980529</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>26.321764</v>
+        <v>26.043181</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>71.287741</v>
+        <v>75.944844</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>32.059315</v>
+        <v>33.584936</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>125.857214</v>
+        <v>136.325388</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>1472.8297</v>
+        <v>1394.0302</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>497.36548</v>
+        <v>316.83876</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>13365108.8</v>
+        <v>14159563.6</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>300066.85</v>
+        <v>169909.063</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>4386.2743</v>
+        <v>3646.45888</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>9556.5686</v>
+        <v>9631.3403</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>250.83849</v>
+        <v>251.378349</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>74.642251</v>
+        <v>74.564882</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>694892.01</v>
+        <v>827950.18</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>35132.70668</v>
+        <v>17549.171</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>158.0172</v>
+        <v>170.58552</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>242.36327</v>
+        <v>220.75166</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>231.01427</v>
+        <v>263.86511</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>379.95754</v>
+        <v>378.61399</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <v>413.57376</v>
+        <v>411.4219</v>
       </c>
       <c r="AA10" s="0" t="n">
-        <v>489.05477</v>
+        <v>472.24008</v>
       </c>
       <c r="AB10" s="0" t="n">
-        <v>777.50601</v>
+        <v>729.65234</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>438.65374</v>
+        <v>449.03157</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>494.2929</v>
+        <v>494.24077</v>
       </c>
       <c r="AE10" s="0" t="n">
-        <v>334.75975</v>
+        <v>346.70501</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>3172.66943</v>
+        <v>4279.99284</v>
       </c>
       <c r="AG10" s="0" t="n">
         <v>10</v>
@@ -1256,94 +1255,94 @@
         <v>60</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1260625280</v>
+        <v>1429239470</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>150664041.5</v>
+        <v>305712203.7</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>24987.1003</v>
+        <v>41408.1813</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>64.206032</v>
+        <v>63.934235</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>47.331102</v>
+        <v>50.896567</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>26.321764</v>
+        <v>26.043181</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>71.193898</v>
+        <v>74.736919</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>31.214878</v>
+        <v>33.489245</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>125.620944</v>
+        <v>136.325388</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>1458.4906</v>
+        <v>1341.79689</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>421.87534</v>
+        <v>303.14163</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>12788658.8</v>
+        <v>14085416.6</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>206602.04</v>
+        <v>145045.606</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>3768.0436</v>
+        <v>3646.45888</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>9556.5686</v>
+        <v>8817.855</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>240.60753</v>
+        <v>237.011129</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>73.475531</v>
+        <v>72.75567</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>642941.65</v>
+        <v>809171.93</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>20936.77668</v>
+        <v>17549.171</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>158.0172</v>
+        <v>170.58552</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>242.36327</v>
+        <v>215.07359</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>231.01427</v>
+        <v>256.10528</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>379.95754</v>
+        <v>378.61399</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <v>413.57376</v>
+        <v>407.53484</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <v>486.60839</v>
+        <v>472.07634</v>
       </c>
       <c r="AB11" s="0" t="n">
-        <v>767.77785</v>
+        <v>729.65234</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>438.65374</v>
+        <v>449.03157</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>494.2929</v>
+        <v>494.24077</v>
       </c>
       <c r="AE11" s="0" t="n">
-        <v>331.1718</v>
+        <v>344.5639</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>2835.85394</v>
+        <v>4022.74674</v>
       </c>
       <c r="AG11" s="0" t="n">
         <v>10</v>
@@ -1357,94 +1356,94 @@
         <v>70</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1162235380</v>
+        <v>1371305090</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>147236775.4</v>
+        <v>304395942.7</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>19236.9353</v>
+        <v>38467.9573</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>64.186485</v>
+        <v>61.726576</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>47.331102</v>
+        <v>50.000244</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>26.321764</v>
+        <v>25.468647</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>70.88444</v>
+        <v>74.736919</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>31.214878</v>
+        <v>32.511667</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>125.620944</v>
+        <v>136.325388</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>1458.4906</v>
+        <v>1332.14369</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>347.41075</v>
+        <v>292.00976</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>12788658.8</v>
+        <v>11740556</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>163579.248</v>
+        <v>145045.606</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>3603.9975</v>
+        <v>3459.44318</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>9026.6839</v>
+        <v>8646.8172</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>239.90497</v>
+        <v>191.8973</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>73.239063</v>
+        <v>71.420178</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>642941.65</v>
+        <v>670319.15</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>19773.91968</v>
+        <v>17549.171</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>158.0172</v>
+        <v>170.09722</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>235.76016</v>
+        <v>212.41561</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>228.63054</v>
+        <v>233.92093</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>379.95754</v>
+        <v>378.61399</v>
       </c>
       <c r="Z12" s="0" t="n">
-        <v>413.45195</v>
+        <v>394.79175</v>
       </c>
       <c r="AA12" s="0" t="n">
-        <v>485.0761</v>
+        <v>472.07634</v>
       </c>
       <c r="AB12" s="0" t="n">
-        <v>757.24087</v>
+        <v>714.10334</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>438.65374</v>
+        <v>449.03157</v>
       </c>
       <c r="AD12" s="0" t="n">
-        <v>494.2929</v>
+        <v>494.20962</v>
       </c>
       <c r="AE12" s="0" t="n">
-        <v>327.32321</v>
+        <v>340.91056</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>2710.65234</v>
+        <v>3789.35244</v>
       </c>
       <c r="AG12" s="0" t="n">
         <v>10</v>
@@ -1458,94 +1457,94 @@
         <v>80</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1162235380</v>
+        <v>1371305090</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>132428945.4</v>
+        <v>240078585.9</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>17067.2696</v>
+        <v>37269.6323</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>64.186485</v>
+        <v>56.623113</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>47.331102</v>
+        <v>48.644919</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>26.286113</v>
+        <v>25.275361</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>69.75647</v>
+        <v>74.525079</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>30.595651</v>
+        <v>31.131656</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>125.620944</v>
+        <v>133.572608</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>1458.4906</v>
+        <v>1300.07029</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>290.50182</v>
+        <v>292.00976</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>12372278</v>
+        <v>11128024</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>158327.618</v>
+        <v>145045.606</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>3558.945</v>
+        <v>3459.44318</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>8647.8868</v>
+        <v>8028.4838</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>237.87746</v>
+        <v>173.71186</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>73.239063</v>
+        <v>67.508185</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>585869.5</v>
+        <v>552765.61</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>19773.91968</v>
+        <v>17549.171</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>156.30912</v>
+        <v>170.09722</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>221.30878</v>
+        <v>212.41561</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>225.62856</v>
+        <v>228.14375</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>379.95754</v>
+        <v>378.61399</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>409.18942</v>
+        <v>394.79175</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <v>476.77433</v>
+        <v>472.07634</v>
       </c>
       <c r="AB13" s="0" t="n">
-        <v>757.24087</v>
+        <v>710.17705</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>438.65374</v>
+        <v>449.03157</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>494.2929</v>
+        <v>494.10909</v>
       </c>
       <c r="AE13" s="0" t="n">
-        <v>324.4163</v>
+        <v>335.17996</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>2605.83574</v>
+        <v>3340.15034</v>
       </c>
       <c r="AG13" s="0" t="n">
         <v>10</v>
@@ -1559,94 +1558,94 @@
         <v>90</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1162235380</v>
+        <v>1371305090</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>132428945.4</v>
+        <v>240078585.9</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>16892.1016</v>
+        <v>37269.6323</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>64.186485</v>
+        <v>56.623113</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>46.486484</v>
+        <v>48.13578</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>26.286113</v>
+        <v>25.275361</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>69.75647</v>
+        <v>72.994274</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>30.595651</v>
+        <v>31.131656</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>125.620944</v>
+        <v>131.906818</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>1449.261</v>
+        <v>1278.66959</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>255.18578</v>
+        <v>280.54229</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>11708574</v>
+        <v>10620457</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>158327.618</v>
+        <v>141215.624</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>3523.4864</v>
+        <v>3459.44318</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>8647.8868</v>
+        <v>8028.4838</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>204.25258</v>
+        <v>169.58419</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>70.548172</v>
+        <v>63.560706</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>576454.95</v>
+        <v>548301.802</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>19773.91968</v>
+        <v>17523.688</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>156.30912</v>
+        <v>170.09722</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>220.25324</v>
+        <v>211.66064</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>224.86199</v>
+        <v>228.14375</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>379.95754</v>
+        <v>378.076</v>
       </c>
       <c r="Z14" s="0" t="n">
-        <v>407.26208</v>
+        <v>392.93834</v>
       </c>
       <c r="AA14" s="0" t="n">
-        <v>470.31996</v>
+        <v>467.11936</v>
       </c>
       <c r="AB14" s="0" t="n">
-        <v>757.24087</v>
+        <v>698.21407</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>438.65374</v>
+        <v>448.9417</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>494.2929</v>
+        <v>493.81666</v>
       </c>
       <c r="AE14" s="0" t="n">
-        <v>321.06439</v>
+        <v>334.04209</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>2434.32404</v>
+        <v>3114.07884</v>
       </c>
       <c r="AG14" s="0" t="n">
         <v>10</v>
@@ -1660,94 +1659,94 @@
         <v>100</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1157500080</v>
+        <v>1371305090</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>132428945.4</v>
+        <v>237678763.9</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>16892.1016</v>
+        <v>37269.6323</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>63.767559</v>
+        <v>54.909149</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>46.486484</v>
+        <v>46.740112</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>26.154711</v>
+        <v>25.275361</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>69.021311</v>
+        <v>72.528233</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>30.595651</v>
+        <v>30.761125</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>122.826554</v>
+        <v>131.308158</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>1449.261</v>
+        <v>1278.66959</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>227.98971</v>
+        <v>270.59558</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>11591441.4</v>
+        <v>10378106</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>148599.638</v>
+        <v>139573.204</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>3523.4864</v>
+        <v>3459.44318</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>8647.8868</v>
+        <v>8008.6675</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>203.89477</v>
+        <v>161.81248</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>64.691919</v>
+        <v>61.734498</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>576454.95</v>
+        <v>548301.802</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>19773.91968</v>
+        <v>17250.181</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>156.30912</v>
+        <v>170.09722</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>220.25324</v>
+        <v>210.52082</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>224.77275</v>
+        <v>227.94842</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>379.3218</v>
+        <v>377.74467</v>
       </c>
       <c r="Z15" s="0" t="n">
-        <v>407.26208</v>
+        <v>391.36657</v>
       </c>
       <c r="AA15" s="0" t="n">
-        <v>470.31996</v>
+        <v>465.02512</v>
       </c>
       <c r="AB15" s="0" t="n">
-        <v>757.24087</v>
+        <v>694.28996</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>438.65374</v>
+        <v>439.53711</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>494.2929</v>
+        <v>493.81666</v>
       </c>
       <c r="AE15" s="0" t="n">
-        <v>320.61319</v>
+        <v>331.90093</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>2434.32404</v>
+        <v>2949.34125</v>
       </c>
       <c r="AG15" s="0" t="n">
         <v>10</v>
@@ -1772,1546 +1771,10 @@
   <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>3650019500</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>801947976353</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>63467.122</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>249.05651</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>79.855935</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>35.10952</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>95.518837</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>61.672005</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>345.545833</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>2237.9411</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>1808.28937</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>105100688</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>545134.789</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>14174.07098</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>63216.65</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>407.55451</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>200.51308</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>8845785.82</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>159724.801</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>265.44931</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>275.88979</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>530.94025</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>400.48338</v>
-      </c>
-      <c r="Z2" s="0" t="n">
-        <v>453.74307</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>580.83468</v>
-      </c>
-      <c r="AB2" s="0" t="n">
-        <v>1041.52108</v>
-      </c>
-      <c r="AC2" s="0" t="n">
-        <v>457.61385</v>
-      </c>
-      <c r="AD2" s="0" t="n">
-        <v>497.75885</v>
-      </c>
-      <c r="AE2" s="0" t="n">
-        <v>543.1606</v>
-      </c>
-      <c r="AF2" s="0" t="n">
-        <v>402156.828</v>
-      </c>
-      <c r="AG2" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2806011200</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>775710755253</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>63467.122</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>139.222899</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>74.110618</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>29.620578</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>88.238321</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>53.653186</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>215.019403</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>2177.4581</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>1552.66778</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>59597025</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>529354.659</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>12979.39138</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>20582.938</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>382.31922</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>142.12732</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>4100303.51</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <v>68349.3014</v>
-      </c>
-      <c r="V3" s="0" t="n">
-        <v>231.72224</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>271.57772</v>
-      </c>
-      <c r="X3" s="0" t="n">
-        <v>320.37161</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <v>394.48089</v>
-      </c>
-      <c r="Z3" s="0" t="n">
-        <v>443.8332</v>
-      </c>
-      <c r="AA3" s="0" t="n">
-        <v>548.8817</v>
-      </c>
-      <c r="AB3" s="0" t="n">
-        <v>996.57947</v>
-      </c>
-      <c r="AC3" s="0" t="n">
-        <v>457.61384</v>
-      </c>
-      <c r="AD3" s="0" t="n">
-        <v>497.56191</v>
-      </c>
-      <c r="AE3" s="0" t="n">
-        <v>502.68824</v>
-      </c>
-      <c r="AF3" s="0" t="n">
-        <v>99812.594</v>
-      </c>
-      <c r="AG3" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>2438776200</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>771609631198</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>63467.122</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>107.764191</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>72.9541</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>29.249861</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>87.298633</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>48.491063</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>205.326193</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>2062.2756</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>1343.68318</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>45523849</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>487062.839</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>4874.56428</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>19478.2578</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>350.44799</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>123.119476</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>4082011.12</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>39834.5644</v>
-      </c>
-      <c r="V4" s="0" t="n">
-        <v>212.82275</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>267.49512</v>
-      </c>
-      <c r="X4" s="0" t="n">
-        <v>298.13077</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>394.336</v>
-      </c>
-      <c r="Z4" s="0" t="n">
-        <v>436.19797</v>
-      </c>
-      <c r="AA4" s="0" t="n">
-        <v>539.12839</v>
-      </c>
-      <c r="AB4" s="0" t="n">
-        <v>936.57951</v>
-      </c>
-      <c r="AC4" s="0" t="n">
-        <v>457.61384</v>
-      </c>
-      <c r="AD4" s="0" t="n">
-        <v>497.42974</v>
-      </c>
-      <c r="AE4" s="0" t="n">
-        <v>484.55236</v>
-      </c>
-      <c r="AF4" s="0" t="n">
-        <v>57631.48234</v>
-      </c>
-      <c r="AG4" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>2266638300</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>766296813298</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>62835.285</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>101.29919</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>63.504129</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>28.651747</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>85.883405</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>47.050629</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>163.875123</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>1986.169</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>889.20577</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>43916676</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>466569.909</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>4874.56428</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>19478.2578</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>333.68375</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>110.880248</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>3279392.78</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>38594.6324</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>184.53346</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>264.93627</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>295.02714</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <v>389.43329</v>
-      </c>
-      <c r="Z5" s="0" t="n">
-        <v>430.44486</v>
-      </c>
-      <c r="AA5" s="0" t="n">
-        <v>528.7697</v>
-      </c>
-      <c r="AB5" s="0" t="n">
-        <v>836.88157</v>
-      </c>
-      <c r="AC5" s="0" t="n">
-        <v>457.61383</v>
-      </c>
-      <c r="AD5" s="0" t="n">
-        <v>496.43619</v>
-      </c>
-      <c r="AE5" s="0" t="n">
-        <v>439.12149</v>
-      </c>
-      <c r="AF5" s="0" t="n">
-        <v>33729.36904</v>
-      </c>
-      <c r="AG5" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2178205500</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>24107609148</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>62285.074</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>87.045347</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>60.405951</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>27.204752</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>82.403828</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>39.238347</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>158.355263</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>1830.1378</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>616.3479</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>31731986</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>343878.139</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>4777.71538</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>17702.9558</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>293.44522</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>93.243846</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>1901542.38</v>
-      </c>
-      <c r="U6" s="0" t="n">
-        <v>34753.4884</v>
-      </c>
-      <c r="V6" s="0" t="n">
-        <v>174.88822</v>
-      </c>
-      <c r="W6" s="0" t="n">
-        <v>257.84671</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <v>287.25167</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>389.43329</v>
-      </c>
-      <c r="Z6" s="0" t="n">
-        <v>428.22696</v>
-      </c>
-      <c r="AA6" s="0" t="n">
-        <v>515.74591</v>
-      </c>
-      <c r="AB6" s="0" t="n">
-        <v>785.41961</v>
-      </c>
-      <c r="AC6" s="0" t="n">
-        <v>457.61382</v>
-      </c>
-      <c r="AD6" s="0" t="n">
-        <v>495.96527</v>
-      </c>
-      <c r="AE6" s="0" t="n">
-        <v>397.63389</v>
-      </c>
-      <c r="AF6" s="0" t="n">
-        <v>5957.38024</v>
-      </c>
-      <c r="AG6" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>2006510400</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>6332424671</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>42811.4879</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>69.212296</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>55.693845</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>26.803639</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>78.658388</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>37.150204</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>149.659473</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>1719.9968</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>383.66054</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>23121992.7</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>284494.923</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>4735.20828</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>13775.8272</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>286.33422</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>84.637667</v>
-      </c>
-      <c r="T7" s="0" t="n">
-        <v>1608716.08</v>
-      </c>
-      <c r="U7" s="0" t="n">
-        <v>26227.921</v>
-      </c>
-      <c r="V7" s="0" t="n">
-        <v>174.14918</v>
-      </c>
-      <c r="W7" s="0" t="n">
-        <v>233.92271</v>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>281.90888</v>
-      </c>
-      <c r="Y7" s="0" t="n">
-        <v>384.69847</v>
-      </c>
-      <c r="Z7" s="0" t="n">
-        <v>422.22624</v>
-      </c>
-      <c r="AA7" s="0" t="n">
-        <v>504.05389</v>
-      </c>
-      <c r="AB7" s="0" t="n">
-        <v>743.20324</v>
-      </c>
-      <c r="AC7" s="0" t="n">
-        <v>452.48071</v>
-      </c>
-      <c r="AD7" s="0" t="n">
-        <v>494.82703</v>
-      </c>
-      <c r="AE7" s="0" t="n">
-        <v>366.71357</v>
-      </c>
-      <c r="AF7" s="0" t="n">
-        <v>5392.86544</v>
-      </c>
-      <c r="AG7" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1823542400</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>566394471</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>41742.1593</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>67.066999</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>52.587308</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>26.043181</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>77.069765</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>35.279384</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>138.208179</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>1571.4856</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>351.95235</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>19181975.7</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>253812.593</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>3908.71908</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>12066.7479</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>277.88121</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>82.821289</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>1279709.56</v>
-      </c>
-      <c r="U8" s="0" t="n">
-        <v>22108.485</v>
-      </c>
-      <c r="V8" s="0" t="n">
-        <v>173.30711</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>232.71567</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>278.09053</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>382.31668</v>
-      </c>
-      <c r="Z8" s="0" t="n">
-        <v>420.42053</v>
-      </c>
-      <c r="AA8" s="0" t="n">
-        <v>493.34556</v>
-      </c>
-      <c r="AB8" s="0" t="n">
-        <v>742.85697</v>
-      </c>
-      <c r="AC8" s="0" t="n">
-        <v>452.4807</v>
-      </c>
-      <c r="AD8" s="0" t="n">
-        <v>494.55883</v>
-      </c>
-      <c r="AE8" s="0" t="n">
-        <v>354.02868</v>
-      </c>
-      <c r="AF8" s="0" t="n">
-        <v>5032.62414</v>
-      </c>
-      <c r="AG8" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1701378070</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>566394471</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>41742.1593</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>64.069456</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>51.273142</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>26.043181</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>76.868087</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>34.441767</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>138.208179</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>1500.8906</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>342.79431</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>15441322.6</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>188883.073</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>3646.45888</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>9832.2029</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>251.378349</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>80.99543</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>1077420.6</v>
-      </c>
-      <c r="U9" s="0" t="n">
-        <v>21852.054</v>
-      </c>
-      <c r="V9" s="0" t="n">
-        <v>172.14827</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>229.21139</v>
-      </c>
-      <c r="X9" s="0" t="n">
-        <v>271.54885</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>380.30868</v>
-      </c>
-      <c r="Z9" s="0" t="n">
-        <v>415.28382</v>
-      </c>
-      <c r="AA9" s="0" t="n">
-        <v>474.12544</v>
-      </c>
-      <c r="AB9" s="0" t="n">
-        <v>731.49534</v>
-      </c>
-      <c r="AC9" s="0" t="n">
-        <v>449.98679</v>
-      </c>
-      <c r="AD9" s="0" t="n">
-        <v>494.24077</v>
-      </c>
-      <c r="AE9" s="0" t="n">
-        <v>350.65735</v>
-      </c>
-      <c r="AF9" s="0" t="n">
-        <v>4957.83214</v>
-      </c>
-      <c r="AG9" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1539098470</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>343220708</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>41408.1813</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>63.934235</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>50.980529</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>26.043181</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>75.944844</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>33.584936</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>136.325388</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>1394.0302</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>316.83876</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>14159563.6</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>169909.063</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>3646.45888</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>9631.3403</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>251.378349</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>74.564882</v>
-      </c>
-      <c r="T10" s="0" t="n">
-        <v>827950.18</v>
-      </c>
-      <c r="U10" s="0" t="n">
-        <v>17549.171</v>
-      </c>
-      <c r="V10" s="0" t="n">
-        <v>170.58552</v>
-      </c>
-      <c r="W10" s="0" t="n">
-        <v>220.75166</v>
-      </c>
-      <c r="X10" s="0" t="n">
-        <v>263.86511</v>
-      </c>
-      <c r="Y10" s="0" t="n">
-        <v>378.61399</v>
-      </c>
-      <c r="Z10" s="0" t="n">
-        <v>411.4219</v>
-      </c>
-      <c r="AA10" s="0" t="n">
-        <v>472.24008</v>
-      </c>
-      <c r="AB10" s="0" t="n">
-        <v>729.65234</v>
-      </c>
-      <c r="AC10" s="0" t="n">
-        <v>449.03157</v>
-      </c>
-      <c r="AD10" s="0" t="n">
-        <v>494.24077</v>
-      </c>
-      <c r="AE10" s="0" t="n">
-        <v>346.70501</v>
-      </c>
-      <c r="AF10" s="0" t="n">
-        <v>4279.99284</v>
-      </c>
-      <c r="AG10" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1429239470</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>305712203.7</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>41408.1813</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>63.934235</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>50.896567</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>26.043181</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>74.736919</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>33.489245</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>136.325388</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>1341.79689</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>303.14163</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>14085416.6</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>145045.606</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>3646.45888</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>8817.855</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>237.011129</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>72.75567</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>809171.93</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>17549.171</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>170.58552</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>215.07359</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>256.10528</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <v>378.61399</v>
-      </c>
-      <c r="Z11" s="0" t="n">
-        <v>407.53484</v>
-      </c>
-      <c r="AA11" s="0" t="n">
-        <v>472.07634</v>
-      </c>
-      <c r="AB11" s="0" t="n">
-        <v>729.65234</v>
-      </c>
-      <c r="AC11" s="0" t="n">
-        <v>449.03157</v>
-      </c>
-      <c r="AD11" s="0" t="n">
-        <v>494.24077</v>
-      </c>
-      <c r="AE11" s="0" t="n">
-        <v>344.5639</v>
-      </c>
-      <c r="AF11" s="0" t="n">
-        <v>4022.74674</v>
-      </c>
-      <c r="AG11" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1371305090</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>304395942.7</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>38467.9573</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>61.726576</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>50.000244</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>25.468647</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>74.736919</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>32.511667</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>136.325388</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>1332.14369</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>292.00976</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>11740556</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>145045.606</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>3459.44318</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>8646.8172</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>191.8973</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>71.420178</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>670319.15</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>17549.171</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>170.09722</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>212.41561</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>233.92093</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>378.61399</v>
-      </c>
-      <c r="Z12" s="0" t="n">
-        <v>394.79175</v>
-      </c>
-      <c r="AA12" s="0" t="n">
-        <v>472.07634</v>
-      </c>
-      <c r="AB12" s="0" t="n">
-        <v>714.10334</v>
-      </c>
-      <c r="AC12" s="0" t="n">
-        <v>449.03157</v>
-      </c>
-      <c r="AD12" s="0" t="n">
-        <v>494.20962</v>
-      </c>
-      <c r="AE12" s="0" t="n">
-        <v>340.91056</v>
-      </c>
-      <c r="AF12" s="0" t="n">
-        <v>3789.35244</v>
-      </c>
-      <c r="AG12" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1371305090</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>240078585.9</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>37269.6323</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>56.623113</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>48.644919</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>25.275361</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>74.525079</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>31.131656</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>133.572608</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>1300.07029</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>292.00976</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>11128024</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>145045.606</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>3459.44318</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>8028.4838</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>173.71186</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>67.508185</v>
-      </c>
-      <c r="T13" s="0" t="n">
-        <v>552765.61</v>
-      </c>
-      <c r="U13" s="0" t="n">
-        <v>17549.171</v>
-      </c>
-      <c r="V13" s="0" t="n">
-        <v>170.09722</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>212.41561</v>
-      </c>
-      <c r="X13" s="0" t="n">
-        <v>228.14375</v>
-      </c>
-      <c r="Y13" s="0" t="n">
-        <v>378.61399</v>
-      </c>
-      <c r="Z13" s="0" t="n">
-        <v>394.79175</v>
-      </c>
-      <c r="AA13" s="0" t="n">
-        <v>472.07634</v>
-      </c>
-      <c r="AB13" s="0" t="n">
-        <v>710.17705</v>
-      </c>
-      <c r="AC13" s="0" t="n">
-        <v>449.03157</v>
-      </c>
-      <c r="AD13" s="0" t="n">
-        <v>494.10909</v>
-      </c>
-      <c r="AE13" s="0" t="n">
-        <v>335.17996</v>
-      </c>
-      <c r="AF13" s="0" t="n">
-        <v>3340.15034</v>
-      </c>
-      <c r="AG13" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1371305090</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>240078585.9</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>37269.6323</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>56.623113</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>48.13578</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>25.275361</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>72.994274</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>31.131656</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>131.906818</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>1278.66959</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>280.54229</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>10620457</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>141215.624</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>3459.44318</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>8028.4838</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>169.58419</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>63.560706</v>
-      </c>
-      <c r="T14" s="0" t="n">
-        <v>548301.802</v>
-      </c>
-      <c r="U14" s="0" t="n">
-        <v>17523.688</v>
-      </c>
-      <c r="V14" s="0" t="n">
-        <v>170.09722</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>211.66064</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <v>228.14375</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <v>378.076</v>
-      </c>
-      <c r="Z14" s="0" t="n">
-        <v>392.93834</v>
-      </c>
-      <c r="AA14" s="0" t="n">
-        <v>467.11936</v>
-      </c>
-      <c r="AB14" s="0" t="n">
-        <v>698.21407</v>
-      </c>
-      <c r="AC14" s="0" t="n">
-        <v>448.9417</v>
-      </c>
-      <c r="AD14" s="0" t="n">
-        <v>493.81666</v>
-      </c>
-      <c r="AE14" s="0" t="n">
-        <v>334.04209</v>
-      </c>
-      <c r="AF14" s="0" t="n">
-        <v>3114.07884</v>
-      </c>
-      <c r="AG14" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1371305090</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>237678763.9</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>37269.6323</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>54.909149</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>46.740112</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>25.275361</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>72.528233</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>30.761125</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>131.308158</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>1278.66959</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>270.59558</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>10378106</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>139573.204</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>3459.44318</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>8008.6675</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>161.81248</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>61.734498</v>
-      </c>
-      <c r="T15" s="0" t="n">
-        <v>548301.802</v>
-      </c>
-      <c r="U15" s="0" t="n">
-        <v>17250.181</v>
-      </c>
-      <c r="V15" s="0" t="n">
-        <v>170.09722</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>210.52082</v>
-      </c>
-      <c r="X15" s="0" t="n">
-        <v>227.94842</v>
-      </c>
-      <c r="Y15" s="0" t="n">
-        <v>377.74467</v>
-      </c>
-      <c r="Z15" s="0" t="n">
-        <v>391.36657</v>
-      </c>
-      <c r="AA15" s="0" t="n">
-        <v>465.02512</v>
-      </c>
-      <c r="AB15" s="0" t="n">
-        <v>694.28996</v>
-      </c>
-      <c r="AC15" s="0" t="n">
-        <v>439.53711</v>
-      </c>
-      <c r="AD15" s="0" t="n">
-        <v>493.81666</v>
-      </c>
-      <c r="AE15" s="0" t="n">
-        <v>331.90093</v>
-      </c>
-      <c r="AF15" s="0" t="n">
-        <v>2949.34125</v>
-      </c>
-      <c r="AG15" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AG15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>

--- a/code/media_10.xlsx
+++ b/code/media_10.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hibrido_ES" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="GWO" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Mejora_Operador_Evolución" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hibrido_ES" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="GWO" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
   <si>
     <t xml:space="preserve">milestone</t>
   </si>
@@ -234,11 +235,11 @@
   </sheetPr>
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -346,94 +347,94 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3650019500</v>
+        <v>14614904000</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>801947976353</v>
+        <v>5904058582830</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>63467.122</v>
+        <v>30372.299</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>249.05651</v>
+        <v>1392.42384</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>79.855935</v>
+        <v>123.429104</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>35.10952</v>
+        <v>69.23141</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>95.518837</v>
+        <v>251.94008</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>61.672005</v>
+        <v>105.124121</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>345.545833</v>
+        <v>2205.2197</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>2237.9411</v>
+        <v>2183.4563</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>1808.28937</v>
+        <v>8539.81228</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>105100688</v>
+        <v>770529745</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>545134.789</v>
+        <v>34727947.318</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>14174.07098</v>
+        <v>25085.5337</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>63216.65</v>
+        <v>77025.1142</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>407.55451</v>
+        <v>652.85217</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>200.51308</v>
+        <v>312.31335</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>8845785.82</v>
+        <v>186824281</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>159724.801</v>
+        <v>1357528.527</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>265.44931</v>
+        <v>344.45281</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>275.88979</v>
+        <v>255.15349</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>530.94025</v>
+        <v>1122.29458</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>400.48338</v>
+        <v>502.58363</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>453.74307</v>
+        <v>531.91753</v>
       </c>
       <c r="AA2" s="0" t="n">
-        <v>580.83468</v>
+        <v>1128.99271</v>
       </c>
       <c r="AB2" s="0" t="n">
-        <v>1041.52108</v>
+        <v>1651.1344</v>
       </c>
       <c r="AC2" s="0" t="n">
-        <v>457.61385</v>
+        <v>572.96961</v>
       </c>
       <c r="AD2" s="0" t="n">
-        <v>497.75885</v>
+        <v>1046.32534</v>
       </c>
       <c r="AE2" s="0" t="n">
-        <v>543.1606</v>
+        <v>731.31408</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>402156.828</v>
+        <v>30476681.9</v>
       </c>
       <c r="AG2" s="0" t="n">
         <v>10</v>
@@ -447,94 +448,94 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2806011200</v>
+        <v>12509173100</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>775710755253</v>
+        <v>4744299844830</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>63467.122</v>
+        <v>25696.99</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>139.222899</v>
+        <v>1219.63444</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>74.110618</v>
+        <v>119.814943</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>29.620578</v>
+        <v>67.320281</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>88.238321</v>
+        <v>227.36199</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>53.653186</v>
+        <v>95.571073</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>215.019403</v>
+        <v>1944.6579</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>2177.4581</v>
+        <v>2120.0142</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>1552.66778</v>
+        <v>8331.60004</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>59597025</v>
+        <v>623353715</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>529354.659</v>
+        <v>15644952.894</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>12979.39138</v>
+        <v>19092.94515</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>20582.938</v>
+        <v>50665.7322</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>382.31922</v>
+        <v>579.31875</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>142.12732</v>
+        <v>248.1846</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>4100303.51</v>
+        <v>109323103.7</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>68349.3014</v>
+        <v>1051368.6306</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>231.72224</v>
+        <v>307.45086</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>271.57772</v>
+        <v>230.83024</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>320.37161</v>
+        <v>1094.14748</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>394.48089</v>
+        <v>500.37404</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>443.8332</v>
+        <v>501.73996</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>548.8817</v>
+        <v>1034.18189</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>996.57947</v>
+        <v>1433.51869</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>457.61384</v>
+        <v>565.40839</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>497.56191</v>
+        <v>1000.60653</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>502.68824</v>
+        <v>685.33303</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>99812.594</v>
+        <v>22334546.9</v>
       </c>
       <c r="AG3" s="0" t="n">
         <v>10</v>
@@ -548,94 +549,94 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>2438776200</v>
+        <v>11381567200</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>771609631198</v>
+        <v>4204460718830</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>63467.122</v>
+        <v>22607.664</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>107.764191</v>
+        <v>1084.80902</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>72.9541</v>
+        <v>116.454243</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>29.249861</v>
+        <v>65.631287</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>87.298633</v>
+        <v>220.1726</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>48.491063</v>
+        <v>86.925951</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>205.326193</v>
+        <v>1789.4677</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>2062.2756</v>
+        <v>2063.3775</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>1343.68318</v>
+        <v>8035.21314</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>45523849</v>
+        <v>570744035</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>487062.839</v>
+        <v>14604981.394</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>4874.56428</v>
+        <v>13006.99035</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>19478.2578</v>
+        <v>32711.0252</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>350.44799</v>
+        <v>579.31875</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>123.119476</v>
+        <v>221.63032</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>4082011.12</v>
+        <v>97475466</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>39834.5644</v>
+        <v>1051368.6306</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>212.82275</v>
+        <v>289.34627</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>267.49512</v>
+        <v>230.11372</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>298.13077</v>
+        <v>1036.7004</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>394.336</v>
+        <v>490.52599</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>436.19797</v>
+        <v>487.58626</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>539.12839</v>
+        <v>1014.50269</v>
       </c>
       <c r="AB4" s="0" t="n">
-        <v>936.57951</v>
+        <v>1387.93699</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>457.61384</v>
+        <v>564.09003</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <v>497.42974</v>
+        <v>963.91659</v>
       </c>
       <c r="AE4" s="0" t="n">
-        <v>484.55236</v>
+        <v>650.93408</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>57631.48234</v>
+        <v>19188581.6</v>
       </c>
       <c r="AG4" s="0" t="n">
         <v>10</v>
@@ -649,94 +650,94 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>2266638300</v>
+        <v>11265989200</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>766296813298</v>
+        <v>4156130851870</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>62835.285</v>
+        <v>21582.065</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>101.29919</v>
+        <v>935.71718</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>63.504129</v>
+        <v>114.263552</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>28.651747</v>
+        <v>62.872672</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>85.883405</v>
+        <v>200.07151</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>47.050629</v>
+        <v>80.056225</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>163.875123</v>
+        <v>1735.2777</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>1986.169</v>
+        <v>1882.9961</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>889.20577</v>
+        <v>3649.71041</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>43916676</v>
+        <v>344724857</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>466569.909</v>
+        <v>7815124.404</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>4874.56428</v>
+        <v>10549.79005</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>19478.2578</v>
+        <v>18393.651</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>333.68375</v>
+        <v>570.35418</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>110.880248</v>
+        <v>193.54731</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>3279392.78</v>
+        <v>73836826.6</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>38594.6324</v>
+        <v>1023394.8576</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>184.53346</v>
+        <v>281.77319</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>264.93627</v>
+        <v>218.81013</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>295.02714</v>
+        <v>939.6782</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>389.43329</v>
+        <v>482.31887</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <v>430.44486</v>
+        <v>474.47777</v>
       </c>
       <c r="AA5" s="0" t="n">
-        <v>528.7697</v>
+        <v>918.77974</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <v>836.88157</v>
+        <v>1357.52199</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>457.61383</v>
+        <v>545.56188</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <v>496.43619</v>
+        <v>934.29688</v>
       </c>
       <c r="AE5" s="0" t="n">
-        <v>439.12149</v>
+        <v>620.01788</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>33729.36904</v>
+        <v>15392439.8</v>
       </c>
       <c r="AG5" s="0" t="n">
         <v>10</v>
@@ -750,94 +751,94 @@
         <v>10</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2178205500</v>
+        <v>10424856900</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>24107609148</v>
+        <v>2213077261870</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>62285.074</v>
+        <v>18364.1848</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>87.045347</v>
+        <v>875.66805</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>60.405951</v>
+        <v>105.403963</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>27.204752</v>
+        <v>59.510539</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>82.403828</v>
+        <v>191.96909</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>39.238347</v>
+        <v>75.892751</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>158.355263</v>
+        <v>1436.05542</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>1830.1378</v>
+        <v>1750.4036</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>616.3479</v>
+        <v>2422.935</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>31731986</v>
+        <v>272575695</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>343878.139</v>
+        <v>7707891.904</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>4777.71538</v>
+        <v>8663.88335</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>17702.9558</v>
+        <v>13977.7471</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>293.44522</v>
+        <v>498.31242</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>93.243846</v>
+        <v>173.629239</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>1901542.38</v>
+        <v>72571427</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>34753.4884</v>
+        <v>1009722.6729</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>174.88822</v>
+        <v>251.59</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>257.84671</v>
+        <v>198.53288</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>287.25167</v>
+        <v>916.02489</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>389.43329</v>
+        <v>482.31887</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <v>428.22696</v>
+        <v>468.62178</v>
       </c>
       <c r="AA6" s="0" t="n">
-        <v>515.74591</v>
+        <v>886.96577</v>
       </c>
       <c r="AB6" s="0" t="n">
-        <v>785.41961</v>
+        <v>1313.19925</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>457.61382</v>
+        <v>539.05553</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>495.96527</v>
+        <v>832.09072</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <v>397.63389</v>
+        <v>587.8096</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>5957.38024</v>
+        <v>13346240.2</v>
       </c>
       <c r="AG6" s="0" t="n">
         <v>10</v>
@@ -851,94 +852,94 @@
         <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>2006510400</v>
+        <v>9862683800</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>6332424671</v>
+        <v>2162285011200</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>42811.4879</v>
+        <v>15183.5378</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>69.212296</v>
+        <v>793.05632</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>55.693845</v>
+        <v>102.687737</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>26.803639</v>
+        <v>56.985971</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>78.658388</v>
+        <v>176.68344</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>37.150204</v>
+        <v>73.625685</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>149.659473</v>
+        <v>1105.10371</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>1719.9968</v>
+        <v>1700.6211</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>383.66054</v>
+        <v>1412.24366</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>23121992.7</v>
+        <v>218789930</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>284494.923</v>
+        <v>3627141.924</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>4735.20828</v>
+        <v>7573.0923</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>13775.8272</v>
+        <v>12725.0949</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>286.33422</v>
+        <v>461.97082</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>84.637667</v>
+        <v>158.676159</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>1608716.08</v>
+        <v>70808437.01</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>26227.921</v>
+        <v>1003882.35687</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>174.14918</v>
+        <v>219.7188</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>233.92271</v>
+        <v>177.08952</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>281.90888</v>
+        <v>781.60209</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>384.69847</v>
+        <v>482.28013</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>422.22624</v>
+        <v>446.15889</v>
       </c>
       <c r="AA7" s="0" t="n">
-        <v>504.05389</v>
+        <v>841.13403</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <v>743.20324</v>
+        <v>1253.57485</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>452.48071</v>
+        <v>539.05553</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>494.82703</v>
+        <v>828.50387</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <v>366.71357</v>
+        <v>541.97661</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>5392.86544</v>
+        <v>8840013.2</v>
       </c>
       <c r="AG7" s="0" t="n">
         <v>10</v>
@@ -952,94 +953,94 @@
         <v>30</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1823542400</v>
+        <v>9858857000</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>566394471</v>
+        <v>2134255426750</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>41742.1593</v>
+        <v>14014.2298</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>67.066999</v>
+        <v>750.64441</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>52.587308</v>
+        <v>101.730979</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>26.043181</v>
+        <v>54.309369</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>77.069765</v>
+        <v>169.364307</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>35.279384</v>
+        <v>68.500624</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>138.208179</v>
+        <v>982.56091</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>1571.4856</v>
+        <v>1631.2056</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>351.95235</v>
+        <v>1409.81438</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>19181975.7</v>
+        <v>196273029</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>253812.593</v>
+        <v>3381578.654</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>3908.71908</v>
+        <v>7573.0923</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>12066.7479</v>
+        <v>12725.0949</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>277.88121</v>
+        <v>426.72205</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>82.821289</v>
+        <v>151.020499</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>1279709.56</v>
+        <v>70778704.01</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>22108.485</v>
+        <v>1002640.07957</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>173.30711</v>
+        <v>215.65779</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>232.71567</v>
+        <v>176.65146</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>278.09053</v>
+        <v>781.60209</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>382.31668</v>
+        <v>482.07583</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <v>420.42053</v>
+        <v>439.90207</v>
       </c>
       <c r="AA8" s="0" t="n">
-        <v>493.34556</v>
+        <v>825.79429</v>
       </c>
       <c r="AB8" s="0" t="n">
-        <v>742.85697</v>
+        <v>1252.76875</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>452.4807</v>
+        <v>539.05553</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>494.55883</v>
+        <v>820.20641</v>
       </c>
       <c r="AE8" s="0" t="n">
-        <v>354.02868</v>
+        <v>530.52066</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>5032.62414</v>
+        <v>8840013.2</v>
       </c>
       <c r="AG8" s="0" t="n">
         <v>10</v>
@@ -1053,94 +1054,94 @@
         <v>40</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1701378070</v>
+        <v>9858857000</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>566394471</v>
+        <v>2134255426750</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>41742.1593</v>
+        <v>13664.9941</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>64.069456</v>
+        <v>745.62026</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>51.273142</v>
+        <v>101.730979</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>26.043181</v>
+        <v>54.23037</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>76.868087</v>
+        <v>167.245627</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>34.441767</v>
+        <v>67.07947</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>138.208179</v>
+        <v>972.74441</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>1500.8906</v>
+        <v>1579.2723</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>342.79431</v>
+        <v>1401.80845</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>15441322.6</v>
+        <v>195433368</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>188883.073</v>
+        <v>3262282.714</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>3646.45888</v>
+        <v>7573.0923</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>9832.2029</v>
+        <v>12725.0949</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>251.378349</v>
+        <v>424.75909</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>80.99543</v>
+        <v>145.352342</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>1077420.6</v>
+        <v>69071705.41</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>21852.054</v>
+        <v>1002076.97403</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>172.14827</v>
+        <v>204.03533</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>229.21139</v>
+        <v>176.54187</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>271.54885</v>
+        <v>781.60209</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>380.30868</v>
+        <v>482.07583</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <v>415.28382</v>
+        <v>431.38881</v>
       </c>
       <c r="AA9" s="0" t="n">
-        <v>474.12544</v>
+        <v>807.38959</v>
       </c>
       <c r="AB9" s="0" t="n">
-        <v>731.49534</v>
+        <v>1231.71976</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>449.98679</v>
+        <v>539.05553</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <v>494.24077</v>
+        <v>820.20641</v>
       </c>
       <c r="AE9" s="0" t="n">
-        <v>350.65735</v>
+        <v>530.52066</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>4957.83214</v>
+        <v>8559678.7</v>
       </c>
       <c r="AG9" s="0" t="n">
         <v>10</v>
@@ -1154,94 +1155,94 @@
         <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1539098470</v>
+        <v>9553937700</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>343220708</v>
+        <v>2134255426750</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>41408.1813</v>
+        <v>13469.15</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>63.934235</v>
+        <v>742.24428</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>50.980529</v>
+        <v>100.794941</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>26.043181</v>
+        <v>53.877775</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>75.944844</v>
+        <v>166.070797</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>33.584936</v>
+        <v>65.923392</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>136.325388</v>
+        <v>972.74441</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>1394.0302</v>
+        <v>1570.2629</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>316.83876</v>
+        <v>1401.80845</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>14159563.6</v>
+        <v>195433368</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>169909.063</v>
+        <v>3249183.389</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>3646.45888</v>
+        <v>7562.09749</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>9631.3403</v>
+        <v>12317.0271</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>251.378349</v>
+        <v>424.75909</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>74.564882</v>
+        <v>145.352342</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>827950.18</v>
+        <v>68912230.17</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>17549.171</v>
+        <v>1002038.79083</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>170.58552</v>
+        <v>203.23313</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>220.75166</v>
+        <v>176.26349</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>263.86511</v>
+        <v>781.60209</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>378.61399</v>
+        <v>482.07583</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <v>411.4219</v>
+        <v>426.39226</v>
       </c>
       <c r="AA10" s="0" t="n">
-        <v>472.24008</v>
+        <v>803.65524</v>
       </c>
       <c r="AB10" s="0" t="n">
-        <v>729.65234</v>
+        <v>1144.00392</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>449.03157</v>
+        <v>539.05553</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>494.24077</v>
+        <v>820.20641</v>
       </c>
       <c r="AE10" s="0" t="n">
-        <v>346.70501</v>
+        <v>530.52066</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>4279.99284</v>
+        <v>8559678.7</v>
       </c>
       <c r="AG10" s="0" t="n">
         <v>10</v>
@@ -1255,94 +1256,94 @@
         <v>60</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1429239470</v>
+        <v>9553937700</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>305712203.7</v>
+        <v>2134255426750</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>41408.1813</v>
+        <v>13469.15</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>63.934235</v>
+        <v>742.24428</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>50.896567</v>
+        <v>100.745885</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>26.043181</v>
+        <v>53.877775</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>74.736919</v>
+        <v>165.185967</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>33.489245</v>
+        <v>64.337438</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>136.325388</v>
+        <v>972.74441</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>1341.79689</v>
+        <v>1547.3025</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>303.14163</v>
+        <v>1401.80845</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>14085416.6</v>
+        <v>195433368</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>145045.606</v>
+        <v>3249183.389</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>3646.45888</v>
+        <v>7562.09749</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>8817.855</v>
+        <v>12103.535</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>237.011129</v>
+        <v>424.75909</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>72.75567</v>
+        <v>144.551273</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>809171.93</v>
+        <v>68912230.17</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>17549.171</v>
+        <v>1002038.79083</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>170.58552</v>
+        <v>203.23313</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>215.07359</v>
+        <v>176.02926</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>256.10528</v>
+        <v>781.60209</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>378.61399</v>
+        <v>482.07583</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <v>407.53484</v>
+        <v>426.39226</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <v>472.07634</v>
+        <v>803.65524</v>
       </c>
       <c r="AB11" s="0" t="n">
-        <v>729.65234</v>
+        <v>1144.00392</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>449.03157</v>
+        <v>539.05553</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>494.24077</v>
+        <v>820.20641</v>
       </c>
       <c r="AE11" s="0" t="n">
-        <v>344.5639</v>
+        <v>530.52066</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>4022.74674</v>
+        <v>8559678.7</v>
       </c>
       <c r="AG11" s="0" t="n">
         <v>10</v>
@@ -1356,94 +1357,94 @@
         <v>70</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1371305090</v>
+        <v>9417601700</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>304395942.7</v>
+        <v>2134255426750</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>38467.9573</v>
+        <v>13469.15</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>61.726576</v>
+        <v>742.24428</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>50.000244</v>
+        <v>100.745885</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>25.468647</v>
+        <v>53.528506</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>74.736919</v>
+        <v>163.348693</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>32.511667</v>
+        <v>64.337438</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>136.325388</v>
+        <v>961.33131</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>1332.14369</v>
+        <v>1540.7556</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>292.00976</v>
+        <v>1401.80845</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>11740556</v>
+        <v>195433368</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>145045.606</v>
+        <v>3249183.389</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>3459.44318</v>
+        <v>7562.09749</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>8646.8172</v>
+        <v>12103.535</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>191.8973</v>
+        <v>424.75909</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>71.420178</v>
+        <v>144.551273</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>670319.15</v>
+        <v>68912230.17</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>17549.171</v>
+        <v>994854.13853</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>170.09722</v>
+        <v>203.23313</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>212.41561</v>
+        <v>176.02926</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>233.92093</v>
+        <v>781.60209</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>378.61399</v>
+        <v>482.07583</v>
       </c>
       <c r="Z12" s="0" t="n">
-        <v>394.79175</v>
+        <v>425.59396</v>
       </c>
       <c r="AA12" s="0" t="n">
-        <v>472.07634</v>
+        <v>803.65524</v>
       </c>
       <c r="AB12" s="0" t="n">
-        <v>714.10334</v>
+        <v>1144.00392</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>449.03157</v>
+        <v>539.05553</v>
       </c>
       <c r="AD12" s="0" t="n">
-        <v>494.20962</v>
+        <v>820.20641</v>
       </c>
       <c r="AE12" s="0" t="n">
-        <v>340.91056</v>
+        <v>529.35972</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>3789.35244</v>
+        <v>8287446.5</v>
       </c>
       <c r="AG12" s="0" t="n">
         <v>10</v>
@@ -1457,94 +1458,94 @@
         <v>80</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1371305090</v>
+        <v>9327637100</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>240078585.9</v>
+        <v>2134240638869</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>37269.6323</v>
+        <v>13469.15</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>56.623113</v>
+        <v>742.24428</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>48.644919</v>
+        <v>100.397913</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>25.275361</v>
+        <v>53.528506</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>74.525079</v>
+        <v>163.348693</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>31.131656</v>
+        <v>63.244184</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>133.572608</v>
+        <v>961.33131</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>1300.07029</v>
+        <v>1525.484</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>292.00976</v>
+        <v>1401.80845</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>11128024</v>
+        <v>195433368</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>145045.606</v>
+        <v>3249183.389</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>3459.44318</v>
+        <v>7562.09749</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>8028.4838</v>
+        <v>12103.535</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>173.71186</v>
+        <v>424.75909</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>67.508185</v>
+        <v>144.551273</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>552765.61</v>
+        <v>68912230.17</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>17549.171</v>
+        <v>990835.74453</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>170.09722</v>
+        <v>203.23313</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>212.41561</v>
+        <v>176.02926</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>228.14375</v>
+        <v>781.60209</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>378.61399</v>
+        <v>482.07583</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>394.79175</v>
+        <v>425.59396</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <v>472.07634</v>
+        <v>803.65524</v>
       </c>
       <c r="AB13" s="0" t="n">
-        <v>710.17705</v>
+        <v>1144.00392</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>449.03157</v>
+        <v>539.05553</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>494.10909</v>
+        <v>820.20641</v>
       </c>
       <c r="AE13" s="0" t="n">
-        <v>335.17996</v>
+        <v>529.35972</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>3340.15034</v>
+        <v>8287446.5</v>
       </c>
       <c r="AG13" s="0" t="n">
         <v>10</v>
@@ -1558,94 +1559,94 @@
         <v>90</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1371305090</v>
+        <v>9327637100</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>240078585.9</v>
+        <v>2134240638869</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>37269.6323</v>
+        <v>13469.15</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>56.623113</v>
+        <v>739.77026</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>48.13578</v>
+        <v>100.397913</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>25.275361</v>
+        <v>53.528506</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>72.994274</v>
+        <v>163.348693</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>31.131656</v>
+        <v>63.244184</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>131.906818</v>
+        <v>961.33131</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>1278.66959</v>
+        <v>1525.484</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>280.54229</v>
+        <v>1401.80845</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>10620457</v>
+        <v>195433368</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>141215.624</v>
+        <v>3249183.389</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>3459.44318</v>
+        <v>7562.09749</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>8028.4838</v>
+        <v>12103.535</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>169.58419</v>
+        <v>424.75909</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>63.560706</v>
+        <v>144.551273</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>548301.802</v>
+        <v>68896491.2</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>17523.688</v>
+        <v>989101.36453</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>170.09722</v>
+        <v>203.23313</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>211.66064</v>
+        <v>176.02926</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>228.14375</v>
+        <v>781.60209</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>378.076</v>
+        <v>482.07583</v>
       </c>
       <c r="Z14" s="0" t="n">
-        <v>392.93834</v>
+        <v>425.59396</v>
       </c>
       <c r="AA14" s="0" t="n">
-        <v>467.11936</v>
+        <v>803.65524</v>
       </c>
       <c r="AB14" s="0" t="n">
-        <v>698.21407</v>
+        <v>1139.59932</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>448.9417</v>
+        <v>539.05553</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>493.81666</v>
+        <v>820.20641</v>
       </c>
       <c r="AE14" s="0" t="n">
-        <v>334.04209</v>
+        <v>529.35972</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>3114.07884</v>
+        <v>8287446.5</v>
       </c>
       <c r="AG14" s="0" t="n">
         <v>10</v>
@@ -1659,94 +1660,94 @@
         <v>100</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1371305090</v>
+        <v>9327637100</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>237678763.9</v>
+        <v>2134240638869</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>37269.6323</v>
+        <v>13469.15</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>54.909149</v>
+        <v>739.77026</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>46.740112</v>
+        <v>100.397913</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>25.275361</v>
+        <v>53.528506</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>72.528233</v>
+        <v>163.348693</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>30.761125</v>
+        <v>63.244184</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>131.308158</v>
+        <v>961.33131</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>1278.66959</v>
+        <v>1513.4064</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>270.59558</v>
+        <v>1401.80845</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>10378106</v>
+        <v>195433368</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>139573.204</v>
+        <v>3249183.389</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>3459.44318</v>
+        <v>7562.09749</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>8008.6675</v>
+        <v>12098.7701</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>161.81248</v>
+        <v>424.75909</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>61.734498</v>
+        <v>144.551273</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>548301.802</v>
+        <v>68896491.2</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>17250.181</v>
+        <v>989101.36453</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>170.09722</v>
+        <v>203.23313</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>210.52082</v>
+        <v>176.02926</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>227.94842</v>
+        <v>781.60209</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>377.74467</v>
+        <v>482.07583</v>
       </c>
       <c r="Z15" s="0" t="n">
-        <v>391.36657</v>
+        <v>425.59396</v>
       </c>
       <c r="AA15" s="0" t="n">
-        <v>465.02512</v>
+        <v>803.65524</v>
       </c>
       <c r="AB15" s="0" t="n">
-        <v>694.28996</v>
+        <v>1139.59932</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>439.53711</v>
+        <v>539.05553</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>493.81666</v>
+        <v>820.20641</v>
       </c>
       <c r="AE15" s="0" t="n">
-        <v>331.90093</v>
+        <v>529.35972</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>2949.34125</v>
+        <v>8287446.5</v>
       </c>
       <c r="AG15" s="0" t="n">
         <v>10</v>
@@ -1770,11 +1771,1547 @@
   </sheetPr>
   <dimension ref="A1:AG15"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>13769917600</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>29749001450000</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>29035.363</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1135.28205</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>134.38319</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>69.761523</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>285.18748</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>100.571698</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>2333.7828</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>2076.7364</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>3741.29944</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>828523173</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>16582024.65</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>714398.3825</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>99077.342</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>699.6031</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>357.35574</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>263212189.33</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>3244163.8501</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>350.68707</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>290.06659</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>1140.30585</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>477.17546</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>534.98685</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>1064.60606</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>1826.5096</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>566.97739</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>952.95574</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <v>787.41997</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>34554513.9</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>13614251600</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>29414060569300</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>24867.151</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>979.8689</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>125.618405</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>64.638975</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>242.57924</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>93.54623</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1894.874</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>1970.6858</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>3647.52945</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>549278565</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>7978902.25</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>335727.6514</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>67806.861</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>685.09984</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>298.24319</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>259337185.13</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>3068604.5901</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>292.13554</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>257.50421</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>1053.70213</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>470.05074</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>503.19098</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>969.42225</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>1747.4084</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>550.39035</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>895.61198</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>720.9353</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>26735100.9</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>12842420200</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>4157408438300</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>24514.967</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>892.7992</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>122.610772</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>63.994653</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>229.15302</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>91.978397</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1346.17366</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1889.4648</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>2392.2887</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>531917135</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>7053600.85</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>295489.66</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>31232.5311</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>649.53992</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>285.69731</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>155511584.13</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>2482595.7441</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>274.98631</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>250.36764</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>1000.90212</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>467.79187</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>482.19997</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>920.12128</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>1658.695</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>543.46345</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <v>855.69205</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>673.36266</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>23976440.6</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>11759453200</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3181227789900</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>20708.943</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>799.41807</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>118.0262</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>61.899096</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>216.99666</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>86.380652</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>1301.97759</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>1867.5192</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>2292.07036</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>461692919</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>5340497.81</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>72638.17858</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>21924.5649</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>565.55425</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>252.53502</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>131440285.63</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>1436353.7211</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>258.1722</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>231.0898</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>841.22402</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>462.36412</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>464.18303</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>911.97786</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>1539.5495</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <v>539.2481</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <v>828.5922</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <v>643.36431</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>9136967.5</v>
+      </c>
+      <c r="AG5" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>10421619100</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>962039941500</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>17891.437</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>580.5322</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>111.631247</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>59.196538</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>205.58542</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>80.157114</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1161.69969</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>1742.8579</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>2115.33477</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>246840684</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>3385496.986</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>9031.96075</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>18825.6259</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>507.5276</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>179.06667</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>100137980.13</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>982986.80274</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>231.182335</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>215.22621</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>742.20852</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>451.14429</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>450.43903</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>872.36773</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>1449.06052</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>519.30524</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>794.09037</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>613.48624</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>8211120.83</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>9898908300</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>576839182018</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>17615.5602</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>518.38567</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>107.669547</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>54.096403</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>182.4398</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>74.874942</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1083.55149</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>1718.0733</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>2037.84336</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>194359959</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>1873706.812</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>8048.79985</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>14085.2372</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>440.14571</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>166.69512</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>94040817.85</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>491862.60014</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>204.679845</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>210.55557</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>609.59707</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>441.07812</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>419.73816</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>845.02041</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>1406.0457</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>504.63992</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>650.89294</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <v>585.31148</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>6010962.25</v>
+      </c>
+      <c r="AG7" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>8847411500</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>576138066198</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>15800.2103</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>440.38209</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>106.154171</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>52.712521</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>181.23296</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>73.876724</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1017.36525</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1709.2808</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>1602.29976</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>151006289</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>1598601.222</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>7092.16018</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>9206.5572</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>399.30614</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>160.00148</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>51481646.032</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>350925.30744</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>193.101615</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>198.9963</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>542.4611</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>435.71679</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>416.90121</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>836.64214</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>1361.8894</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>498.12325</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>610.57825</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>553.45015</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>4256778.48</v>
+      </c>
+      <c r="AG8" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>7864651500</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>557845166198</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>13975.2641</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>425.435</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>104.63865</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>50.589634</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>173.83841</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>72.989067</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>957.03984</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>1627.9037</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>1288.87716</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>121563277</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>1561922.652</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>6462.18712</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>8506.98189</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>395.10132</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>149.8286</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>22051187.445</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>219652.90744</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>178.633085</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>195.88267</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>491.5641</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>414.88285</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>405.05303</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <v>824.76215</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <v>1359.0118</v>
+      </c>
+      <c r="AC9" s="0" t="n">
+        <v>491.29583</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <v>574.99404</v>
+      </c>
+      <c r="AE9" s="0" t="n">
+        <v>500.60862</v>
+      </c>
+      <c r="AF9" s="0" t="n">
+        <v>4204533.98</v>
+      </c>
+      <c r="AG9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>7602674500</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>557840523598</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>13505.4565</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>425.435</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>103.635385</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>48.625313</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>173.83841</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>72.26444</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>939.6808</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>1503.6967</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>700.29801</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>121563277</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>1561922.652</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>3258.47703</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>5741.21689</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>357.91374</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>136.41423</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>21765927.635</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>162527.70899</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>171.835555</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>195.88267</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>469.05876</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>413.40021</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>405.05303</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>781.26911</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>1342.1479</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <v>485.56906</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <v>564.6587</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <v>492.73691</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>4058411.02</v>
+      </c>
+      <c r="AG10" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>7602674500</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>489756823598</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>13289.0505</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>413.37952</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>103.349665</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>48.625313</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>171.47873</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>71.918903</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>894.63972</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>1473.667</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>581.75531</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>115423387</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>1427214.712</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>2786.23111</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>5741.21689</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>349.52644</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>133.507787</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>21765927.635</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>162527.70899</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>163.836295</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>194.35279</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>468.4603</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>413.40021</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>403.1918</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>764.62642</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>1321.1967</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <v>479.8595</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <v>549.05314</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <v>479.24074</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>3385026.42</v>
+      </c>
+      <c r="AG11" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>7602674500</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>488372312428</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>12937.1217</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>371.02747</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>101.87721</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>47.850123</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>166.34735</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>71.563512</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>887.93912</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>1473.667</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>572.07648</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>110542377</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>1427214.712</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>2748.84889</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>5741.21689</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>343.75529</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>132.487667</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>20409817.635</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>122201.68399</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>162.450315</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>183.34651</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>467.75079</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>408.04195</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>389.20481</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>762.04518</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>1306.0605</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>479.18255</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <v>541.17462</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <v>478.50845</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>3363328.42</v>
+      </c>
+      <c r="AG12" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>7237656800</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>488372312428</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>12387.8893</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>371.02747</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>99.858866</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>46.751013</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>165.21936</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>71.166437</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>887.93912</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>1425.6857</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>566.23894</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>110542377</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>1422703.872</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>2705.11148</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>4840.12651</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>332.47229</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>132.487667</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>8793854.405</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>122201.68399</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>162.450315</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>175.3171</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>459.21383</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>405.69977</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>381.81529</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>753.20834</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <v>1255.50393</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <v>478.2555</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <v>530.98956</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <v>472.99062</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <v>3363328.42</v>
+      </c>
+      <c r="AG13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>7051960500</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>488372312428</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>11471.5033</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>361.54246</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>99.764952</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>46.105076</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>164.52516</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>71.166437</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>871.27753</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>1422.8197</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>566.23894</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>109555113</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>1162510.862</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>2705.11148</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>4840.12651</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>321.72434</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>126.497187</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>2525604.405</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>40424.34099</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>160.767805</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>172.72499</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>459.21383</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>404.20478</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>374.72128</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>747.97114</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <v>1234.59487</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <v>478.2555</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <v>530.98956</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <v>463.79153</v>
+      </c>
+      <c r="AF14" s="0" t="n">
+        <v>3276824.22</v>
+      </c>
+      <c r="AG14" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>6888204400</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>447415642428</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>11471.5033</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>349.46731</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>96.569944</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>46.02514</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>164.52516</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>70.184088</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>845.46714</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>1422.8197</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>555.73927</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>109555113</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>1162510.862</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>2705.11148</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>4509.97443</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>298.12266</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>117.423132</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>2510805.694</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>39324.78699</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>157.421285</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>172.09417</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>459.21383</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>404.20478</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>367.28749</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>691.94334</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <v>1153.244</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <v>477.01358</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <v>530.98956</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <v>461.3465</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>3233436.42</v>
+      </c>
+      <c r="AG15" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AG15"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -1885,94 +3422,94 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>2841560933.33333</v>
+        <v>12315750900</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>201717714733.333</v>
+        <v>108360447060000</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>56100.496</v>
+        <v>31106.71</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>181.658317666667</v>
+        <v>1234.7085</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>85.5791296666667</v>
+        <v>138.231918</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>40.395588</v>
+        <v>69.569201</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>97.5612833333333</v>
+        <v>223.55828</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>64.362102</v>
+        <v>96.781887</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>408.512839</v>
+        <v>1807.5657</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>2217.62053333333</v>
+        <v>2057.0838</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>2382.39055333333</v>
+        <v>6354.83494</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>81893127</v>
+        <v>848661660</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>1425691.68366667</v>
+        <v>33946996.22</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>11535.57755</v>
+        <v>28360.2732</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>50510.8130666667</v>
+        <v>399785.5023</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>459.83301</v>
+        <v>847.77801</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>202.84091</v>
+        <v>360.42472</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>7462991.53666667</v>
+        <v>377559677.4</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>445116.035633333</v>
+        <v>880632.995</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>271.515233333333</v>
+        <v>335.30242</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>279.98372</v>
+        <v>259.98797</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>473.642893333333</v>
+        <v>1147.47091</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>406.077883333333</v>
+        <v>494.6414</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>447.62318</v>
+        <v>549.2517</v>
       </c>
       <c r="AA2" s="0" t="n">
-        <v>586.217456666667</v>
+        <v>1295.20793</v>
       </c>
       <c r="AB2" s="0" t="n">
-        <v>1128.72080333333</v>
+        <v>1696.1948</v>
       </c>
       <c r="AC2" s="0" t="n">
-        <v>475.21084</v>
+        <v>534.09237</v>
       </c>
       <c r="AD2" s="0" t="n">
-        <v>512.072146666667</v>
+        <v>988.58183</v>
       </c>
       <c r="AE2" s="0" t="n">
-        <v>558.687286666667</v>
+        <v>692.9321</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>574301.3498</v>
+        <v>24074026.3</v>
       </c>
       <c r="AG2" s="0" t="n">
         <v>10</v>
@@ -1986,94 +3523,94 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2485069833.33333</v>
+        <v>11383537500</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>162353642793</v>
+        <v>104610241129300</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>51693.8188666667</v>
+        <v>26385.737</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>140.108189</v>
+        <v>1065.42987</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>76.0642636666667</v>
+        <v>131.188512</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>34.9916986666667</v>
+        <v>65.742305</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>89.6868653333333</v>
+        <v>211.89086</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>54.773016</v>
+        <v>87.517194</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>251.815589</v>
+        <v>1514.60091</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>2003.24506666667</v>
+        <v>1980.4389</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>1883.75493</v>
+        <v>4890.43504</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>62699914.3333333</v>
+        <v>662479590</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>837044.243666667</v>
+        <v>12204874.165</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>9807.73898333333</v>
+        <v>19693.93501</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>31619.3801666667</v>
+        <v>145153.9781</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>379.092936666667</v>
+        <v>806.87835</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>151.283087</v>
+        <v>304.4619</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>4133396.83666667</v>
+        <v>242939433</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>304821.684966667</v>
+        <v>767602.799</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>228.84091</v>
+        <v>296.5025</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>269.88262</v>
+        <v>247.49231</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>438.198713333333</v>
+        <v>1098.56091</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>401.358116666667</v>
+        <v>480.80063</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>442.449663333333</v>
+        <v>526.65436</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>551.692666666667</v>
+        <v>1111.16188</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>910.222846666667</v>
+        <v>1646.7972</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>473.963343333333</v>
+        <v>513.1577</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>498.238176666667</v>
+        <v>919.50694</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>489.329246666667</v>
+        <v>626.27365</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>85493.3160666667</v>
+        <v>11856574.5</v>
       </c>
       <c r="AG3" s="0" t="n">
         <v>10</v>
@@ -2087,94 +3624,94 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>2169948903.33333</v>
+        <v>10930630500</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>39177652746.3333</v>
+        <v>66103911779300</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>42599.0352</v>
+        <v>23642.704</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>126.178576333333</v>
+        <v>1027.42564</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>70.2550036666667</v>
+        <v>129.152672</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>32.085243</v>
+        <v>63.211888</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>86.722921</v>
+        <v>197.2937</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>50.029361</v>
+        <v>83.389805</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>195.618485666667</v>
+        <v>1439.73474</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>1918.19296666667</v>
+        <v>1928.874</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>1627.48063</v>
+        <v>4607.08163</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>43784575.6666667</v>
+        <v>547591370</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>507659.277</v>
+        <v>9283490.745</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>9162.77745</v>
+        <v>16235.42913</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>28396.4130666667</v>
+        <v>88356.6718</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>342.064786666667</v>
+        <v>759.16235</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>125.348001666667</v>
+        <v>295.46511</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>2694921.04</v>
+        <v>232898618</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>284416.8243</v>
+        <v>666661.209</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>210.47624</v>
+        <v>280.93068</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>265.775666666667</v>
+        <v>240.15926</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>318.013893333333</v>
+        <v>1044.01945</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>398.71549</v>
+        <v>473.29889</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>436.987493333333</v>
+        <v>519.97939</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>542.05425</v>
+        <v>1077.75275</v>
       </c>
       <c r="AB4" s="0" t="n">
-        <v>866.596526666667</v>
+        <v>1571.385</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>471.668033333333</v>
+        <v>509.3192</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <v>497.33393</v>
+        <v>825.68598</v>
       </c>
       <c r="AE4" s="0" t="n">
-        <v>453.302386666667</v>
+        <v>610.54442</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>53107.9044333333</v>
+        <v>10669863.7</v>
       </c>
       <c r="AG4" s="0" t="n">
         <v>10</v>
@@ -2188,94 +3725,94 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>2037997893.33333</v>
+        <v>10758710600</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2436779469.66667</v>
+        <v>32093000313300</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>34184.1345</v>
+        <v>20416.418</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>104.379289666667</v>
+        <v>965.13079</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>66.2306126666667</v>
+        <v>124.248069</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>30.0372253333333</v>
+        <v>59.765014</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>84.7204596666667</v>
+        <v>185.45892</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>44.6973243333333</v>
+        <v>82.617644</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>181.502642333333</v>
+        <v>1201.59098</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>1833.39923333333</v>
+        <v>1869.464</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>1227.50631</v>
+        <v>3174.24841</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>32947642.5666667</v>
+        <v>356049310</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>402303.966</v>
+        <v>7569968.345</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>8624.81668333333</v>
+        <v>9981.45613</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>18300.1364666667</v>
+        <v>27040.4941</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>317.914456666667</v>
+        <v>739.9292</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>108.29813</v>
+        <v>267.27089</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>1684684.78333333</v>
+        <v>120204675.8</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>108203.0173</v>
+        <v>254895.471</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>197.842423333333</v>
+        <v>266.85876</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>262.36807</v>
+        <v>222.50977</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>274.884423333333</v>
+        <v>966.21093</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>395.648056666667</v>
+        <v>467.04237</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <v>433.447633333333</v>
+        <v>498.24431</v>
       </c>
       <c r="AA5" s="0" t="n">
-        <v>534.19023</v>
+        <v>1053.94548</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <v>786.957463333333</v>
+        <v>1500.828</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>471.073926666667</v>
+        <v>505.75624</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <v>495.907576666667</v>
+        <v>825.68598</v>
       </c>
       <c r="AE5" s="0" t="n">
-        <v>433.307946666667</v>
+        <v>590.69435</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>31913.3281333333</v>
+        <v>7676538.2</v>
       </c>
       <c r="AG5" s="0" t="n">
         <v>10</v>
@@ -2289,94 +3826,94 @@
         <v>10</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1895912403.33333</v>
+        <v>10082221800</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1440423508.66667</v>
+        <v>30418367850300</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>13048.1480666667</v>
+        <v>17420.0498</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>87.0418156666667</v>
+        <v>909.6395</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>58.656805</v>
+        <v>117.615463</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>28.9333703333333</v>
+        <v>54.733084</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>82.2013543333333</v>
+        <v>175.69756</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>40.7446696666667</v>
+        <v>76.164571</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>160.638949</v>
+        <v>921.49856</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>1556.01803333333</v>
+        <v>1836.2246</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>1012.25318333333</v>
+        <v>2735.82061</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>22649368.4</v>
+        <v>343285396</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>256381.149666667</v>
+        <v>6856844.055</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>7327.04685</v>
+        <v>7727.18301</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>10559.1946</v>
+        <v>18796.3309</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>294.660243666667</v>
+        <v>669.63968</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>97.7411013333333</v>
+        <v>219.95797</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>884546.143333333</v>
+        <v>114300398.8</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>91025.9875666667</v>
+        <v>79671.5138</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>194.557723333333</v>
+        <v>258.35384</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>255.490143333333</v>
+        <v>200.00911</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>272.943253333333</v>
+        <v>841.60202</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>393.12792</v>
+        <v>461.40814</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <v>429.111783333333</v>
+        <v>482.90862</v>
       </c>
       <c r="AA6" s="0" t="n">
-        <v>520.849666666667</v>
+        <v>979.947</v>
       </c>
       <c r="AB6" s="0" t="n">
-        <v>729.537833333333</v>
+        <v>1394.9484</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>468.611143333333</v>
+        <v>503.69136</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>495.467376666667</v>
+        <v>814.9413</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <v>397.560893333333</v>
+        <v>575.75439</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>19264.3516333333</v>
+        <v>6421328.6</v>
       </c>
       <c r="AG6" s="0" t="n">
         <v>10</v>
@@ -2390,94 +3927,94 @@
         <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1771296470</v>
+        <v>9507528500</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1440423508.66667</v>
+        <v>30412879392500</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>9229.06206666667</v>
+        <v>12916.9998</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>84.9588</v>
+        <v>842.06752</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>57.5921793333333</v>
+        <v>114.560043</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>28.7059166666667</v>
+        <v>54.450792</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>80.3749356666667</v>
+        <v>159.39456</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>39.0204576666667</v>
+        <v>73.573836</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>157.136315666667</v>
+        <v>791.64016</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>1461.2071</v>
+        <v>1751.2918</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>1002.94332333333</v>
+        <v>2140.00095</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>18162199.8666667</v>
+        <v>308896308</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>75637.4888666667</v>
+        <v>5751496.635</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>7168.46137666667</v>
+        <v>6670.982902</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>8520.555</v>
+        <v>17330.876</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>294.378043666667</v>
+        <v>592.84282</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>95.7869653333333</v>
+        <v>196.75362</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>391944.559666667</v>
+        <v>50775297</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>90440.0302333334</v>
+        <v>29077.76359</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>193.433433333333</v>
+        <v>243.4</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>254.92054</v>
+        <v>189.72435</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>268.60813</v>
+        <v>790.55584</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>392.48585</v>
+        <v>457.36831</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>428.05331</v>
+        <v>438.32043</v>
       </c>
       <c r="AA7" s="0" t="n">
-        <v>520.586383333333</v>
+        <v>845.13901</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <v>727.452573333333</v>
+        <v>1342.0936</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>466.94717</v>
+        <v>495.32819</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>495.405053333333</v>
+        <v>814.9413</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <v>386.097136666667</v>
+        <v>541.1551</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>18379.9256333333</v>
+        <v>5486586</v>
       </c>
       <c r="AG7" s="0" t="n">
         <v>10</v>
@@ -2491,94 +4028,94 @@
         <v>30</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1765253370</v>
+        <v>9507528500</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1440423508.66667</v>
+        <v>30411816656000</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>9229.06206666667</v>
+        <v>10968.1621</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>84.9588</v>
+        <v>837.04785</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>57.0301486666667</v>
+        <v>112.588506</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>28.7059166666667</v>
+        <v>54.450792</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>80.3749356666667</v>
+        <v>150.02831</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>39.0032043333333</v>
+        <v>72.913439</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>156.108192333333</v>
+        <v>766.14749</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>1442.1246</v>
+        <v>1715.1517</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>1002.94332333333</v>
+        <v>2140.00095</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>17525295.6333333</v>
+        <v>299311471</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>43484.0296</v>
+        <v>5668637.302</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>7151.30681</v>
+        <v>6092.375412</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>8259.51993333333</v>
+        <v>17242.9731</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>294.378043666667</v>
+        <v>557.16372</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>95.7869653333333</v>
+        <v>168.54606</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>198124.858666667</v>
+        <v>50726057.6</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>90440.0302333334</v>
+        <v>16354.25774</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>193.433433333333</v>
+        <v>222.30148</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>254.92054</v>
+        <v>187.37042</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>268.60813</v>
+        <v>772.52375</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>392.382396666667</v>
+        <v>457.36739</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <v>428.05331</v>
+        <v>426.59097</v>
       </c>
       <c r="AA8" s="0" t="n">
-        <v>520.586383333333</v>
+        <v>791.93175</v>
       </c>
       <c r="AB8" s="0" t="n">
-        <v>726.25266</v>
+        <v>1307.2794</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>466.94717</v>
+        <v>495.32819</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>495.405053333333</v>
+        <v>808.9793</v>
       </c>
       <c r="AE8" s="0" t="n">
-        <v>385.6957</v>
+        <v>539.85971</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>18379.9256333333</v>
+        <v>4946986.8</v>
       </c>
       <c r="AG8" s="0" t="n">
         <v>10</v>
@@ -2592,94 +4129,94 @@
         <v>40</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1763489436.66667</v>
+        <v>9494519900</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1440423508.66667</v>
+        <v>30411597380000</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>9229.06206666667</v>
+        <v>10797.3503</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>84.9588</v>
+        <v>837.04785</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>56.9034433333333</v>
+        <v>112.588506</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>28.7059166666667</v>
+        <v>54.450792</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>80.3749356666667</v>
+        <v>148.57658</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>39.0032043333333</v>
+        <v>70.296204</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>154.821332333333</v>
+        <v>710.6064</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>1442.1246</v>
+        <v>1709.4648</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>1002.94332333333</v>
+        <v>2140.00095</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>16925191.1</v>
+        <v>299311471</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>35656.2705333333</v>
+        <v>5624479.373</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>7151.30681</v>
+        <v>6091.039072</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>8259.51993333333</v>
+        <v>17242.9731</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>294.378043666667</v>
+        <v>548.96462</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>95.7869653333333</v>
+        <v>165.98082</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>155296.99</v>
+        <v>50658352.12</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>90440.0302333334</v>
+        <v>16354.25774</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>193.433433333333</v>
+        <v>219.30075</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>254.92054</v>
+        <v>187.22518</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>268.60813</v>
+        <v>772.52375</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>392.382396666667</v>
+        <v>457.36739</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <v>428.05331</v>
+        <v>413.08869</v>
       </c>
       <c r="AA9" s="0" t="n">
-        <v>520.586383333333</v>
+        <v>791.93175</v>
       </c>
       <c r="AB9" s="0" t="n">
-        <v>724.471693333333</v>
+        <v>1302.9627</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>466.94717</v>
+        <v>495.32819</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <v>495.405053333333</v>
+        <v>808.9793</v>
       </c>
       <c r="AE9" s="0" t="n">
-        <v>385.515036666667</v>
+        <v>539.85971</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>18379.7341</v>
+        <v>4873310.2</v>
       </c>
       <c r="AG9" s="0" t="n">
         <v>10</v>
@@ -2693,94 +4230,94 @@
         <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1762317203.33333</v>
+        <v>9494519900</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1440423508.66667</v>
+        <v>30411597380000</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>9229.06206666667</v>
+        <v>10502.8113</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>84.9588</v>
+        <v>837.04785</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>56.868409</v>
+        <v>112.588506</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>28.7059166666667</v>
+        <v>54.012273</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>80.3749356666667</v>
+        <v>147.17709</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>39.0032043333333</v>
+        <v>67.822728</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>154.215612333333</v>
+        <v>672.7165</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>1442.1246</v>
+        <v>1699.9988</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>1002.94332333333</v>
+        <v>2140.00095</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>16594983.6</v>
+        <v>299311471</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>30171.2236333333</v>
+        <v>5609086.203</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>7151.30074333333</v>
+        <v>6078.448762</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>8259.51993333333</v>
+        <v>17193.8394</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>294.378043666667</v>
+        <v>548.96462</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>95.7869653333333</v>
+        <v>161.637652</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>110538.831666667</v>
+        <v>50637066.53</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>90440.0302333334</v>
+        <v>16215.30354</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>193.433433333333</v>
+        <v>219.30075</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>254.92054</v>
+        <v>186.49385</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>268.60813</v>
+        <v>772.52375</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>392.382396666667</v>
+        <v>457.36739</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <v>428.05331</v>
+        <v>413.08869</v>
       </c>
       <c r="AA10" s="0" t="n">
-        <v>520.586383333333</v>
+        <v>788.83855</v>
       </c>
       <c r="AB10" s="0" t="n">
-        <v>723.629483333333</v>
+        <v>1302.9627</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>466.94717</v>
+        <v>495.32819</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>495.405053333333</v>
+        <v>808.9793</v>
       </c>
       <c r="AE10" s="0" t="n">
-        <v>385.46695</v>
+        <v>538.90526</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>18348.678</v>
+        <v>4873310.2</v>
       </c>
       <c r="AG10" s="0" t="n">
         <v>10</v>
@@ -2794,94 +4331,94 @@
         <v>60</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1761067270</v>
+        <v>9494519900</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1440423508.66667</v>
+        <v>30411597380000</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>9229.06206666667</v>
+        <v>10502.8113</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>84.9588</v>
+        <v>837.04785</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>56.8159856666667</v>
+        <v>112.588506</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>28.7059166666667</v>
+        <v>54.012273</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>80.3749356666667</v>
+        <v>147.04555</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>39.0032043333333</v>
+        <v>67.822728</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>154.101552333333</v>
+        <v>672.7165</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>1442.1246</v>
+        <v>1639.5178</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>1002.94332333333</v>
+        <v>2140.00095</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>16209892.8166667</v>
+        <v>299311471</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>26234.3919333333</v>
+        <v>5609086.203</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>7151.30074333333</v>
+        <v>6078.448762</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>8259.51993333333</v>
+        <v>17193.8394</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>294.378043666667</v>
+        <v>548.96462</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>95.7869653333333</v>
+        <v>159.472914</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>93538.9436666667</v>
+        <v>50637066.53</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>90440.0302333334</v>
+        <v>16215.30354</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>193.433433333333</v>
+        <v>219.30075</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>254.92054</v>
+        <v>186.49385</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>268.60813</v>
+        <v>772.52375</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>392.36294</v>
+        <v>457.36739</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <v>428.05331</v>
+        <v>413.08869</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <v>520.586383333333</v>
+        <v>788.83855</v>
       </c>
       <c r="AB11" s="0" t="n">
-        <v>723.111516666667</v>
+        <v>1302.9627</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>466.94717</v>
+        <v>495.32819</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>495.405053333333</v>
+        <v>808.9793</v>
       </c>
       <c r="AE11" s="0" t="n">
-        <v>385.427496666667</v>
+        <v>537.15314</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>18348.678</v>
+        <v>4873310.2</v>
       </c>
       <c r="AG11" s="0" t="n">
         <v>10</v>
@@ -2895,94 +4432,94 @@
         <v>70</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1760249570</v>
+        <v>9494519900</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1440423508.66667</v>
+        <v>30411597380000</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>9229.06206666667</v>
+        <v>10502.8113</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>84.9588</v>
+        <v>837.04785</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>56.7212746666667</v>
+        <v>112.588506</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>28.7059166666667</v>
+        <v>54.012273</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>80.3749356666667</v>
+        <v>147.04555</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>39.0032043333333</v>
+        <v>67.761447</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>153.956159</v>
+        <v>671.32733</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>1442.1246</v>
+        <v>1639.5178</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>1002.94332333333</v>
+        <v>2140.00095</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>16008448.85</v>
+        <v>299311471</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>25180.4936</v>
+        <v>5609086.203</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>7151.30074333333</v>
+        <v>6077.716628</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>8259.51993333333</v>
+        <v>17193.8394</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>294.378043666667</v>
+        <v>546.57994</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>95.7869653333333</v>
+        <v>159.472914</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>80640.0993333333</v>
+        <v>50637066.53</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>90440.0302333334</v>
+        <v>16215.30354</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>193.433433333333</v>
+        <v>219.30075</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>254.92054</v>
+        <v>186.49385</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>268.60813</v>
+        <v>772.52375</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>392.36294</v>
+        <v>457.36739</v>
       </c>
       <c r="Z12" s="0" t="n">
-        <v>428.05331</v>
+        <v>413.08869</v>
       </c>
       <c r="AA12" s="0" t="n">
-        <v>520.586383333333</v>
+        <v>788.83855</v>
       </c>
       <c r="AB12" s="0" t="n">
-        <v>722.757493333333</v>
+        <v>1302.9627</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>466.94717</v>
+        <v>495.32819</v>
       </c>
       <c r="AD12" s="0" t="n">
-        <v>495.405053333333</v>
+        <v>808.9793</v>
       </c>
       <c r="AE12" s="0" t="n">
-        <v>385.325146666667</v>
+        <v>537.15314</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>18348.678</v>
+        <v>4873310.2</v>
       </c>
       <c r="AG12" s="0" t="n">
         <v>10</v>
@@ -2996,94 +4533,94 @@
         <v>80</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1759936670</v>
+        <v>9494519900</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1440423508.66667</v>
+        <v>30411597380000</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>9229.06206666667</v>
+        <v>10502.8113</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>84.9588</v>
+        <v>837.04785</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>56.7212746666667</v>
+        <v>112.588506</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>28.7059166666667</v>
+        <v>54.012273</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>80.3749356666667</v>
+        <v>147.04555</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>39.0032043333333</v>
+        <v>67.761447</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>152.953852333333</v>
+        <v>671.32733</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>1442.1246</v>
+        <v>1639.5178</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>1002.94332333333</v>
+        <v>2140.00095</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>15801779.4133333</v>
+        <v>299311471</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>24328.26</v>
+        <v>5608815.091</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>7151.30074333333</v>
+        <v>6077.716628</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>8259.51993333333</v>
+        <v>17193.8394</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>294.378043666667</v>
+        <v>546.57994</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>95.7869653333333</v>
+        <v>158.941875</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>67682.9443333333</v>
+        <v>50637066.53</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>90440.0302333334</v>
+        <v>16215.30354</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>193.433433333333</v>
+        <v>219.30075</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>254.92054</v>
+        <v>186.49385</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>268.60813</v>
+        <v>772.52375</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>392.32833</v>
+        <v>457.36739</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>428.05331</v>
+        <v>413.08869</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <v>520.586383333333</v>
+        <v>788.83855</v>
       </c>
       <c r="AB13" s="0" t="n">
-        <v>722.53409</v>
+        <v>1302.9627</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>466.94717</v>
+        <v>495.32819</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>495.405053333333</v>
+        <v>808.9793</v>
       </c>
       <c r="AE13" s="0" t="n">
-        <v>385.325146666667</v>
+        <v>537.15314</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>18348.678</v>
+        <v>4873310.2</v>
       </c>
       <c r="AG13" s="0" t="n">
         <v>10</v>
@@ -3097,94 +4634,94 @@
         <v>90</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1759652936.66667</v>
+        <v>9494519900</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1440423508.66667</v>
+        <v>30411597380000</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>9229.06206666667</v>
+        <v>10502.8113</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>84.9588</v>
+        <v>837.04785</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>56.7212746666667</v>
+        <v>112.588506</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>28.7059166666667</v>
+        <v>54.012273</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>80.3749356666667</v>
+        <v>147.04555</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>39.0032043333333</v>
+        <v>67.761447</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>152.742155666667</v>
+        <v>671.32733</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>1442.1246</v>
+        <v>1636.769</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>1002.94332333333</v>
+        <v>2140.00095</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>15744332.2006667</v>
+        <v>299311471</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>23919.5366</v>
+        <v>5608815.091</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>7151.30074333333</v>
+        <v>6075.0908</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>8259.51993333333</v>
+        <v>17193.8394</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>294.378043666667</v>
+        <v>546.57994</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>95.7869653333333</v>
+        <v>158.941875</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>61594.8366666667</v>
+        <v>50637066.53</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>90440.0302333334</v>
+        <v>16215.30354</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>193.433433333333</v>
+        <v>219.30075</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>254.92054</v>
+        <v>186.49385</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>268.60813</v>
+        <v>772.52375</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>392.32833</v>
+        <v>457.36739</v>
       </c>
       <c r="Z14" s="0" t="n">
-        <v>428.05331</v>
+        <v>413.08869</v>
       </c>
       <c r="AA14" s="0" t="n">
-        <v>520.586383333333</v>
+        <v>788.83855</v>
       </c>
       <c r="AB14" s="0" t="n">
-        <v>722.255783333333</v>
+        <v>1302.9627</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>466.94717</v>
+        <v>495.32819</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>495.405053333333</v>
+        <v>808.9793</v>
       </c>
       <c r="AE14" s="0" t="n">
-        <v>384.989516666667</v>
+        <v>537.15314</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>18348.678</v>
+        <v>4873310.2</v>
       </c>
       <c r="AG14" s="0" t="n">
         <v>10</v>
@@ -3198,94 +4735,94 @@
         <v>100</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1759553636.66667</v>
+        <v>9494519900</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1440423508.66667</v>
+        <v>30411597380000</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>9229.06206666667</v>
+        <v>10502.8113</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>84.9588</v>
+        <v>837.04785</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>56.7212746666667</v>
+        <v>112.588506</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>28.7059166666667</v>
+        <v>54.012273</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>80.3749356666667</v>
+        <v>147.04555</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>39.0032043333333</v>
+        <v>67.659739</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>152.596695666667</v>
+        <v>671.32733</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>1442.1246</v>
+        <v>1636.769</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>1002.94332333333</v>
+        <v>2140.00095</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>15705334.5026667</v>
+        <v>299311471</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>23509.2209</v>
+        <v>5608815.091</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>7151.29481</v>
+        <v>6075.0908</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>8259.51993333333</v>
+        <v>17193.8394</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>294.378043666667</v>
+        <v>546.57994</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>95.7869653333333</v>
+        <v>158.941875</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>57845.1913333333</v>
+        <v>50637066.53</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>90440.0302333334</v>
+        <v>16215.30354</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>193.433433333333</v>
+        <v>219.30075</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>254.92054</v>
+        <v>186.49385</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>268.60813</v>
+        <v>772.52375</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>392.320626666667</v>
+        <v>457.36739</v>
       </c>
       <c r="Z15" s="0" t="n">
-        <v>428.05331</v>
+        <v>413.08869</v>
       </c>
       <c r="AA15" s="0" t="n">
-        <v>520.586383333333</v>
+        <v>788.83855</v>
       </c>
       <c r="AB15" s="0" t="n">
-        <v>722.05922</v>
+        <v>1302.9627</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>466.94717</v>
+        <v>495.32819</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>495.405053333333</v>
+        <v>808.9793</v>
       </c>
       <c r="AE15" s="0" t="n">
-        <v>384.843083333333</v>
+        <v>537.15314</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>18346.4586666667</v>
+        <v>4873310.2</v>
       </c>
       <c r="AG15" s="0" t="n">
         <v>10</v>

--- a/code/media_10.xlsx
+++ b/code/media_10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Mejora_Operador_Evolución" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Hibrido_ES" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="GWO" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="GWO" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Mejora_Evolutiva" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Hibrido_ES" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -235,11 +235,14 @@
   </sheetPr>
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -347,94 +350,94 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>14614904000</v>
+        <v>12315750900</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>5904058582830</v>
+        <v>108360447060000</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>30372.299</v>
+        <v>31106.71</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1392.42384</v>
+        <v>1234.7085</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>123.429104</v>
+        <v>138.231918</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>69.23141</v>
+        <v>69.569201</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>251.94008</v>
+        <v>223.55828</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>105.124121</v>
+        <v>96.781887</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>2205.2197</v>
+        <v>1807.5657</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>2183.4563</v>
+        <v>2057.0838</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>8539.81228</v>
+        <v>6354.83494</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>770529745</v>
+        <v>848661660</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>34727947.318</v>
+        <v>33946996.22</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>25085.5337</v>
+        <v>28360.2732</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>77025.1142</v>
+        <v>399785.5023</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>652.85217</v>
+        <v>847.77801</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>312.31335</v>
+        <v>360.42472</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>186824281</v>
+        <v>377559677.4</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>1357528.527</v>
+        <v>880632.995</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>344.45281</v>
+        <v>335.30242</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>255.15349</v>
+        <v>259.98797</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>1122.29458</v>
+        <v>1147.47091</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>502.58363</v>
+        <v>494.6414</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>531.91753</v>
+        <v>549.2517</v>
       </c>
       <c r="AA2" s="0" t="n">
-        <v>1128.99271</v>
+        <v>1295.20793</v>
       </c>
       <c r="AB2" s="0" t="n">
-        <v>1651.1344</v>
+        <v>1696.1948</v>
       </c>
       <c r="AC2" s="0" t="n">
-        <v>572.96961</v>
+        <v>534.09237</v>
       </c>
       <c r="AD2" s="0" t="n">
-        <v>1046.32534</v>
+        <v>988.58183</v>
       </c>
       <c r="AE2" s="0" t="n">
-        <v>731.31408</v>
+        <v>692.9321</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>30476681.9</v>
+        <v>24074026.3</v>
       </c>
       <c r="AG2" s="0" t="n">
         <v>10</v>
@@ -448,94 +451,94 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>12509173100</v>
+        <v>11383537500</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>4744299844830</v>
+        <v>104610241129300</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>25696.99</v>
+        <v>26385.737</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1219.63444</v>
+        <v>1065.42987</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>119.814943</v>
+        <v>131.188512</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>67.320281</v>
+        <v>65.742305</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>227.36199</v>
+        <v>211.89086</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>95.571073</v>
+        <v>87.517194</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>1944.6579</v>
+        <v>1514.60091</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>2120.0142</v>
+        <v>1980.4389</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>8331.60004</v>
+        <v>4890.43504</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>623353715</v>
+        <v>662479590</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>15644952.894</v>
+        <v>12204874.165</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>19092.94515</v>
+        <v>19693.93501</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>50665.7322</v>
+        <v>145153.9781</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>579.31875</v>
+        <v>806.87835</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>248.1846</v>
+        <v>304.4619</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>109323103.7</v>
+        <v>242939433</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>1051368.6306</v>
+        <v>767602.799</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>307.45086</v>
+        <v>296.5025</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>230.83024</v>
+        <v>247.49231</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>1094.14748</v>
+        <v>1098.56091</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>500.37404</v>
+        <v>480.80063</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>501.73996</v>
+        <v>526.65436</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>1034.18189</v>
+        <v>1111.16188</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>1433.51869</v>
+        <v>1646.7972</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>565.40839</v>
+        <v>513.1577</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>1000.60653</v>
+        <v>919.50694</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>685.33303</v>
+        <v>626.27365</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>22334546.9</v>
+        <v>11856574.5</v>
       </c>
       <c r="AG3" s="0" t="n">
         <v>10</v>
@@ -549,94 +552,94 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>11381567200</v>
+        <v>10930630500</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>4204460718830</v>
+        <v>66103911779300</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>22607.664</v>
+        <v>23642.704</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1084.80902</v>
+        <v>1027.42564</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>116.454243</v>
+        <v>129.152672</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>65.631287</v>
+        <v>63.211888</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>220.1726</v>
+        <v>197.2937</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>86.925951</v>
+        <v>83.389805</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>1789.4677</v>
+        <v>1439.73474</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>2063.3775</v>
+        <v>1928.874</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>8035.21314</v>
+        <v>4607.08163</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>570744035</v>
+        <v>547591370</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>14604981.394</v>
+        <v>9283490.745</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>13006.99035</v>
+        <v>16235.42913</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>32711.0252</v>
+        <v>88356.6718</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>579.31875</v>
+        <v>759.16235</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>221.63032</v>
+        <v>295.46511</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>97475466</v>
+        <v>232898618</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>1051368.6306</v>
+        <v>666661.209</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>289.34627</v>
+        <v>280.93068</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>230.11372</v>
+        <v>240.15926</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>1036.7004</v>
+        <v>1044.01945</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>490.52599</v>
+        <v>473.29889</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>487.58626</v>
+        <v>519.97939</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>1014.50269</v>
+        <v>1077.75275</v>
       </c>
       <c r="AB4" s="0" t="n">
-        <v>1387.93699</v>
+        <v>1571.385</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>564.09003</v>
+        <v>509.3192</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <v>963.91659</v>
+        <v>825.68598</v>
       </c>
       <c r="AE4" s="0" t="n">
-        <v>650.93408</v>
+        <v>610.54442</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>19188581.6</v>
+        <v>10669863.7</v>
       </c>
       <c r="AG4" s="0" t="n">
         <v>10</v>
@@ -650,94 +653,94 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>11265989200</v>
+        <v>10758710600</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>4156130851870</v>
+        <v>32093000313300</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>21582.065</v>
+        <v>20416.418</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>935.71718</v>
+        <v>965.13079</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>114.263552</v>
+        <v>124.248069</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>62.872672</v>
+        <v>59.765014</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>200.07151</v>
+        <v>185.45892</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>80.056225</v>
+        <v>82.617644</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>1735.2777</v>
+        <v>1201.59098</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>1882.9961</v>
+        <v>1869.464</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>3649.71041</v>
+        <v>3174.24841</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>344724857</v>
+        <v>356049310</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>7815124.404</v>
+        <v>7569968.345</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>10549.79005</v>
+        <v>9981.45613</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>18393.651</v>
+        <v>27040.4941</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>570.35418</v>
+        <v>739.9292</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>193.54731</v>
+        <v>267.27089</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>73836826.6</v>
+        <v>120204675.8</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>1023394.8576</v>
+        <v>254895.471</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>281.77319</v>
+        <v>266.85876</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>218.81013</v>
+        <v>222.50977</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>939.6782</v>
+        <v>966.21093</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>482.31887</v>
+        <v>467.04237</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <v>474.47777</v>
+        <v>498.24431</v>
       </c>
       <c r="AA5" s="0" t="n">
-        <v>918.77974</v>
+        <v>1053.94548</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <v>1357.52199</v>
+        <v>1500.828</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>545.56188</v>
+        <v>505.75624</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <v>934.29688</v>
+        <v>825.68598</v>
       </c>
       <c r="AE5" s="0" t="n">
-        <v>620.01788</v>
+        <v>590.69435</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>15392439.8</v>
+        <v>7676538.2</v>
       </c>
       <c r="AG5" s="0" t="n">
         <v>10</v>
@@ -751,94 +754,94 @@
         <v>10</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>10424856900</v>
+        <v>10082221800</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2213077261870</v>
+        <v>30418367850300</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>18364.1848</v>
+        <v>17420.0498</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>875.66805</v>
+        <v>909.6395</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>105.403963</v>
+        <v>117.615463</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>59.510539</v>
+        <v>54.733084</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>191.96909</v>
+        <v>175.69756</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>75.892751</v>
+        <v>76.164571</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>1436.05542</v>
+        <v>921.49856</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>1750.4036</v>
+        <v>1836.2246</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>2422.935</v>
+        <v>2735.82061</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>272575695</v>
+        <v>343285396</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>7707891.904</v>
+        <v>6856844.055</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>8663.88335</v>
+        <v>7727.18301</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>13977.7471</v>
+        <v>18796.3309</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>498.31242</v>
+        <v>669.63968</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>173.629239</v>
+        <v>219.95797</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>72571427</v>
+        <v>114300398.8</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>1009722.6729</v>
+        <v>79671.5138</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>251.59</v>
+        <v>258.35384</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>198.53288</v>
+        <v>200.00911</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>916.02489</v>
+        <v>841.60202</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>482.31887</v>
+        <v>461.40814</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <v>468.62178</v>
+        <v>482.90862</v>
       </c>
       <c r="AA6" s="0" t="n">
-        <v>886.96577</v>
+        <v>979.947</v>
       </c>
       <c r="AB6" s="0" t="n">
-        <v>1313.19925</v>
+        <v>1394.9484</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>539.05553</v>
+        <v>503.69136</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>832.09072</v>
+        <v>814.9413</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <v>587.8096</v>
+        <v>575.75439</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>13346240.2</v>
+        <v>6421328.6</v>
       </c>
       <c r="AG6" s="0" t="n">
         <v>10</v>
@@ -852,94 +855,94 @@
         <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>9862683800</v>
+        <v>9507528500</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2162285011200</v>
+        <v>30412879392500</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>15183.5378</v>
+        <v>12916.9998</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>793.05632</v>
+        <v>842.06752</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>102.687737</v>
+        <v>114.560043</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>56.985971</v>
+        <v>54.450792</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>176.68344</v>
+        <v>159.39456</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>73.625685</v>
+        <v>73.573836</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1105.10371</v>
+        <v>791.64016</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>1700.6211</v>
+        <v>1751.2918</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>1412.24366</v>
+        <v>2140.00095</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>218789930</v>
+        <v>308896308</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>3627141.924</v>
+        <v>5751496.635</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>7573.0923</v>
+        <v>6670.982902</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>12725.0949</v>
+        <v>17330.876</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>461.97082</v>
+        <v>592.84282</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>158.676159</v>
+        <v>196.75362</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>70808437.01</v>
+        <v>50775297</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>1003882.35687</v>
+        <v>29077.76359</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>219.7188</v>
+        <v>243.4</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>177.08952</v>
+        <v>189.72435</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>781.60209</v>
+        <v>790.55584</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>482.28013</v>
+        <v>457.36831</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>446.15889</v>
+        <v>438.32043</v>
       </c>
       <c r="AA7" s="0" t="n">
-        <v>841.13403</v>
+        <v>845.13901</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <v>1253.57485</v>
+        <v>1342.0936</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>539.05553</v>
+        <v>495.32819</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>828.50387</v>
+        <v>814.9413</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <v>541.97661</v>
+        <v>541.1551</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>8840013.2</v>
+        <v>5486586</v>
       </c>
       <c r="AG7" s="0" t="n">
         <v>10</v>
@@ -953,94 +956,94 @@
         <v>30</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>9858857000</v>
+        <v>9507528500</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2134255426750</v>
+        <v>30411816656000</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>14014.2298</v>
+        <v>10968.1621</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>750.64441</v>
+        <v>837.04785</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>101.730979</v>
+        <v>112.588506</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>54.309369</v>
+        <v>54.450792</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>169.364307</v>
+        <v>150.02831</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>68.500624</v>
+        <v>72.913439</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>982.56091</v>
+        <v>766.14749</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>1631.2056</v>
+        <v>1715.1517</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>1409.81438</v>
+        <v>2140.00095</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>196273029</v>
+        <v>299311471</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>3381578.654</v>
+        <v>5668637.302</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>7573.0923</v>
+        <v>6092.375412</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>12725.0949</v>
+        <v>17242.9731</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>426.72205</v>
+        <v>557.16372</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>151.020499</v>
+        <v>168.54606</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>70778704.01</v>
+        <v>50726057.6</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>1002640.07957</v>
+        <v>16354.25774</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>215.65779</v>
+        <v>222.30148</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>176.65146</v>
+        <v>187.37042</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>781.60209</v>
+        <v>772.52375</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>482.07583</v>
+        <v>457.36739</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <v>439.90207</v>
+        <v>426.59097</v>
       </c>
       <c r="AA8" s="0" t="n">
-        <v>825.79429</v>
+        <v>791.93175</v>
       </c>
       <c r="AB8" s="0" t="n">
-        <v>1252.76875</v>
+        <v>1307.2794</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>539.05553</v>
+        <v>495.32819</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>820.20641</v>
+        <v>808.9793</v>
       </c>
       <c r="AE8" s="0" t="n">
-        <v>530.52066</v>
+        <v>539.85971</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>8840013.2</v>
+        <v>4946986.8</v>
       </c>
       <c r="AG8" s="0" t="n">
         <v>10</v>
@@ -1054,94 +1057,94 @@
         <v>40</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>9858857000</v>
+        <v>9494519900</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>2134255426750</v>
+        <v>30411597380000</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>13664.9941</v>
+        <v>10797.3503</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>745.62026</v>
+        <v>837.04785</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>101.730979</v>
+        <v>112.588506</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>54.23037</v>
+        <v>54.450792</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>167.245627</v>
+        <v>148.57658</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>67.07947</v>
+        <v>70.296204</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>972.74441</v>
+        <v>710.6064</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>1579.2723</v>
+        <v>1709.4648</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>1401.80845</v>
+        <v>2140.00095</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>195433368</v>
+        <v>299311471</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>3262282.714</v>
+        <v>5624479.373</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>7573.0923</v>
+        <v>6091.039072</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>12725.0949</v>
+        <v>17242.9731</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>424.75909</v>
+        <v>548.96462</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>145.352342</v>
+        <v>165.98082</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>69071705.41</v>
+        <v>50658352.12</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>1002076.97403</v>
+        <v>16354.25774</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>204.03533</v>
+        <v>219.30075</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>176.54187</v>
+        <v>187.22518</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>781.60209</v>
+        <v>772.52375</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>482.07583</v>
+        <v>457.36739</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <v>431.38881</v>
+        <v>413.08869</v>
       </c>
       <c r="AA9" s="0" t="n">
-        <v>807.38959</v>
+        <v>791.93175</v>
       </c>
       <c r="AB9" s="0" t="n">
-        <v>1231.71976</v>
+        <v>1302.9627</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>539.05553</v>
+        <v>495.32819</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <v>820.20641</v>
+        <v>808.9793</v>
       </c>
       <c r="AE9" s="0" t="n">
-        <v>530.52066</v>
+        <v>539.85971</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>8559678.7</v>
+        <v>4873310.2</v>
       </c>
       <c r="AG9" s="0" t="n">
         <v>10</v>
@@ -1155,94 +1158,94 @@
         <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>9553937700</v>
+        <v>9494519900</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>2134255426750</v>
+        <v>30411597380000</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>13469.15</v>
+        <v>10502.8113</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>742.24428</v>
+        <v>837.04785</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>100.794941</v>
+        <v>112.588506</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>53.877775</v>
+        <v>54.012273</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>166.070797</v>
+        <v>147.17709</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>65.923392</v>
+        <v>67.822728</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>972.74441</v>
+        <v>672.7165</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>1570.2629</v>
+        <v>1699.9988</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>1401.80845</v>
+        <v>2140.00095</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>195433368</v>
+        <v>299311471</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>3249183.389</v>
+        <v>5609086.203</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>7562.09749</v>
+        <v>6078.448762</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>12317.0271</v>
+        <v>17193.8394</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>424.75909</v>
+        <v>548.96462</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>145.352342</v>
+        <v>161.637652</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>68912230.17</v>
+        <v>50637066.53</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>1002038.79083</v>
+        <v>16215.30354</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>203.23313</v>
+        <v>219.30075</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>176.26349</v>
+        <v>186.49385</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>781.60209</v>
+        <v>772.52375</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>482.07583</v>
+        <v>457.36739</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <v>426.39226</v>
+        <v>413.08869</v>
       </c>
       <c r="AA10" s="0" t="n">
-        <v>803.65524</v>
+        <v>788.83855</v>
       </c>
       <c r="AB10" s="0" t="n">
-        <v>1144.00392</v>
+        <v>1302.9627</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>539.05553</v>
+        <v>495.32819</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>820.20641</v>
+        <v>808.9793</v>
       </c>
       <c r="AE10" s="0" t="n">
-        <v>530.52066</v>
+        <v>538.90526</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>8559678.7</v>
+        <v>4873310.2</v>
       </c>
       <c r="AG10" s="0" t="n">
         <v>10</v>
@@ -1256,94 +1259,94 @@
         <v>60</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>9553937700</v>
+        <v>9494519900</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>2134255426750</v>
+        <v>30411597380000</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>13469.15</v>
+        <v>10502.8113</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>742.24428</v>
+        <v>837.04785</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>100.745885</v>
+        <v>112.588506</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>53.877775</v>
+        <v>54.012273</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>165.185967</v>
+        <v>147.04555</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>64.337438</v>
+        <v>67.822728</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>972.74441</v>
+        <v>672.7165</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>1547.3025</v>
+        <v>1639.5178</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>1401.80845</v>
+        <v>2140.00095</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>195433368</v>
+        <v>299311471</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>3249183.389</v>
+        <v>5609086.203</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>7562.09749</v>
+        <v>6078.448762</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>12103.535</v>
+        <v>17193.8394</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>424.75909</v>
+        <v>548.96462</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>144.551273</v>
+        <v>159.472914</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>68912230.17</v>
+        <v>50637066.53</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>1002038.79083</v>
+        <v>16215.30354</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>203.23313</v>
+        <v>219.30075</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>176.02926</v>
+        <v>186.49385</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>781.60209</v>
+        <v>772.52375</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>482.07583</v>
+        <v>457.36739</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <v>426.39226</v>
+        <v>413.08869</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <v>803.65524</v>
+        <v>788.83855</v>
       </c>
       <c r="AB11" s="0" t="n">
-        <v>1144.00392</v>
+        <v>1302.9627</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>539.05553</v>
+        <v>495.32819</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>820.20641</v>
+        <v>808.9793</v>
       </c>
       <c r="AE11" s="0" t="n">
-        <v>530.52066</v>
+        <v>537.15314</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>8559678.7</v>
+        <v>4873310.2</v>
       </c>
       <c r="AG11" s="0" t="n">
         <v>10</v>
@@ -1357,94 +1360,94 @@
         <v>70</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>9417601700</v>
+        <v>9494519900</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>2134255426750</v>
+        <v>30411597380000</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>13469.15</v>
+        <v>10502.8113</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>742.24428</v>
+        <v>837.04785</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>100.745885</v>
+        <v>112.588506</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>53.528506</v>
+        <v>54.012273</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>163.348693</v>
+        <v>147.04555</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>64.337438</v>
+        <v>67.761447</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>961.33131</v>
+        <v>671.32733</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>1540.7556</v>
+        <v>1639.5178</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>1401.80845</v>
+        <v>2140.00095</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>195433368</v>
+        <v>299311471</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>3249183.389</v>
+        <v>5609086.203</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>7562.09749</v>
+        <v>6077.716628</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>12103.535</v>
+        <v>17193.8394</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>424.75909</v>
+        <v>546.57994</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>144.551273</v>
+        <v>159.472914</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>68912230.17</v>
+        <v>50637066.53</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>994854.13853</v>
+        <v>16215.30354</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>203.23313</v>
+        <v>219.30075</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>176.02926</v>
+        <v>186.49385</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>781.60209</v>
+        <v>772.52375</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>482.07583</v>
+        <v>457.36739</v>
       </c>
       <c r="Z12" s="0" t="n">
-        <v>425.59396</v>
+        <v>413.08869</v>
       </c>
       <c r="AA12" s="0" t="n">
-        <v>803.65524</v>
+        <v>788.83855</v>
       </c>
       <c r="AB12" s="0" t="n">
-        <v>1144.00392</v>
+        <v>1302.9627</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>539.05553</v>
+        <v>495.32819</v>
       </c>
       <c r="AD12" s="0" t="n">
-        <v>820.20641</v>
+        <v>808.9793</v>
       </c>
       <c r="AE12" s="0" t="n">
-        <v>529.35972</v>
+        <v>537.15314</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>8287446.5</v>
+        <v>4873310.2</v>
       </c>
       <c r="AG12" s="0" t="n">
         <v>10</v>
@@ -1458,94 +1461,94 @@
         <v>80</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>9327637100</v>
+        <v>9494519900</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>2134240638869</v>
+        <v>30411597380000</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>13469.15</v>
+        <v>10502.8113</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>742.24428</v>
+        <v>837.04785</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>100.397913</v>
+        <v>112.588506</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>53.528506</v>
+        <v>54.012273</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>163.348693</v>
+        <v>147.04555</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>63.244184</v>
+        <v>67.761447</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>961.33131</v>
+        <v>671.32733</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>1525.484</v>
+        <v>1639.5178</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>1401.80845</v>
+        <v>2140.00095</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>195433368</v>
+        <v>299311471</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>3249183.389</v>
+        <v>5608815.091</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>7562.09749</v>
+        <v>6077.716628</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>12103.535</v>
+        <v>17193.8394</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>424.75909</v>
+        <v>546.57994</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>144.551273</v>
+        <v>158.941875</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>68912230.17</v>
+        <v>50637066.53</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>990835.74453</v>
+        <v>16215.30354</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>203.23313</v>
+        <v>219.30075</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>176.02926</v>
+        <v>186.49385</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>781.60209</v>
+        <v>772.52375</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>482.07583</v>
+        <v>457.36739</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>425.59396</v>
+        <v>413.08869</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <v>803.65524</v>
+        <v>788.83855</v>
       </c>
       <c r="AB13" s="0" t="n">
-        <v>1144.00392</v>
+        <v>1302.9627</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>539.05553</v>
+        <v>495.32819</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>820.20641</v>
+        <v>808.9793</v>
       </c>
       <c r="AE13" s="0" t="n">
-        <v>529.35972</v>
+        <v>537.15314</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>8287446.5</v>
+        <v>4873310.2</v>
       </c>
       <c r="AG13" s="0" t="n">
         <v>10</v>
@@ -1559,94 +1562,94 @@
         <v>90</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>9327637100</v>
+        <v>9494519900</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>2134240638869</v>
+        <v>30411597380000</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>13469.15</v>
+        <v>10502.8113</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>739.77026</v>
+        <v>837.04785</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>100.397913</v>
+        <v>112.588506</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>53.528506</v>
+        <v>54.012273</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>163.348693</v>
+        <v>147.04555</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>63.244184</v>
+        <v>67.761447</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>961.33131</v>
+        <v>671.32733</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>1525.484</v>
+        <v>1636.769</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>1401.80845</v>
+        <v>2140.00095</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>195433368</v>
+        <v>299311471</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>3249183.389</v>
+        <v>5608815.091</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>7562.09749</v>
+        <v>6075.0908</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>12103.535</v>
+        <v>17193.8394</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>424.75909</v>
+        <v>546.57994</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>144.551273</v>
+        <v>158.941875</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>68896491.2</v>
+        <v>50637066.53</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>989101.36453</v>
+        <v>16215.30354</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>203.23313</v>
+        <v>219.30075</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>176.02926</v>
+        <v>186.49385</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>781.60209</v>
+        <v>772.52375</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>482.07583</v>
+        <v>457.36739</v>
       </c>
       <c r="Z14" s="0" t="n">
-        <v>425.59396</v>
+        <v>413.08869</v>
       </c>
       <c r="AA14" s="0" t="n">
-        <v>803.65524</v>
+        <v>788.83855</v>
       </c>
       <c r="AB14" s="0" t="n">
-        <v>1139.59932</v>
+        <v>1302.9627</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>539.05553</v>
+        <v>495.32819</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>820.20641</v>
+        <v>808.9793</v>
       </c>
       <c r="AE14" s="0" t="n">
-        <v>529.35972</v>
+        <v>537.15314</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>8287446.5</v>
+        <v>4873310.2</v>
       </c>
       <c r="AG14" s="0" t="n">
         <v>10</v>
@@ -1660,94 +1663,94 @@
         <v>100</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>9327637100</v>
+        <v>9494519900</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>2134240638869</v>
+        <v>30411597380000</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>13469.15</v>
+        <v>10502.8113</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>739.77026</v>
+        <v>837.04785</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>100.397913</v>
+        <v>112.588506</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>53.528506</v>
+        <v>54.012273</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>163.348693</v>
+        <v>147.04555</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>63.244184</v>
+        <v>67.659739</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>961.33131</v>
+        <v>671.32733</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>1513.4064</v>
+        <v>1636.769</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>1401.80845</v>
+        <v>2140.00095</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>195433368</v>
+        <v>299311471</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>3249183.389</v>
+        <v>5608815.091</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>7562.09749</v>
+        <v>6075.0908</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>12098.7701</v>
+        <v>17193.8394</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>424.75909</v>
+        <v>546.57994</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>144.551273</v>
+        <v>158.941875</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>68896491.2</v>
+        <v>50637066.53</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>989101.36453</v>
+        <v>16215.30354</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>203.23313</v>
+        <v>219.30075</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>176.02926</v>
+        <v>186.49385</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>781.60209</v>
+        <v>772.52375</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>482.07583</v>
+        <v>457.36739</v>
       </c>
       <c r="Z15" s="0" t="n">
-        <v>425.59396</v>
+        <v>413.08869</v>
       </c>
       <c r="AA15" s="0" t="n">
-        <v>803.65524</v>
+        <v>788.83855</v>
       </c>
       <c r="AB15" s="0" t="n">
-        <v>1139.59932</v>
+        <v>1302.9627</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>539.05553</v>
+        <v>495.32819</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>820.20641</v>
+        <v>808.9793</v>
       </c>
       <c r="AE15" s="0" t="n">
-        <v>529.35972</v>
+        <v>537.15314</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>8287446.5</v>
+        <v>4873310.2</v>
       </c>
       <c r="AG15" s="0" t="n">
         <v>10</v>
@@ -1755,11 +1758,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -1771,11 +1774,11 @@
   </sheetPr>
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -1883,94 +1886,94 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>13769917600</v>
+        <v>14614904000</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>29749001450000</v>
+        <v>5904058582830</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>29035.363</v>
+        <v>30372.299</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1135.28205</v>
+        <v>1392.42384</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>134.38319</v>
+        <v>123.429104</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>69.761523</v>
+        <v>69.23141</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>285.18748</v>
+        <v>251.94008</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>100.571698</v>
+        <v>105.124121</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>2333.7828</v>
+        <v>2205.2197</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>2076.7364</v>
+        <v>2183.4563</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>3741.29944</v>
+        <v>8539.81228</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>828523173</v>
+        <v>770529745</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>16582024.65</v>
+        <v>34727947.318</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>714398.3825</v>
+        <v>25085.5337</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>99077.342</v>
+        <v>77025.1142</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>699.6031</v>
+        <v>652.85217</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>357.35574</v>
+        <v>312.31335</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>263212189.33</v>
+        <v>186824281</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>3244163.8501</v>
+        <v>1357528.527</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>350.68707</v>
+        <v>344.45281</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>290.06659</v>
+        <v>255.15349</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>1140.30585</v>
+        <v>1122.29458</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>477.17546</v>
+        <v>502.58363</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>534.98685</v>
+        <v>531.91753</v>
       </c>
       <c r="AA2" s="0" t="n">
-        <v>1064.60606</v>
+        <v>1128.99271</v>
       </c>
       <c r="AB2" s="0" t="n">
-        <v>1826.5096</v>
+        <v>1651.1344</v>
       </c>
       <c r="AC2" s="0" t="n">
-        <v>566.97739</v>
+        <v>572.96961</v>
       </c>
       <c r="AD2" s="0" t="n">
-        <v>952.95574</v>
+        <v>1046.32534</v>
       </c>
       <c r="AE2" s="0" t="n">
-        <v>787.41997</v>
+        <v>731.31408</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>34554513.9</v>
+        <v>30476681.9</v>
       </c>
       <c r="AG2" s="0" t="n">
         <v>10</v>
@@ -1984,94 +1987,94 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>13614251600</v>
+        <v>12509173100</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>29414060569300</v>
+        <v>4744299844830</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>24867.151</v>
+        <v>25696.99</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>979.8689</v>
+        <v>1219.63444</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>125.618405</v>
+        <v>119.814943</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>64.638975</v>
+        <v>67.320281</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>242.57924</v>
+        <v>227.36199</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>93.54623</v>
+        <v>95.571073</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>1894.874</v>
+        <v>1944.6579</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>1970.6858</v>
+        <v>2120.0142</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>3647.52945</v>
+        <v>8331.60004</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>549278565</v>
+        <v>623353715</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>7978902.25</v>
+        <v>15644952.894</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>335727.6514</v>
+        <v>19092.94515</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>67806.861</v>
+        <v>50665.7322</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>685.09984</v>
+        <v>579.31875</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>298.24319</v>
+        <v>248.1846</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>259337185.13</v>
+        <v>109323103.7</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>3068604.5901</v>
+        <v>1051368.6306</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>292.13554</v>
+        <v>307.45086</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>257.50421</v>
+        <v>230.83024</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>1053.70213</v>
+        <v>1094.14748</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>470.05074</v>
+        <v>500.37404</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>503.19098</v>
+        <v>501.73996</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>969.42225</v>
+        <v>1034.18189</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>1747.4084</v>
+        <v>1433.51869</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>550.39035</v>
+        <v>565.40839</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>895.61198</v>
+        <v>1000.60653</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>720.9353</v>
+        <v>685.33303</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>26735100.9</v>
+        <v>22334546.9</v>
       </c>
       <c r="AG3" s="0" t="n">
         <v>10</v>
@@ -2085,94 +2088,94 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>12842420200</v>
+        <v>11381567200</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>4157408438300</v>
+        <v>4204460718830</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>24514.967</v>
+        <v>22607.664</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>892.7992</v>
+        <v>1084.80902</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>122.610772</v>
+        <v>116.454243</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>63.994653</v>
+        <v>65.631287</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>229.15302</v>
+        <v>220.1726</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>91.978397</v>
+        <v>86.925951</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>1346.17366</v>
+        <v>1789.4677</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>1889.4648</v>
+        <v>2063.3775</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>2392.2887</v>
+        <v>8035.21314</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>531917135</v>
+        <v>570744035</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>7053600.85</v>
+        <v>14604981.394</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>295489.66</v>
+        <v>13006.99035</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>31232.5311</v>
+        <v>32711.0252</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>649.53992</v>
+        <v>579.31875</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>285.69731</v>
+        <v>221.63032</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>155511584.13</v>
+        <v>97475466</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>2482595.7441</v>
+        <v>1051368.6306</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>274.98631</v>
+        <v>289.34627</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>250.36764</v>
+        <v>230.11372</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>1000.90212</v>
+        <v>1036.7004</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>467.79187</v>
+        <v>490.52599</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>482.19997</v>
+        <v>487.58626</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>920.12128</v>
+        <v>1014.50269</v>
       </c>
       <c r="AB4" s="0" t="n">
-        <v>1658.695</v>
+        <v>1387.93699</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>543.46345</v>
+        <v>564.09003</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <v>855.69205</v>
+        <v>963.91659</v>
       </c>
       <c r="AE4" s="0" t="n">
-        <v>673.36266</v>
+        <v>650.93408</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>23976440.6</v>
+        <v>19188581.6</v>
       </c>
       <c r="AG4" s="0" t="n">
         <v>10</v>
@@ -2186,94 +2189,94 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>11759453200</v>
+        <v>11265989200</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>3181227789900</v>
+        <v>4156130851870</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>20708.943</v>
+        <v>21582.065</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>799.41807</v>
+        <v>935.71718</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>118.0262</v>
+        <v>114.263552</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>61.899096</v>
+        <v>62.872672</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>216.99666</v>
+        <v>200.07151</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>86.380652</v>
+        <v>80.056225</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>1301.97759</v>
+        <v>1735.2777</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>1867.5192</v>
+        <v>1882.9961</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>2292.07036</v>
+        <v>3649.71041</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>461692919</v>
+        <v>344724857</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>5340497.81</v>
+        <v>7815124.404</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>72638.17858</v>
+        <v>10549.79005</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>21924.5649</v>
+        <v>18393.651</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>565.55425</v>
+        <v>570.35418</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>252.53502</v>
+        <v>193.54731</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>131440285.63</v>
+        <v>73836826.6</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>1436353.7211</v>
+        <v>1023394.8576</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>258.1722</v>
+        <v>281.77319</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>231.0898</v>
+        <v>218.81013</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>841.22402</v>
+        <v>939.6782</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>462.36412</v>
+        <v>482.31887</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <v>464.18303</v>
+        <v>474.47777</v>
       </c>
       <c r="AA5" s="0" t="n">
-        <v>911.97786</v>
+        <v>918.77974</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <v>1539.5495</v>
+        <v>1357.52199</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>539.2481</v>
+        <v>545.56188</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <v>828.5922</v>
+        <v>934.29688</v>
       </c>
       <c r="AE5" s="0" t="n">
-        <v>643.36431</v>
+        <v>620.01788</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>9136967.5</v>
+        <v>15392439.8</v>
       </c>
       <c r="AG5" s="0" t="n">
         <v>10</v>
@@ -2287,94 +2290,94 @@
         <v>10</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>10421619100</v>
+        <v>10424856900</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>962039941500</v>
+        <v>2213077261870</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>17891.437</v>
+        <v>18364.1848</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>580.5322</v>
+        <v>875.66805</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>111.631247</v>
+        <v>105.403963</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>59.196538</v>
+        <v>59.510539</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>205.58542</v>
+        <v>191.96909</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>80.157114</v>
+        <v>75.892751</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>1161.69969</v>
+        <v>1436.05542</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>1742.8579</v>
+        <v>1750.4036</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>2115.33477</v>
+        <v>2422.935</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>246840684</v>
+        <v>272575695</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>3385496.986</v>
+        <v>7707891.904</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>9031.96075</v>
+        <v>8663.88335</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>18825.6259</v>
+        <v>13977.7471</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>507.5276</v>
+        <v>498.31242</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>179.06667</v>
+        <v>173.629239</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>100137980.13</v>
+        <v>72571427</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>982986.80274</v>
+        <v>1009722.6729</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>231.182335</v>
+        <v>251.59</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>215.22621</v>
+        <v>198.53288</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>742.20852</v>
+        <v>916.02489</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>451.14429</v>
+        <v>482.31887</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <v>450.43903</v>
+        <v>468.62178</v>
       </c>
       <c r="AA6" s="0" t="n">
-        <v>872.36773</v>
+        <v>886.96577</v>
       </c>
       <c r="AB6" s="0" t="n">
-        <v>1449.06052</v>
+        <v>1313.19925</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>519.30524</v>
+        <v>539.05553</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>794.09037</v>
+        <v>832.09072</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <v>613.48624</v>
+        <v>587.8096</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>8211120.83</v>
+        <v>13346240.2</v>
       </c>
       <c r="AG6" s="0" t="n">
         <v>10</v>
@@ -2388,94 +2391,94 @@
         <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>9898908300</v>
+        <v>9862683800</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>576839182018</v>
+        <v>2162285011200</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>17615.5602</v>
+        <v>15183.5378</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>518.38567</v>
+        <v>793.05632</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>107.669547</v>
+        <v>102.687737</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>54.096403</v>
+        <v>56.985971</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>182.4398</v>
+        <v>176.68344</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>74.874942</v>
+        <v>73.625685</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1083.55149</v>
+        <v>1105.10371</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>1718.0733</v>
+        <v>1700.6211</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>2037.84336</v>
+        <v>1412.24366</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>194359959</v>
+        <v>218789930</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>1873706.812</v>
+        <v>3627141.924</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>8048.79985</v>
+        <v>7573.0923</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>14085.2372</v>
+        <v>12725.0949</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>440.14571</v>
+        <v>461.97082</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>166.69512</v>
+        <v>158.676159</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>94040817.85</v>
+        <v>70808437.01</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>491862.60014</v>
+        <v>1003882.35687</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>204.679845</v>
+        <v>219.7188</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>210.55557</v>
+        <v>177.08952</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>609.59707</v>
+        <v>781.60209</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>441.07812</v>
+        <v>482.28013</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>419.73816</v>
+        <v>446.15889</v>
       </c>
       <c r="AA7" s="0" t="n">
-        <v>845.02041</v>
+        <v>841.13403</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <v>1406.0457</v>
+        <v>1253.57485</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>504.63992</v>
+        <v>539.05553</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>650.89294</v>
+        <v>828.50387</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <v>585.31148</v>
+        <v>541.97661</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>6010962.25</v>
+        <v>8840013.2</v>
       </c>
       <c r="AG7" s="0" t="n">
         <v>10</v>
@@ -2489,94 +2492,94 @@
         <v>30</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>8847411500</v>
+        <v>9858857000</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>576138066198</v>
+        <v>2134255426750</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>15800.2103</v>
+        <v>14014.2298</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>440.38209</v>
+        <v>750.64441</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>106.154171</v>
+        <v>101.730979</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>52.712521</v>
+        <v>54.309369</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>181.23296</v>
+        <v>169.364307</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>73.876724</v>
+        <v>68.500624</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>1017.36525</v>
+        <v>982.56091</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>1709.2808</v>
+        <v>1631.2056</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>1602.29976</v>
+        <v>1409.81438</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>151006289</v>
+        <v>196273029</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>1598601.222</v>
+        <v>3381578.654</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>7092.16018</v>
+        <v>7573.0923</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>9206.5572</v>
+        <v>12725.0949</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>399.30614</v>
+        <v>426.72205</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>160.00148</v>
+        <v>151.020499</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>51481646.032</v>
+        <v>70778704.01</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>350925.30744</v>
+        <v>1002640.07957</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>193.101615</v>
+        <v>215.65779</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>198.9963</v>
+        <v>176.65146</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>542.4611</v>
+        <v>781.60209</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>435.71679</v>
+        <v>482.07583</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <v>416.90121</v>
+        <v>439.90207</v>
       </c>
       <c r="AA8" s="0" t="n">
-        <v>836.64214</v>
+        <v>825.79429</v>
       </c>
       <c r="AB8" s="0" t="n">
-        <v>1361.8894</v>
+        <v>1252.76875</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>498.12325</v>
+        <v>539.05553</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>610.57825</v>
+        <v>820.20641</v>
       </c>
       <c r="AE8" s="0" t="n">
-        <v>553.45015</v>
+        <v>530.52066</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>4256778.48</v>
+        <v>8840013.2</v>
       </c>
       <c r="AG8" s="0" t="n">
         <v>10</v>
@@ -2590,94 +2593,94 @@
         <v>40</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>7864651500</v>
+        <v>9858857000</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>557845166198</v>
+        <v>2134255426750</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>13975.2641</v>
+        <v>13664.9941</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>425.435</v>
+        <v>745.62026</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>104.63865</v>
+        <v>101.730979</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>50.589634</v>
+        <v>54.23037</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>173.83841</v>
+        <v>167.245627</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>72.989067</v>
+        <v>67.07947</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>957.03984</v>
+        <v>972.74441</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>1627.9037</v>
+        <v>1579.2723</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>1288.87716</v>
+        <v>1401.80845</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>121563277</v>
+        <v>195433368</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>1561922.652</v>
+        <v>3262282.714</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>6462.18712</v>
+        <v>7573.0923</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>8506.98189</v>
+        <v>12725.0949</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>395.10132</v>
+        <v>424.75909</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>149.8286</v>
+        <v>145.352342</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>22051187.445</v>
+        <v>69071705.41</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>219652.90744</v>
+        <v>1002076.97403</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>178.633085</v>
+        <v>204.03533</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>195.88267</v>
+        <v>176.54187</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>491.5641</v>
+        <v>781.60209</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>414.88285</v>
+        <v>482.07583</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <v>405.05303</v>
+        <v>431.38881</v>
       </c>
       <c r="AA9" s="0" t="n">
-        <v>824.76215</v>
+        <v>807.38959</v>
       </c>
       <c r="AB9" s="0" t="n">
-        <v>1359.0118</v>
+        <v>1231.71976</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>491.29583</v>
+        <v>539.05553</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <v>574.99404</v>
+        <v>820.20641</v>
       </c>
       <c r="AE9" s="0" t="n">
-        <v>500.60862</v>
+        <v>530.52066</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>4204533.98</v>
+        <v>8559678.7</v>
       </c>
       <c r="AG9" s="0" t="n">
         <v>10</v>
@@ -2691,94 +2694,94 @@
         <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>7602674500</v>
+        <v>9553937700</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>557840523598</v>
+        <v>2134255426750</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>13505.4565</v>
+        <v>13469.15</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>425.435</v>
+        <v>742.24428</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>103.635385</v>
+        <v>100.794941</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>48.625313</v>
+        <v>53.877775</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>173.83841</v>
+        <v>166.070797</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>72.26444</v>
+        <v>65.923392</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>939.6808</v>
+        <v>972.74441</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>1503.6967</v>
+        <v>1570.2629</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>700.29801</v>
+        <v>1401.80845</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>121563277</v>
+        <v>195433368</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>1561922.652</v>
+        <v>3249183.389</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>3258.47703</v>
+        <v>7562.09749</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>5741.21689</v>
+        <v>12317.0271</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>357.91374</v>
+        <v>424.75909</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>136.41423</v>
+        <v>145.352342</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>21765927.635</v>
+        <v>68912230.17</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>162527.70899</v>
+        <v>1002038.79083</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>171.835555</v>
+        <v>203.23313</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>195.88267</v>
+        <v>176.26349</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>469.05876</v>
+        <v>781.60209</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>413.40021</v>
+        <v>482.07583</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <v>405.05303</v>
+        <v>426.39226</v>
       </c>
       <c r="AA10" s="0" t="n">
-        <v>781.26911</v>
+        <v>803.65524</v>
       </c>
       <c r="AB10" s="0" t="n">
-        <v>1342.1479</v>
+        <v>1144.00392</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>485.56906</v>
+        <v>539.05553</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>564.6587</v>
+        <v>820.20641</v>
       </c>
       <c r="AE10" s="0" t="n">
-        <v>492.73691</v>
+        <v>530.52066</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>4058411.02</v>
+        <v>8559678.7</v>
       </c>
       <c r="AG10" s="0" t="n">
         <v>10</v>
@@ -2792,94 +2795,94 @@
         <v>60</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>7602674500</v>
+        <v>9553937700</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>489756823598</v>
+        <v>2134255426750</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>13289.0505</v>
+        <v>13469.15</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>413.37952</v>
+        <v>742.24428</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>103.349665</v>
+        <v>100.745885</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>48.625313</v>
+        <v>53.877775</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>171.47873</v>
+        <v>165.185967</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>71.918903</v>
+        <v>64.337438</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>894.63972</v>
+        <v>972.74441</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>1473.667</v>
+        <v>1547.3025</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>581.75531</v>
+        <v>1401.80845</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>115423387</v>
+        <v>195433368</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>1427214.712</v>
+        <v>3249183.389</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>2786.23111</v>
+        <v>7562.09749</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>5741.21689</v>
+        <v>12103.535</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>349.52644</v>
+        <v>424.75909</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>133.507787</v>
+        <v>144.551273</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>21765927.635</v>
+        <v>68912230.17</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>162527.70899</v>
+        <v>1002038.79083</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>163.836295</v>
+        <v>203.23313</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>194.35279</v>
+        <v>176.02926</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>468.4603</v>
+        <v>781.60209</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>413.40021</v>
+        <v>482.07583</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <v>403.1918</v>
+        <v>426.39226</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <v>764.62642</v>
+        <v>803.65524</v>
       </c>
       <c r="AB11" s="0" t="n">
-        <v>1321.1967</v>
+        <v>1144.00392</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>479.8595</v>
+        <v>539.05553</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>549.05314</v>
+        <v>820.20641</v>
       </c>
       <c r="AE11" s="0" t="n">
-        <v>479.24074</v>
+        <v>530.52066</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>3385026.42</v>
+        <v>8559678.7</v>
       </c>
       <c r="AG11" s="0" t="n">
         <v>10</v>
@@ -2893,94 +2896,94 @@
         <v>70</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>7602674500</v>
+        <v>9417601700</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>488372312428</v>
+        <v>2134255426750</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>12937.1217</v>
+        <v>13469.15</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>371.02747</v>
+        <v>742.24428</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>101.87721</v>
+        <v>100.745885</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>47.850123</v>
+        <v>53.528506</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>166.34735</v>
+        <v>163.348693</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>71.563512</v>
+        <v>64.337438</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>887.93912</v>
+        <v>961.33131</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>1473.667</v>
+        <v>1540.7556</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>572.07648</v>
+        <v>1401.80845</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>110542377</v>
+        <v>195433368</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>1427214.712</v>
+        <v>3249183.389</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>2748.84889</v>
+        <v>7562.09749</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>5741.21689</v>
+        <v>12103.535</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>343.75529</v>
+        <v>424.75909</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>132.487667</v>
+        <v>144.551273</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>20409817.635</v>
+        <v>68912230.17</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>122201.68399</v>
+        <v>994854.13853</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>162.450315</v>
+        <v>203.23313</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>183.34651</v>
+        <v>176.02926</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>467.75079</v>
+        <v>781.60209</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>408.04195</v>
+        <v>482.07583</v>
       </c>
       <c r="Z12" s="0" t="n">
-        <v>389.20481</v>
+        <v>425.59396</v>
       </c>
       <c r="AA12" s="0" t="n">
-        <v>762.04518</v>
+        <v>803.65524</v>
       </c>
       <c r="AB12" s="0" t="n">
-        <v>1306.0605</v>
+        <v>1144.00392</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>479.18255</v>
+        <v>539.05553</v>
       </c>
       <c r="AD12" s="0" t="n">
-        <v>541.17462</v>
+        <v>820.20641</v>
       </c>
       <c r="AE12" s="0" t="n">
-        <v>478.50845</v>
+        <v>529.35972</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>3363328.42</v>
+        <v>8287446.5</v>
       </c>
       <c r="AG12" s="0" t="n">
         <v>10</v>
@@ -2994,94 +2997,94 @@
         <v>80</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>7237656800</v>
+        <v>9327637100</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>488372312428</v>
+        <v>2134240638869</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>12387.8893</v>
+        <v>13469.15</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>371.02747</v>
+        <v>742.24428</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>99.858866</v>
+        <v>100.397913</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>46.751013</v>
+        <v>53.528506</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>165.21936</v>
+        <v>163.348693</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>71.166437</v>
+        <v>63.244184</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>887.93912</v>
+        <v>961.33131</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>1425.6857</v>
+        <v>1525.484</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>566.23894</v>
+        <v>1401.80845</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>110542377</v>
+        <v>195433368</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>1422703.872</v>
+        <v>3249183.389</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>2705.11148</v>
+        <v>7562.09749</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>4840.12651</v>
+        <v>12103.535</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>332.47229</v>
+        <v>424.75909</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>132.487667</v>
+        <v>144.551273</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>8793854.405</v>
+        <v>68912230.17</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>122201.68399</v>
+        <v>990835.74453</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>162.450315</v>
+        <v>203.23313</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>175.3171</v>
+        <v>176.02926</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>459.21383</v>
+        <v>781.60209</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>405.69977</v>
+        <v>482.07583</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>381.81529</v>
+        <v>425.59396</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <v>753.20834</v>
+        <v>803.65524</v>
       </c>
       <c r="AB13" s="0" t="n">
-        <v>1255.50393</v>
+        <v>1144.00392</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>478.2555</v>
+        <v>539.05553</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>530.98956</v>
+        <v>820.20641</v>
       </c>
       <c r="AE13" s="0" t="n">
-        <v>472.99062</v>
+        <v>529.35972</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>3363328.42</v>
+        <v>8287446.5</v>
       </c>
       <c r="AG13" s="0" t="n">
         <v>10</v>
@@ -3095,94 +3098,94 @@
         <v>90</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>7051960500</v>
+        <v>9327637100</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>488372312428</v>
+        <v>2134240638869</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>11471.5033</v>
+        <v>13469.15</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>361.54246</v>
+        <v>739.77026</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>99.764952</v>
+        <v>100.397913</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>46.105076</v>
+        <v>53.528506</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>164.52516</v>
+        <v>163.348693</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>71.166437</v>
+        <v>63.244184</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>871.27753</v>
+        <v>961.33131</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>1422.8197</v>
+        <v>1525.484</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>566.23894</v>
+        <v>1401.80845</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>109555113</v>
+        <v>195433368</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>1162510.862</v>
+        <v>3249183.389</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>2705.11148</v>
+        <v>7562.09749</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>4840.12651</v>
+        <v>12103.535</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>321.72434</v>
+        <v>424.75909</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>126.497187</v>
+        <v>144.551273</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>2525604.405</v>
+        <v>68896491.2</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>40424.34099</v>
+        <v>989101.36453</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>160.767805</v>
+        <v>203.23313</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>172.72499</v>
+        <v>176.02926</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>459.21383</v>
+        <v>781.60209</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>404.20478</v>
+        <v>482.07583</v>
       </c>
       <c r="Z14" s="0" t="n">
-        <v>374.72128</v>
+        <v>425.59396</v>
       </c>
       <c r="AA14" s="0" t="n">
-        <v>747.97114</v>
+        <v>803.65524</v>
       </c>
       <c r="AB14" s="0" t="n">
-        <v>1234.59487</v>
+        <v>1139.59932</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>478.2555</v>
+        <v>539.05553</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>530.98956</v>
+        <v>820.20641</v>
       </c>
       <c r="AE14" s="0" t="n">
-        <v>463.79153</v>
+        <v>529.35972</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>3276824.22</v>
+        <v>8287446.5</v>
       </c>
       <c r="AG14" s="0" t="n">
         <v>10</v>
@@ -3196,94 +3199,94 @@
         <v>100</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>6888204400</v>
+        <v>9327637100</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>447415642428</v>
+        <v>2134240638869</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>11471.5033</v>
+        <v>13469.15</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>349.46731</v>
+        <v>739.77026</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>96.569944</v>
+        <v>100.397913</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>46.02514</v>
+        <v>53.528506</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>164.52516</v>
+        <v>163.348693</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>70.184088</v>
+        <v>63.244184</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>845.46714</v>
+        <v>961.33131</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>1422.8197</v>
+        <v>1513.4064</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>555.73927</v>
+        <v>1401.80845</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>109555113</v>
+        <v>195433368</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>1162510.862</v>
+        <v>3249183.389</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>2705.11148</v>
+        <v>7562.09749</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>4509.97443</v>
+        <v>12098.7701</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>298.12266</v>
+        <v>424.75909</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>117.423132</v>
+        <v>144.551273</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>2510805.694</v>
+        <v>68896491.2</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>39324.78699</v>
+        <v>989101.36453</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>157.421285</v>
+        <v>203.23313</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>172.09417</v>
+        <v>176.02926</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>459.21383</v>
+        <v>781.60209</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>404.20478</v>
+        <v>482.07583</v>
       </c>
       <c r="Z15" s="0" t="n">
-        <v>367.28749</v>
+        <v>425.59396</v>
       </c>
       <c r="AA15" s="0" t="n">
-        <v>691.94334</v>
+        <v>803.65524</v>
       </c>
       <c r="AB15" s="0" t="n">
-        <v>1153.244</v>
+        <v>1139.59932</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>477.01358</v>
+        <v>539.05553</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>530.98956</v>
+        <v>820.20641</v>
       </c>
       <c r="AE15" s="0" t="n">
-        <v>461.3465</v>
+        <v>529.35972</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>3233436.42</v>
+        <v>8287446.5</v>
       </c>
       <c r="AG15" s="0" t="n">
         <v>10</v>
@@ -3311,10 +3314,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -3422,94 +3422,94 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>12315750900</v>
+        <v>13769917600</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>108360447060000</v>
+        <v>29749001450000</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>31106.71</v>
+        <v>29035.363</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1234.7085</v>
+        <v>1135.28205</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>138.231918</v>
+        <v>134.38319</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>69.569201</v>
+        <v>69.761523</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>223.55828</v>
+        <v>285.18748</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>96.781887</v>
+        <v>100.571698</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>1807.5657</v>
+        <v>2333.7828</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>2057.0838</v>
+        <v>2076.7364</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>6354.83494</v>
+        <v>3741.29944</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>848661660</v>
+        <v>828523173</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>33946996.22</v>
+        <v>16582024.65</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>28360.2732</v>
+        <v>714398.3825</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>399785.5023</v>
+        <v>99077.342</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>847.77801</v>
+        <v>699.6031</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>360.42472</v>
+        <v>357.35574</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>377559677.4</v>
+        <v>263212189.33</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>880632.995</v>
+        <v>3244163.8501</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>335.30242</v>
+        <v>350.68707</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>259.98797</v>
+        <v>290.06659</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>1147.47091</v>
+        <v>1140.30585</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>494.6414</v>
+        <v>477.17546</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>549.2517</v>
+        <v>534.98685</v>
       </c>
       <c r="AA2" s="0" t="n">
-        <v>1295.20793</v>
+        <v>1064.60606</v>
       </c>
       <c r="AB2" s="0" t="n">
-        <v>1696.1948</v>
+        <v>1826.5096</v>
       </c>
       <c r="AC2" s="0" t="n">
-        <v>534.09237</v>
+        <v>566.97739</v>
       </c>
       <c r="AD2" s="0" t="n">
-        <v>988.58183</v>
+        <v>952.95574</v>
       </c>
       <c r="AE2" s="0" t="n">
-        <v>692.9321</v>
+        <v>787.41997</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>24074026.3</v>
+        <v>34554513.9</v>
       </c>
       <c r="AG2" s="0" t="n">
         <v>10</v>
@@ -3523,94 +3523,94 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>11383537500</v>
+        <v>13614251600</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>104610241129300</v>
+        <v>29414060569300</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>26385.737</v>
+        <v>24867.151</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1065.42987</v>
+        <v>979.8689</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>131.188512</v>
+        <v>125.618405</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>65.742305</v>
+        <v>64.638975</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>211.89086</v>
+        <v>242.57924</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>87.517194</v>
+        <v>93.54623</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>1514.60091</v>
+        <v>1894.874</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>1980.4389</v>
+        <v>1970.6858</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>4890.43504</v>
+        <v>3647.52945</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>662479590</v>
+        <v>549278565</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>12204874.165</v>
+        <v>7978902.25</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>19693.93501</v>
+        <v>335727.6514</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>145153.9781</v>
+        <v>67806.861</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>806.87835</v>
+        <v>685.09984</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>304.4619</v>
+        <v>298.24319</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>242939433</v>
+        <v>259337185.13</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>767602.799</v>
+        <v>3068604.5901</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>296.5025</v>
+        <v>292.13554</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>247.49231</v>
+        <v>257.50421</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>1098.56091</v>
+        <v>1053.70213</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>480.80063</v>
+        <v>470.05074</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>526.65436</v>
+        <v>503.19098</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>1111.16188</v>
+        <v>969.42225</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>1646.7972</v>
+        <v>1747.4084</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>513.1577</v>
+        <v>550.39035</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>919.50694</v>
+        <v>895.61198</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>626.27365</v>
+        <v>720.9353</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>11856574.5</v>
+        <v>26735100.9</v>
       </c>
       <c r="AG3" s="0" t="n">
         <v>10</v>
@@ -3624,94 +3624,94 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>10930630500</v>
+        <v>12842420200</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>66103911779300</v>
+        <v>4157408438300</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>23642.704</v>
+        <v>24514.967</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1027.42564</v>
+        <v>892.7992</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>129.152672</v>
+        <v>122.610772</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>63.211888</v>
+        <v>63.994653</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>197.2937</v>
+        <v>229.15302</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>83.389805</v>
+        <v>91.978397</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>1439.73474</v>
+        <v>1346.17366</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>1928.874</v>
+        <v>1889.4648</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>4607.08163</v>
+        <v>2392.2887</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>547591370</v>
+        <v>531917135</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>9283490.745</v>
+        <v>7053600.85</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>16235.42913</v>
+        <v>295489.66</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>88356.6718</v>
+        <v>31232.5311</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>759.16235</v>
+        <v>649.53992</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>295.46511</v>
+        <v>285.69731</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>232898618</v>
+        <v>155511584.13</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>666661.209</v>
+        <v>2482595.7441</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>280.93068</v>
+        <v>274.98631</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>240.15926</v>
+        <v>250.36764</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>1044.01945</v>
+        <v>1000.90212</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>473.29889</v>
+        <v>467.79187</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>519.97939</v>
+        <v>482.19997</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>1077.75275</v>
+        <v>920.12128</v>
       </c>
       <c r="AB4" s="0" t="n">
-        <v>1571.385</v>
+        <v>1658.695</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>509.3192</v>
+        <v>543.46345</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <v>825.68598</v>
+        <v>855.69205</v>
       </c>
       <c r="AE4" s="0" t="n">
-        <v>610.54442</v>
+        <v>673.36266</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>10669863.7</v>
+        <v>23976440.6</v>
       </c>
       <c r="AG4" s="0" t="n">
         <v>10</v>
@@ -3725,94 +3725,94 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>10758710600</v>
+        <v>11759453200</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>32093000313300</v>
+        <v>3181227789900</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>20416.418</v>
+        <v>20708.943</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>965.13079</v>
+        <v>799.41807</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>124.248069</v>
+        <v>118.0262</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>59.765014</v>
+        <v>61.899096</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>185.45892</v>
+        <v>216.99666</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>82.617644</v>
+        <v>86.380652</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>1201.59098</v>
+        <v>1301.97759</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>1869.464</v>
+        <v>1867.5192</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>3174.24841</v>
+        <v>2292.07036</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>356049310</v>
+        <v>461692919</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>7569968.345</v>
+        <v>5340497.81</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>9981.45613</v>
+        <v>72638.17858</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>27040.4941</v>
+        <v>21924.5649</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>739.9292</v>
+        <v>565.55425</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>267.27089</v>
+        <v>252.53502</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>120204675.8</v>
+        <v>131440285.63</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>254895.471</v>
+        <v>1436353.7211</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>266.85876</v>
+        <v>258.1722</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>222.50977</v>
+        <v>231.0898</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>966.21093</v>
+        <v>841.22402</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>467.04237</v>
+        <v>462.36412</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <v>498.24431</v>
+        <v>464.18303</v>
       </c>
       <c r="AA5" s="0" t="n">
-        <v>1053.94548</v>
+        <v>911.97786</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <v>1500.828</v>
+        <v>1539.5495</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>505.75624</v>
+        <v>539.2481</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <v>825.68598</v>
+        <v>828.5922</v>
       </c>
       <c r="AE5" s="0" t="n">
-        <v>590.69435</v>
+        <v>643.36431</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>7676538.2</v>
+        <v>9136967.5</v>
       </c>
       <c r="AG5" s="0" t="n">
         <v>10</v>
@@ -3826,94 +3826,94 @@
         <v>10</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>10082221800</v>
+        <v>10421619100</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>30418367850300</v>
+        <v>962039941500</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>17420.0498</v>
+        <v>17891.437</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>909.6395</v>
+        <v>580.5322</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>117.615463</v>
+        <v>111.631247</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>54.733084</v>
+        <v>59.196538</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>175.69756</v>
+        <v>205.58542</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>76.164571</v>
+        <v>80.157114</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>921.49856</v>
+        <v>1161.69969</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>1836.2246</v>
+        <v>1742.8579</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>2735.82061</v>
+        <v>2115.33477</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>343285396</v>
+        <v>246840684</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>6856844.055</v>
+        <v>3385496.986</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>7727.18301</v>
+        <v>9031.96075</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>18796.3309</v>
+        <v>18825.6259</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>669.63968</v>
+        <v>507.5276</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>219.95797</v>
+        <v>179.06667</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>114300398.8</v>
+        <v>100137980.13</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>79671.5138</v>
+        <v>982986.80274</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>258.35384</v>
+        <v>231.182335</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>200.00911</v>
+        <v>215.22621</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>841.60202</v>
+        <v>742.20852</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>461.40814</v>
+        <v>451.14429</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <v>482.90862</v>
+        <v>450.43903</v>
       </c>
       <c r="AA6" s="0" t="n">
-        <v>979.947</v>
+        <v>872.36773</v>
       </c>
       <c r="AB6" s="0" t="n">
-        <v>1394.9484</v>
+        <v>1449.06052</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>503.69136</v>
+        <v>519.30524</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>814.9413</v>
+        <v>794.09037</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <v>575.75439</v>
+        <v>613.48624</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>6421328.6</v>
+        <v>8211120.83</v>
       </c>
       <c r="AG6" s="0" t="n">
         <v>10</v>
@@ -3927,94 +3927,94 @@
         <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>9507528500</v>
+        <v>9898908300</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>30412879392500</v>
+        <v>576839182018</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>12916.9998</v>
+        <v>17615.5602</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>842.06752</v>
+        <v>518.38567</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>114.560043</v>
+        <v>107.669547</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>54.450792</v>
+        <v>54.096403</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>159.39456</v>
+        <v>182.4398</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>73.573836</v>
+        <v>74.874942</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>791.64016</v>
+        <v>1083.55149</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>1751.2918</v>
+        <v>1718.0733</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>2140.00095</v>
+        <v>2037.84336</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>308896308</v>
+        <v>194359959</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>5751496.635</v>
+        <v>1873706.812</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>6670.982902</v>
+        <v>8048.79985</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>17330.876</v>
+        <v>14085.2372</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>592.84282</v>
+        <v>440.14571</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>196.75362</v>
+        <v>166.69512</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>50775297</v>
+        <v>94040817.85</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>29077.76359</v>
+        <v>491862.60014</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>243.4</v>
+        <v>204.679845</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>189.72435</v>
+        <v>210.55557</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>790.55584</v>
+        <v>609.59707</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>457.36831</v>
+        <v>441.07812</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>438.32043</v>
+        <v>419.73816</v>
       </c>
       <c r="AA7" s="0" t="n">
-        <v>845.13901</v>
+        <v>845.02041</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <v>1342.0936</v>
+        <v>1406.0457</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>495.32819</v>
+        <v>504.63992</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>814.9413</v>
+        <v>650.89294</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <v>541.1551</v>
+        <v>585.31148</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>5486586</v>
+        <v>6010962.25</v>
       </c>
       <c r="AG7" s="0" t="n">
         <v>10</v>
@@ -4028,94 +4028,94 @@
         <v>30</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>9507528500</v>
+        <v>8847411500</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>30411816656000</v>
+        <v>576138066198</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>10968.1621</v>
+        <v>15800.2103</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>837.04785</v>
+        <v>440.38209</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>112.588506</v>
+        <v>106.154171</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>54.450792</v>
+        <v>52.712521</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>150.02831</v>
+        <v>181.23296</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>72.913439</v>
+        <v>73.876724</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>766.14749</v>
+        <v>1017.36525</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>1715.1517</v>
+        <v>1709.2808</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>2140.00095</v>
+        <v>1602.29976</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>299311471</v>
+        <v>151006289</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>5668637.302</v>
+        <v>1598601.222</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>6092.375412</v>
+        <v>7092.16018</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>17242.9731</v>
+        <v>9206.5572</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>557.16372</v>
+        <v>399.30614</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>168.54606</v>
+        <v>160.00148</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>50726057.6</v>
+        <v>51481646.032</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>16354.25774</v>
+        <v>350925.30744</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>222.30148</v>
+        <v>193.101615</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>187.37042</v>
+        <v>198.9963</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>772.52375</v>
+        <v>542.4611</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>457.36739</v>
+        <v>435.71679</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <v>426.59097</v>
+        <v>416.90121</v>
       </c>
       <c r="AA8" s="0" t="n">
-        <v>791.93175</v>
+        <v>836.64214</v>
       </c>
       <c r="AB8" s="0" t="n">
-        <v>1307.2794</v>
+        <v>1361.8894</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>495.32819</v>
+        <v>498.12325</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>808.9793</v>
+        <v>610.57825</v>
       </c>
       <c r="AE8" s="0" t="n">
-        <v>539.85971</v>
+        <v>553.45015</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>4946986.8</v>
+        <v>4256778.48</v>
       </c>
       <c r="AG8" s="0" t="n">
         <v>10</v>
@@ -4129,94 +4129,94 @@
         <v>40</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>9494519900</v>
+        <v>7864651500</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>30411597380000</v>
+        <v>557845166198</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>10797.3503</v>
+        <v>13975.2641</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>837.04785</v>
+        <v>425.435</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>112.588506</v>
+        <v>104.63865</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>54.450792</v>
+        <v>50.589634</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>148.57658</v>
+        <v>173.83841</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>70.296204</v>
+        <v>72.989067</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>710.6064</v>
+        <v>957.03984</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>1709.4648</v>
+        <v>1627.9037</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>2140.00095</v>
+        <v>1288.87716</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>299311471</v>
+        <v>121563277</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>5624479.373</v>
+        <v>1561922.652</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>6091.039072</v>
+        <v>6462.18712</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>17242.9731</v>
+        <v>8506.98189</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>548.96462</v>
+        <v>395.10132</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>165.98082</v>
+        <v>149.8286</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>50658352.12</v>
+        <v>22051187.445</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>16354.25774</v>
+        <v>219652.90744</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>219.30075</v>
+        <v>178.633085</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>187.22518</v>
+        <v>195.88267</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>772.52375</v>
+        <v>491.5641</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>457.36739</v>
+        <v>414.88285</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <v>413.08869</v>
+        <v>405.05303</v>
       </c>
       <c r="AA9" s="0" t="n">
-        <v>791.93175</v>
+        <v>824.76215</v>
       </c>
       <c r="AB9" s="0" t="n">
-        <v>1302.9627</v>
+        <v>1359.0118</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>495.32819</v>
+        <v>491.29583</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <v>808.9793</v>
+        <v>574.99404</v>
       </c>
       <c r="AE9" s="0" t="n">
-        <v>539.85971</v>
+        <v>500.60862</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>4873310.2</v>
+        <v>4204533.98</v>
       </c>
       <c r="AG9" s="0" t="n">
         <v>10</v>
@@ -4230,94 +4230,94 @@
         <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>9494519900</v>
+        <v>7602674500</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>30411597380000</v>
+        <v>557840523598</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>10502.8113</v>
+        <v>13505.4565</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>837.04785</v>
+        <v>425.435</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>112.588506</v>
+        <v>103.635385</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>54.012273</v>
+        <v>48.625313</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>147.17709</v>
+        <v>173.83841</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>67.822728</v>
+        <v>72.26444</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>672.7165</v>
+        <v>939.6808</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>1699.9988</v>
+        <v>1503.6967</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>2140.00095</v>
+        <v>700.29801</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>299311471</v>
+        <v>121563277</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>5609086.203</v>
+        <v>1561922.652</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>6078.448762</v>
+        <v>3258.47703</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>17193.8394</v>
+        <v>5741.21689</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>548.96462</v>
+        <v>357.91374</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>161.637652</v>
+        <v>136.41423</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>50637066.53</v>
+        <v>21765927.635</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>16215.30354</v>
+        <v>162527.70899</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>219.30075</v>
+        <v>171.835555</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>186.49385</v>
+        <v>195.88267</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>772.52375</v>
+        <v>469.05876</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>457.36739</v>
+        <v>413.40021</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <v>413.08869</v>
+        <v>405.05303</v>
       </c>
       <c r="AA10" s="0" t="n">
-        <v>788.83855</v>
+        <v>781.26911</v>
       </c>
       <c r="AB10" s="0" t="n">
-        <v>1302.9627</v>
+        <v>1342.1479</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>495.32819</v>
+        <v>485.56906</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>808.9793</v>
+        <v>564.6587</v>
       </c>
       <c r="AE10" s="0" t="n">
-        <v>538.90526</v>
+        <v>492.73691</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>4873310.2</v>
+        <v>4058411.02</v>
       </c>
       <c r="AG10" s="0" t="n">
         <v>10</v>
@@ -4331,94 +4331,94 @@
         <v>60</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>9494519900</v>
+        <v>7602674500</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>30411597380000</v>
+        <v>489756823598</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>10502.8113</v>
+        <v>13289.0505</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>837.04785</v>
+        <v>413.37952</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>112.588506</v>
+        <v>103.349665</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>54.012273</v>
+        <v>48.625313</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>147.04555</v>
+        <v>171.47873</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>67.822728</v>
+        <v>71.918903</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>672.7165</v>
+        <v>894.63972</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>1639.5178</v>
+        <v>1473.667</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>2140.00095</v>
+        <v>581.75531</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>299311471</v>
+        <v>115423387</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>5609086.203</v>
+        <v>1427214.712</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>6078.448762</v>
+        <v>2786.23111</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>17193.8394</v>
+        <v>5741.21689</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>548.96462</v>
+        <v>349.52644</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>159.472914</v>
+        <v>133.507787</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>50637066.53</v>
+        <v>21765927.635</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>16215.30354</v>
+        <v>162527.70899</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>219.30075</v>
+        <v>163.836295</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>186.49385</v>
+        <v>194.35279</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>772.52375</v>
+        <v>468.4603</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>457.36739</v>
+        <v>413.40021</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <v>413.08869</v>
+        <v>403.1918</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <v>788.83855</v>
+        <v>764.62642</v>
       </c>
       <c r="AB11" s="0" t="n">
-        <v>1302.9627</v>
+        <v>1321.1967</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>495.32819</v>
+        <v>479.8595</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>808.9793</v>
+        <v>549.05314</v>
       </c>
       <c r="AE11" s="0" t="n">
-        <v>537.15314</v>
+        <v>479.24074</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>4873310.2</v>
+        <v>3385026.42</v>
       </c>
       <c r="AG11" s="0" t="n">
         <v>10</v>
@@ -4432,94 +4432,94 @@
         <v>70</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>9494519900</v>
+        <v>7602674500</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>30411597380000</v>
+        <v>488372312428</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>10502.8113</v>
+        <v>12937.1217</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>837.04785</v>
+        <v>371.02747</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>112.588506</v>
+        <v>101.87721</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>54.012273</v>
+        <v>47.850123</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>147.04555</v>
+        <v>166.34735</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>67.761447</v>
+        <v>71.563512</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>671.32733</v>
+        <v>887.93912</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>1639.5178</v>
+        <v>1473.667</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>2140.00095</v>
+        <v>572.07648</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>299311471</v>
+        <v>110542377</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>5609086.203</v>
+        <v>1427214.712</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>6077.716628</v>
+        <v>2748.84889</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>17193.8394</v>
+        <v>5741.21689</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>546.57994</v>
+        <v>343.75529</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>159.472914</v>
+        <v>132.487667</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>50637066.53</v>
+        <v>20409817.635</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>16215.30354</v>
+        <v>122201.68399</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>219.30075</v>
+        <v>162.450315</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>186.49385</v>
+        <v>183.34651</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>772.52375</v>
+        <v>467.75079</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>457.36739</v>
+        <v>408.04195</v>
       </c>
       <c r="Z12" s="0" t="n">
-        <v>413.08869</v>
+        <v>389.20481</v>
       </c>
       <c r="AA12" s="0" t="n">
-        <v>788.83855</v>
+        <v>762.04518</v>
       </c>
       <c r="AB12" s="0" t="n">
-        <v>1302.9627</v>
+        <v>1306.0605</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>495.32819</v>
+        <v>479.18255</v>
       </c>
       <c r="AD12" s="0" t="n">
-        <v>808.9793</v>
+        <v>541.17462</v>
       </c>
       <c r="AE12" s="0" t="n">
-        <v>537.15314</v>
+        <v>478.50845</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>4873310.2</v>
+        <v>3363328.42</v>
       </c>
       <c r="AG12" s="0" t="n">
         <v>10</v>
@@ -4533,94 +4533,94 @@
         <v>80</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>9494519900</v>
+        <v>7237656800</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>30411597380000</v>
+        <v>488372312428</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>10502.8113</v>
+        <v>12387.8893</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>837.04785</v>
+        <v>371.02747</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>112.588506</v>
+        <v>99.858866</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>54.012273</v>
+        <v>46.751013</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>147.04555</v>
+        <v>165.21936</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>67.761447</v>
+        <v>71.166437</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>671.32733</v>
+        <v>887.93912</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>1639.5178</v>
+        <v>1425.6857</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>2140.00095</v>
+        <v>566.23894</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>299311471</v>
+        <v>110542377</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>5608815.091</v>
+        <v>1422703.872</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>6077.716628</v>
+        <v>2705.11148</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>17193.8394</v>
+        <v>4840.12651</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>546.57994</v>
+        <v>332.47229</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>158.941875</v>
+        <v>132.487667</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>50637066.53</v>
+        <v>8793854.405</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>16215.30354</v>
+        <v>122201.68399</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>219.30075</v>
+        <v>162.450315</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>186.49385</v>
+        <v>175.3171</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>772.52375</v>
+        <v>459.21383</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>457.36739</v>
+        <v>405.69977</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>413.08869</v>
+        <v>381.81529</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <v>788.83855</v>
+        <v>753.20834</v>
       </c>
       <c r="AB13" s="0" t="n">
-        <v>1302.9627</v>
+        <v>1255.50393</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>495.32819</v>
+        <v>478.2555</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>808.9793</v>
+        <v>530.98956</v>
       </c>
       <c r="AE13" s="0" t="n">
-        <v>537.15314</v>
+        <v>472.99062</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>4873310.2</v>
+        <v>3363328.42</v>
       </c>
       <c r="AG13" s="0" t="n">
         <v>10</v>
@@ -4634,94 +4634,94 @@
         <v>90</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>9494519900</v>
+        <v>7051960500</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>30411597380000</v>
+        <v>488372312428</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>10502.8113</v>
+        <v>11471.5033</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>837.04785</v>
+        <v>361.54246</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>112.588506</v>
+        <v>99.764952</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>54.012273</v>
+        <v>46.105076</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>147.04555</v>
+        <v>164.52516</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>67.761447</v>
+        <v>71.166437</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>671.32733</v>
+        <v>871.27753</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>1636.769</v>
+        <v>1422.8197</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>2140.00095</v>
+        <v>566.23894</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>299311471</v>
+        <v>109555113</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>5608815.091</v>
+        <v>1162510.862</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>6075.0908</v>
+        <v>2705.11148</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>17193.8394</v>
+        <v>4840.12651</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>546.57994</v>
+        <v>321.72434</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>158.941875</v>
+        <v>126.497187</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>50637066.53</v>
+        <v>2525604.405</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>16215.30354</v>
+        <v>40424.34099</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>219.30075</v>
+        <v>160.767805</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>186.49385</v>
+        <v>172.72499</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>772.52375</v>
+        <v>459.21383</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>457.36739</v>
+        <v>404.20478</v>
       </c>
       <c r="Z14" s="0" t="n">
-        <v>413.08869</v>
+        <v>374.72128</v>
       </c>
       <c r="AA14" s="0" t="n">
-        <v>788.83855</v>
+        <v>747.97114</v>
       </c>
       <c r="AB14" s="0" t="n">
-        <v>1302.9627</v>
+        <v>1234.59487</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>495.32819</v>
+        <v>478.2555</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>808.9793</v>
+        <v>530.98956</v>
       </c>
       <c r="AE14" s="0" t="n">
-        <v>537.15314</v>
+        <v>463.79153</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>4873310.2</v>
+        <v>3276824.22</v>
       </c>
       <c r="AG14" s="0" t="n">
         <v>10</v>
@@ -4735,94 +4735,94 @@
         <v>100</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>9494519900</v>
+        <v>6888204400</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>30411597380000</v>
+        <v>447415642428</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>10502.8113</v>
+        <v>11471.5033</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>837.04785</v>
+        <v>349.46731</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>112.588506</v>
+        <v>96.569944</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>54.012273</v>
+        <v>46.02514</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>147.04555</v>
+        <v>164.52516</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>67.659739</v>
+        <v>70.184088</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>671.32733</v>
+        <v>845.46714</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>1636.769</v>
+        <v>1422.8197</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>2140.00095</v>
+        <v>555.73927</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>299311471</v>
+        <v>109555113</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>5608815.091</v>
+        <v>1162510.862</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>6075.0908</v>
+        <v>2705.11148</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>17193.8394</v>
+        <v>4509.97443</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>546.57994</v>
+        <v>298.12266</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>158.941875</v>
+        <v>117.423132</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>50637066.53</v>
+        <v>2510805.694</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>16215.30354</v>
+        <v>39324.78699</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>219.30075</v>
+        <v>157.421285</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>186.49385</v>
+        <v>172.09417</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>772.52375</v>
+        <v>459.21383</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>457.36739</v>
+        <v>404.20478</v>
       </c>
       <c r="Z15" s="0" t="n">
-        <v>413.08869</v>
+        <v>367.28749</v>
       </c>
       <c r="AA15" s="0" t="n">
-        <v>788.83855</v>
+        <v>691.94334</v>
       </c>
       <c r="AB15" s="0" t="n">
-        <v>1302.9627</v>
+        <v>1153.244</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>495.32819</v>
+        <v>477.01358</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>808.9793</v>
+        <v>530.98956</v>
       </c>
       <c r="AE15" s="0" t="n">
-        <v>537.15314</v>
+        <v>461.3465</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>4873310.2</v>
+        <v>3233436.42</v>
       </c>
       <c r="AG15" s="0" t="n">
         <v>10</v>
@@ -4830,11 +4830,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>